--- a/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\repos\askue_reports\app\routes\generate-reports\.server\workbooks\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Тимашевск" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="ТП_Темрюк" sheetId="2" state="hidden" r:id="rId3"/>
+    <sheet name="Тимашевск" sheetId="1" r:id="rId1"/>
+    <sheet name="ТП_Темрюк" sheetId="2" state="hidden" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Тимашевск!$A$1:$L$1</definedName>
-    <definedName function="false" hidden="false" name="каскад" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="матрица" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="мерку" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="энергом" vbProcedure="false">#REF!</definedName>
-    <definedName function="false" hidden="false" name="Энергомера" vbProcedure="false">#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Тимашевск!$A$1:$L$1</definedName>
+    <definedName name="каскад">#REF!</definedName>
+    <definedName name="матрица">#REF!</definedName>
+    <definedName name="мерку">#REF!</definedName>
+    <definedName name="энергом">#REF!</definedName>
+    <definedName name="Энергомера">#REF!</definedName>
   </definedNames>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -31,857 +35,836 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="273">
   <si>
-    <t xml:space="preserve">Диспечерское наименование ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МАТРИЦА АСКУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">МЕРКУРИЙ АСКУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ АСКУЭ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЕТ ПУ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Общий итог</t>
-  </si>
-  <si>
-    <t xml:space="preserve">АСКУЭ ВСЕГО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">% АСКУЭ на ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">УСПД Установлен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Развитие на 2023 г.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гарантирующий поставщик</t>
-  </si>
-  <si>
-    <t xml:space="preserve">нет тп в бд есть успд 258, 270, 271, 202, 260, 270, 251, 268, 243, 244, 248, 247, 252, 107П, 253П, ТП-274, ТП-275П, ТП-265</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нет привязки к ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">матрица 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">НЭСК</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-102</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-103</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-105</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-112</t>
-  </si>
-  <si>
-    <t xml:space="preserve">матрица 7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-115</t>
-  </si>
-  <si>
-    <t xml:space="preserve">матрица 7/матрица 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-119</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-126</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-127</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-129</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-130</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-134</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-135</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-137</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-140</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-143</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-146</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-147</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-150</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-153</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-156</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-157</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-161</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-162</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-163</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-164</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-165</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-167</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-168</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-169</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-171</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-172</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-187</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-189</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-192</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-197</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-199</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-201</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-204</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-205</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-208</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-212</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-218</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-219</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-222</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-227</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-228</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-232</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-233</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-234</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-235</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-239</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-24</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-241</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-242</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-245</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-259</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-261</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-264</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-266</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-267</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-269</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-272</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-35</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-42</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-44</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-45</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-54</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-71</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-73</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-74</t>
-  </si>
-  <si>
-    <t xml:space="preserve">матрица 7/матрица 8/матрица 8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-80</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-86</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-90</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-93</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-96</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-97</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-249</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-276</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-КЗ-10-43СН</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-КЗ1-101П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-КЗ-11-139</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-ОхБ-151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-ОхБ-158</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-РЗ-310-151</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-39</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-786</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-92</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-94</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-98</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т10-99</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т12-46</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т12-862П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т12-876</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-104</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-107</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-133</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-142</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-24П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-26</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-41</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-43</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-48</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-49</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-52П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-57</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-61</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т3-85</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-12</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-138</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-15К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-19</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-27</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-28</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-30</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-33</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-34</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-53</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-55</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-58</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-64</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-67</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-83</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-87</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т5-9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-121</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-125</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-131</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-132</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-148</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-21</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-25</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-38</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-45П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-47</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-50</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-51</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-56</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-69П</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-77</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-79</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-82</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т7-89</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т8-781</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т8-871</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т8-91</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т8-939</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ТП-Т8-97</t>
+    <t>Диспечерское наименование ТП</t>
+  </si>
+  <si>
+    <t>МАТРИЦА АСКУЭ</t>
+  </si>
+  <si>
+    <t>МЕРКУРИЙ АСКУЭ</t>
+  </si>
+  <si>
+    <t>НЕТ АСКУЭ</t>
+  </si>
+  <si>
+    <t>НЕТ ПУ</t>
+  </si>
+  <si>
+    <t>Общий итог</t>
+  </si>
+  <si>
+    <t>АСКУЭ ВСЕГО</t>
+  </si>
+  <si>
+    <t>% АСКУЭ на ТП</t>
+  </si>
+  <si>
+    <t>УСПД Установлен</t>
+  </si>
+  <si>
+    <t>Развитие на 2023 г.</t>
+  </si>
+  <si>
+    <t>Гарантирующий поставщик</t>
+  </si>
+  <si>
+    <t>нет тп в бд есть успд 258, 270, 271, 202, 260, 270, 251, 268, 243, 244, 248, 247, 252, 107П, 253П, ТП-274, ТП-275П, ТП-265</t>
+  </si>
+  <si>
+    <t>Нет привязки к ТП</t>
+  </si>
+  <si>
+    <t>ТП-1</t>
+  </si>
+  <si>
+    <t>матрица 8</t>
+  </si>
+  <si>
+    <t>НЭСК</t>
+  </si>
+  <si>
+    <t>ТП-10</t>
+  </si>
+  <si>
+    <t>ТП-100</t>
+  </si>
+  <si>
+    <t>ТП-101</t>
+  </si>
+  <si>
+    <t>ТП-102</t>
+  </si>
+  <si>
+    <t>ТП-103</t>
+  </si>
+  <si>
+    <t>ТП-104</t>
+  </si>
+  <si>
+    <t>ТП-105</t>
+  </si>
+  <si>
+    <t>ТП-11</t>
+  </si>
+  <si>
+    <t>ТП-110</t>
+  </si>
+  <si>
+    <t>ТП-112</t>
+  </si>
+  <si>
+    <t>матрица 7</t>
+  </si>
+  <si>
+    <t>ТП-115</t>
+  </si>
+  <si>
+    <t>матрица 7/матрица 8</t>
+  </si>
+  <si>
+    <t>ТП-119</t>
+  </si>
+  <si>
+    <t>ТП-12</t>
+  </si>
+  <si>
+    <t>ТП-121</t>
+  </si>
+  <si>
+    <t>ТП-122</t>
+  </si>
+  <si>
+    <t>ТП-123</t>
+  </si>
+  <si>
+    <t>ТП-125</t>
+  </si>
+  <si>
+    <t>ТП-126</t>
+  </si>
+  <si>
+    <t>ТП-127</t>
+  </si>
+  <si>
+    <t>ТП-129</t>
+  </si>
+  <si>
+    <t>ТП-13</t>
+  </si>
+  <si>
+    <t>ТП-130</t>
+  </si>
+  <si>
+    <t>ТП-131</t>
+  </si>
+  <si>
+    <t>ТП-132</t>
+  </si>
+  <si>
+    <t>ТП-133</t>
+  </si>
+  <si>
+    <t>ТП-134</t>
+  </si>
+  <si>
+    <t>ТП-135</t>
+  </si>
+  <si>
+    <t>ТП-137</t>
+  </si>
+  <si>
+    <t>ТП-139</t>
+  </si>
+  <si>
+    <t>ТП-14</t>
+  </si>
+  <si>
+    <t>ТП-140</t>
+  </si>
+  <si>
+    <t>ТП-143</t>
+  </si>
+  <si>
+    <t>ТП-146</t>
+  </si>
+  <si>
+    <t>ТП-147</t>
+  </si>
+  <si>
+    <t>ТП-15</t>
+  </si>
+  <si>
+    <t>ТП-150</t>
+  </si>
+  <si>
+    <t>ТП-153</t>
+  </si>
+  <si>
+    <t>ТП-156</t>
+  </si>
+  <si>
+    <t>ТП-157</t>
+  </si>
+  <si>
+    <t>ТП-16</t>
+  </si>
+  <si>
+    <t>ТП-161</t>
+  </si>
+  <si>
+    <t>ТП-162</t>
+  </si>
+  <si>
+    <t>ТП-163</t>
+  </si>
+  <si>
+    <t>ТП-164</t>
+  </si>
+  <si>
+    <t>ТП-165</t>
+  </si>
+  <si>
+    <t>ТП-167</t>
+  </si>
+  <si>
+    <t>ТП-168</t>
+  </si>
+  <si>
+    <t>ТП-169</t>
+  </si>
+  <si>
+    <t>ТП-17</t>
+  </si>
+  <si>
+    <t>ТП-171</t>
+  </si>
+  <si>
+    <t>ТП-172</t>
+  </si>
+  <si>
+    <t>ТП-173</t>
+  </si>
+  <si>
+    <t>ТП-18</t>
+  </si>
+  <si>
+    <t>ТП-187</t>
+  </si>
+  <si>
+    <t>ТП-189</t>
+  </si>
+  <si>
+    <t>ТП-192</t>
+  </si>
+  <si>
+    <t>ТП-197</t>
+  </si>
+  <si>
+    <t>ТП-199</t>
+  </si>
+  <si>
+    <t>ТП-2</t>
+  </si>
+  <si>
+    <t>ТП-20</t>
+  </si>
+  <si>
+    <t>ТП-201</t>
+  </si>
+  <si>
+    <t>ТП-204</t>
+  </si>
+  <si>
+    <t>ТП-205</t>
+  </si>
+  <si>
+    <t>ТП-208</t>
+  </si>
+  <si>
+    <t>ТП-212</t>
+  </si>
+  <si>
+    <t>ТП-218</t>
+  </si>
+  <si>
+    <t>ТП-219</t>
+  </si>
+  <si>
+    <t>ТП-22</t>
+  </si>
+  <si>
+    <t>ТП-222</t>
+  </si>
+  <si>
+    <t>ТП-227</t>
+  </si>
+  <si>
+    <t>ТП-228</t>
+  </si>
+  <si>
+    <t>ТП-23</t>
+  </si>
+  <si>
+    <t>ТП-231</t>
+  </si>
+  <si>
+    <t>ТП-232</t>
+  </si>
+  <si>
+    <t>ТП-233</t>
+  </si>
+  <si>
+    <t>ТП-234</t>
+  </si>
+  <si>
+    <t>ТП-235</t>
+  </si>
+  <si>
+    <t>ТП-239</t>
+  </si>
+  <si>
+    <t>ТП-24</t>
+  </si>
+  <si>
+    <t>ТП-241</t>
+  </si>
+  <si>
+    <t>ТП-242</t>
+  </si>
+  <si>
+    <t>ТП-245</t>
+  </si>
+  <si>
+    <t>ТП-246</t>
+  </si>
+  <si>
+    <t>ТП-259</t>
+  </si>
+  <si>
+    <t>ТП-26</t>
+  </si>
+  <si>
+    <t>ТП-261</t>
+  </si>
+  <si>
+    <t>ТП-263</t>
+  </si>
+  <si>
+    <t>ТП-264</t>
+  </si>
+  <si>
+    <t>ТП-266</t>
+  </si>
+  <si>
+    <t>ТП-267</t>
+  </si>
+  <si>
+    <t>ТП-269</t>
+  </si>
+  <si>
+    <t>ТП-27</t>
+  </si>
+  <si>
+    <t>ТП-272</t>
+  </si>
+  <si>
+    <t>ТП-28</t>
+  </si>
+  <si>
+    <t>ТП-29</t>
+  </si>
+  <si>
+    <t>ТП-3</t>
+  </si>
+  <si>
+    <t>ТП-30</t>
+  </si>
+  <si>
+    <t>ТП-31</t>
+  </si>
+  <si>
+    <t>ТП-32</t>
+  </si>
+  <si>
+    <t>ТП-33</t>
+  </si>
+  <si>
+    <t>ТП-34</t>
+  </si>
+  <si>
+    <t>ТП-35</t>
+  </si>
+  <si>
+    <t>ТП-36</t>
+  </si>
+  <si>
+    <t>ТП-38</t>
+  </si>
+  <si>
+    <t>ТП-39</t>
+  </si>
+  <si>
+    <t>ТП-4</t>
+  </si>
+  <si>
+    <t>ТП-40</t>
+  </si>
+  <si>
+    <t>ТП-42</t>
+  </si>
+  <si>
+    <t>ТП-43</t>
+  </si>
+  <si>
+    <t>ТП-44</t>
+  </si>
+  <si>
+    <t>ТП-45</t>
+  </si>
+  <si>
+    <t>ТП-46</t>
+  </si>
+  <si>
+    <t>ТП-47</t>
+  </si>
+  <si>
+    <t>ТП-48</t>
+  </si>
+  <si>
+    <t>ТП-49</t>
+  </si>
+  <si>
+    <t>ТП-5</t>
+  </si>
+  <si>
+    <t>ТП-50</t>
+  </si>
+  <si>
+    <t>ТП-51</t>
+  </si>
+  <si>
+    <t>ТП-52</t>
+  </si>
+  <si>
+    <t>ТП-53</t>
+  </si>
+  <si>
+    <t>ТП-54</t>
+  </si>
+  <si>
+    <t>ТП-55</t>
+  </si>
+  <si>
+    <t>ТП-56</t>
+  </si>
+  <si>
+    <t>ТП-58</t>
+  </si>
+  <si>
+    <t>ТП-6</t>
+  </si>
+  <si>
+    <t>ТП-7</t>
+  </si>
+  <si>
+    <t>ТП-70</t>
+  </si>
+  <si>
+    <t>ТП-71</t>
+  </si>
+  <si>
+    <t>ТП-73</t>
+  </si>
+  <si>
+    <t>ТП-74</t>
+  </si>
+  <si>
+    <t>матрица 7/матрица 8/матрица 8</t>
+  </si>
+  <si>
+    <t>ТП-79</t>
+  </si>
+  <si>
+    <t>ТП-80</t>
+  </si>
+  <si>
+    <t>ТП-82</t>
+  </si>
+  <si>
+    <t>ТП-83</t>
+  </si>
+  <si>
+    <t>ТП-84</t>
+  </si>
+  <si>
+    <t>ТП-85</t>
+  </si>
+  <si>
+    <t>ТП-86</t>
+  </si>
+  <si>
+    <t>ТП-87</t>
+  </si>
+  <si>
+    <t>ТП-9</t>
+  </si>
+  <si>
+    <t>ТП-90</t>
+  </si>
+  <si>
+    <t>ТП-91</t>
+  </si>
+  <si>
+    <t>ТП-92</t>
+  </si>
+  <si>
+    <t>ТП-93</t>
+  </si>
+  <si>
+    <t>ТП-94</t>
+  </si>
+  <si>
+    <t>ТП-95</t>
+  </si>
+  <si>
+    <t>ТП-96</t>
+  </si>
+  <si>
+    <t>ТП-97</t>
+  </si>
+  <si>
+    <t>ТП-98</t>
+  </si>
+  <si>
+    <t>ТП-249</t>
+  </si>
+  <si>
+    <t>ТП-276</t>
+  </si>
+  <si>
+    <t>ТП-99</t>
+  </si>
+  <si>
+    <t>ТП</t>
+  </si>
+  <si>
+    <t>ТП-КЗ-10-43СН</t>
+  </si>
+  <si>
+    <t>ТП-КЗ1-101П</t>
+  </si>
+  <si>
+    <t>ТП-КЗ-11-139</t>
+  </si>
+  <si>
+    <t>ТП-ОхБ-151</t>
+  </si>
+  <si>
+    <t>ТП-ОхБ-158</t>
+  </si>
+  <si>
+    <t>ТП-РЗ-310-151</t>
+  </si>
+  <si>
+    <t>ТП-Т10-39</t>
+  </si>
+  <si>
+    <t>ТП-Т10-786</t>
+  </si>
+  <si>
+    <t>ТП-Т10-876</t>
+  </si>
+  <si>
+    <t>ТП-Т10-92</t>
+  </si>
+  <si>
+    <t>ТП-Т10-94</t>
+  </si>
+  <si>
+    <t>ТП-Т10-98</t>
+  </si>
+  <si>
+    <t>ТП-Т10-99</t>
+  </si>
+  <si>
+    <t>ТП-Т12-46</t>
+  </si>
+  <si>
+    <t>ТП-Т12-862П</t>
+  </si>
+  <si>
+    <t>ТП-Т12-876</t>
+  </si>
+  <si>
+    <t>ТП-Т3-104</t>
+  </si>
+  <si>
+    <t>ТП-Т3-107</t>
+  </si>
+  <si>
+    <t>ТП-Т3-122</t>
+  </si>
+  <si>
+    <t>ТП-Т3-124</t>
+  </si>
+  <si>
+    <t>ТП-Т3-13</t>
+  </si>
+  <si>
+    <t>ТП-Т3-132</t>
+  </si>
+  <si>
+    <t>ТП-Т3-133</t>
+  </si>
+  <si>
+    <t>ТП-Т3-142</t>
+  </si>
+  <si>
+    <t>ТП-Т3-2</t>
+  </si>
+  <si>
+    <t>ТП-Т3-22</t>
+  </si>
+  <si>
+    <t>ТП-Т3-24П</t>
+  </si>
+  <si>
+    <t>ТП-Т3-26</t>
+  </si>
+  <si>
+    <t>ТП-Т3-32</t>
+  </si>
+  <si>
+    <t>ТП-Т3-40</t>
+  </si>
+  <si>
+    <t>ТП-Т3-41</t>
+  </si>
+  <si>
+    <t>ТП-Т3-43</t>
+  </si>
+  <si>
+    <t>ТП-Т3-48</t>
+  </si>
+  <si>
+    <t>ТП-Т3-49</t>
+  </si>
+  <si>
+    <t>ТП-Т3-52</t>
+  </si>
+  <si>
+    <t>ТП-Т3-52П</t>
+  </si>
+  <si>
+    <t>ТП-Т3-53</t>
+  </si>
+  <si>
+    <t>ТП-Т3-57</t>
+  </si>
+  <si>
+    <t>ТП-Т3-61</t>
+  </si>
+  <si>
+    <t>ТП-Т3-85</t>
+  </si>
+  <si>
+    <t>ТП-Т5-1</t>
+  </si>
+  <si>
+    <t>ТП-Т5-10</t>
+  </si>
+  <si>
+    <t>ТП-Т5-11</t>
+  </si>
+  <si>
+    <t>ТП-Т5-12</t>
+  </si>
+  <si>
+    <t>ТП-Т5-138</t>
+  </si>
+  <si>
+    <t>ТП-Т5-15</t>
+  </si>
+  <si>
+    <t>ТП-Т5-15К</t>
+  </si>
+  <si>
+    <t>ТП-Т5-16</t>
+  </si>
+  <si>
+    <t>ТП-Т5-19</t>
+  </si>
+  <si>
+    <t>ТП-Т5-27</t>
+  </si>
+  <si>
+    <t>ТП-Т5-28</t>
+  </si>
+  <si>
+    <t>ТП-Т5-29</t>
+  </si>
+  <si>
+    <t>ТП-Т5-30</t>
+  </si>
+  <si>
+    <t>ТП-Т5-33</t>
+  </si>
+  <si>
+    <t>ТП-Т5-34</t>
+  </si>
+  <si>
+    <t>ТП-Т5-53</t>
+  </si>
+  <si>
+    <t>ТП-Т5-55</t>
+  </si>
+  <si>
+    <t>ТП-Т5-58</t>
+  </si>
+  <si>
+    <t>ТП-Т5-64</t>
+  </si>
+  <si>
+    <t>ТП-Т5-67</t>
+  </si>
+  <si>
+    <t>ТП-Т5-70</t>
+  </si>
+  <si>
+    <t>ТП-Т5-79</t>
+  </si>
+  <si>
+    <t>ТП-Т5-83</t>
+  </si>
+  <si>
+    <t>ТП-Т5-87</t>
+  </si>
+  <si>
+    <t>ТП-Т5-9</t>
+  </si>
+  <si>
+    <t>ТП-Т7-121</t>
+  </si>
+  <si>
+    <t>ТП-Т7-125</t>
+  </si>
+  <si>
+    <t>ТП-Т7-131</t>
+  </si>
+  <si>
+    <t>ТП-Т7-132</t>
+  </si>
+  <si>
+    <t>ТП-Т7-148</t>
+  </si>
+  <si>
+    <t>ТП-Т7-17</t>
+  </si>
+  <si>
+    <t>ТП-Т7-18</t>
+  </si>
+  <si>
+    <t>ТП-Т7-20</t>
+  </si>
+  <si>
+    <t>ТП-Т7-21</t>
+  </si>
+  <si>
+    <t>ТП-Т7-25</t>
+  </si>
+  <si>
+    <t>ТП-Т7-3</t>
+  </si>
+  <si>
+    <t>ТП-Т7-31</t>
+  </si>
+  <si>
+    <t>ТП-Т7-36</t>
+  </si>
+  <si>
+    <t>ТП-Т7-38</t>
+  </si>
+  <si>
+    <t>ТП-Т7-4</t>
+  </si>
+  <si>
+    <t>ТП-Т7-45П</t>
+  </si>
+  <si>
+    <t>ТП-Т7-47</t>
+  </si>
+  <si>
+    <t>ТП-Т7-5</t>
+  </si>
+  <si>
+    <t>ТП-Т7-50</t>
+  </si>
+  <si>
+    <t>ТП-Т7-51</t>
+  </si>
+  <si>
+    <t>ТП-Т7-56</t>
+  </si>
+  <si>
+    <t>ТП-Т7-6</t>
+  </si>
+  <si>
+    <t>ТП-Т7-65</t>
+  </si>
+  <si>
+    <t>ТП-Т7-69П</t>
+  </si>
+  <si>
+    <t>ТП-Т7-7</t>
+  </si>
+  <si>
+    <t>ТП-Т7-77</t>
+  </si>
+  <si>
+    <t>ТП-Т7-781</t>
+  </si>
+  <si>
+    <t>ТП-Т7-79</t>
+  </si>
+  <si>
+    <t>ТП-Т7-8</t>
+  </si>
+  <si>
+    <t>ТП-Т7-82</t>
+  </si>
+  <si>
+    <t>ТП-Т7-84</t>
+  </si>
+  <si>
+    <t>ТП-Т7-89</t>
+  </si>
+  <si>
+    <t>ТП-Т8-781</t>
+  </si>
+  <si>
+    <t>ТП-Т8-871</t>
+  </si>
+  <si>
+    <t>ТП-Т8-91</t>
+  </si>
+  <si>
+    <t>ТП-Т8-939</t>
+  </si>
+  <si>
+    <t>ТП-Т8-97</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0%"/>
-    <numFmt numFmtId="166" formatCode="0.00%"/>
-    <numFmt numFmtId="167" formatCode="General"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -891,7 +874,7 @@
       <charset val="204"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -908,195 +891,124 @@
     </fill>
   </fills>
   <borders count="4">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellStyleXfs count="14">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="15">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="24" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="24" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="19">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Обычный 12" xfId="20"/>
-    <cellStyle name="Обычный 2" xfId="21"/>
-    <cellStyle name="Обычный 2 2" xfId="22"/>
-    <cellStyle name="Обычный 2 3" xfId="23"/>
-    <cellStyle name="Обычный 2 3 2" xfId="24"/>
-    <cellStyle name="Обычный 2 4" xfId="25"/>
-    <cellStyle name="Обычный 2 5" xfId="26"/>
-    <cellStyle name="Обычный 3" xfId="27"/>
-    <cellStyle name="Обычный 4" xfId="28"/>
-    <cellStyle name="Процентный 2" xfId="29"/>
-    <cellStyle name="Процентный 2 2" xfId="30"/>
-    <cellStyle name="Процентный 2 2 2" xfId="31"/>
-    <cellStyle name="Процентный 2 3" xfId="32"/>
+  <cellStyles count="14">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 12" xfId="1"/>
+    <cellStyle name="Обычный 2" xfId="2"/>
+    <cellStyle name="Обычный 2 2" xfId="3"/>
+    <cellStyle name="Обычный 2 3" xfId="4"/>
+    <cellStyle name="Обычный 2 3 2" xfId="5"/>
+    <cellStyle name="Обычный 2 4" xfId="6"/>
+    <cellStyle name="Обычный 2 5" xfId="7"/>
+    <cellStyle name="Обычный 3" xfId="8"/>
+    <cellStyle name="Обычный 4" xfId="9"/>
+    <cellStyle name="Процентный 2" xfId="10"/>
+    <cellStyle name="Процентный 2 2" xfId="11"/>
+    <cellStyle name="Процентный 2 2 2" xfId="12"/>
+    <cellStyle name="Процентный 2 3" xfId="13"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -1155,47 +1067,317 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+  <a:themeElements>
+    <a:clrScheme name="Стандартная">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Стандартная">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Стандартная">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
-    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L155"/>
+  <dimension ref="A1:AMJ155"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C136" activeCellId="0" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="16.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="12.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="9.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="3" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="3" width="21.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="3" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="97.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="13" style="1" width="9.14"/>
+    <col min="1" max="1" width="34" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.85546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="17.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="39.42578125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="21.140625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="97.42578125" style="1" customWidth="1"/>
+    <col min="13" max="1024" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1233,55 +1415,55 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
-      <c r="D2" s="9" t="n">
+      <c r="D2" s="9">
         <v>122</v>
       </c>
-      <c r="E2" s="9" t="n">
+      <c r="E2" s="9">
         <v>57</v>
       </c>
-      <c r="F2" s="9" t="n">
+      <c r="F2" s="9">
         <v>180</v>
       </c>
-      <c r="G2" s="9" t="n">
-        <f aca="false">B2+C2</f>
-        <v>0</v>
-      </c>
-      <c r="H2" s="10" t="n">
-        <f aca="false">G2/F2</f>
+      <c r="G2" s="9">
+        <f t="shared" ref="G2:G33" si="0">B2+C2</f>
+        <v>0</v>
+      </c>
+      <c r="H2" s="10">
+        <f t="shared" ref="H2:H33" si="1">G2/F2</f>
         <v>0</v>
       </c>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
       <c r="K2" s="11"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
-      <c r="D3" s="9" t="n">
-        <f aca="false">F3-G3</f>
+      <c r="D3" s="9">
+        <f t="shared" ref="D3:D34" si="2">F3-G3</f>
         <v>165</v>
       </c>
-      <c r="E3" s="9" t="n">
+      <c r="E3" s="9">
         <v>3</v>
       </c>
-      <c r="F3" s="9" t="n">
+      <c r="F3" s="9">
         <v>165</v>
       </c>
-      <c r="G3" s="9" t="n">
-        <f aca="false">B3+C3</f>
-        <v>0</v>
-      </c>
-      <c r="H3" s="10" t="n">
-        <f aca="false">G3/F3</f>
+      <c r="G3" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -1292,26 +1474,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
-      <c r="D4" s="9" t="n">
-        <f aca="false">F4-G4</f>
+      <c r="D4" s="9">
+        <f t="shared" si="2"/>
         <v>158</v>
       </c>
       <c r="E4" s="9"/>
-      <c r="F4" s="9" t="n">
+      <c r="F4" s="9">
         <v>158</v>
       </c>
-      <c r="G4" s="9" t="n">
-        <f aca="false">B4+C4</f>
-        <v>0</v>
-      </c>
-      <c r="H4" s="10" t="n">
-        <f aca="false">G4/F4</f>
+      <c r="G4" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -1322,28 +1504,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="9" t="n">
-        <f aca="false">F5-G5</f>
+      <c r="D5" s="9">
+        <f t="shared" si="2"/>
         <v>224</v>
       </c>
-      <c r="E5" s="9" t="n">
+      <c r="E5" s="9">
         <v>3</v>
       </c>
-      <c r="F5" s="9" t="n">
+      <c r="F5" s="9">
         <v>224</v>
       </c>
-      <c r="G5" s="9" t="n">
-        <f aca="false">B5+C5</f>
-        <v>0</v>
-      </c>
-      <c r="H5" s="10" t="n">
-        <f aca="false">G5/F5</f>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I5" s="11"/>
@@ -1352,28 +1534,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
-      <c r="D6" s="9" t="n">
-        <f aca="false">F6-G6</f>
+      <c r="D6" s="9">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="E6" s="9" t="n">
+      <c r="E6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="9" t="n">
+      <c r="F6" s="9">
         <v>53</v>
       </c>
-      <c r="G6" s="9" t="n">
-        <f aca="false">B6+C6</f>
-        <v>0</v>
-      </c>
-      <c r="H6" s="10" t="n">
-        <f aca="false">G6/F6</f>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I6" s="11"/>
@@ -1382,26 +1564,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
-      <c r="D7" s="9" t="n">
-        <f aca="false">F7-G7</f>
+      <c r="D7" s="9">
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
       <c r="E7" s="9"/>
-      <c r="F7" s="9" t="n">
+      <c r="F7" s="9">
         <v>33</v>
       </c>
-      <c r="G7" s="9" t="n">
-        <f aca="false">B7+C7</f>
-        <v>0</v>
-      </c>
-      <c r="H7" s="10" t="n">
-        <f aca="false">G7/F7</f>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
@@ -1410,26 +1592,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="9" t="n">
-        <f aca="false">F8-G8</f>
+      <c r="D8" s="9">
+        <f t="shared" si="2"/>
         <v>51</v>
       </c>
       <c r="E8" s="9"/>
-      <c r="F8" s="9" t="n">
+      <c r="F8" s="9">
         <v>51</v>
       </c>
-      <c r="G8" s="9" t="n">
-        <f aca="false">B8+C8</f>
-        <v>0</v>
-      </c>
-      <c r="H8" s="10" t="n">
-        <f aca="false">G8/F8</f>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I8" s="11"/>
@@ -1438,26 +1620,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="9" t="n">
-        <f aca="false">F9-G9</f>
+      <c r="D9" s="9">
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="E9" s="9"/>
-      <c r="F9" s="9" t="n">
+      <c r="F9" s="9">
         <v>9</v>
       </c>
-      <c r="G9" s="9" t="n">
-        <f aca="false">B9+C9</f>
-        <v>0</v>
-      </c>
-      <c r="H9" s="10" t="n">
-        <f aca="false">G9/F9</f>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I9" s="11"/>
@@ -1466,28 +1648,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="9" t="n">
-        <f aca="false">F10-G10</f>
+      <c r="D10" s="9">
+        <f t="shared" si="2"/>
         <v>169</v>
       </c>
-      <c r="E10" s="9" t="n">
+      <c r="E10" s="9">
         <v>1</v>
       </c>
-      <c r="F10" s="9" t="n">
+      <c r="F10" s="9">
         <v>169</v>
       </c>
-      <c r="G10" s="9" t="n">
-        <f aca="false">B10+C10</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="10" t="n">
-        <f aca="false">G10/F10</f>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
@@ -1498,28 +1680,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="9" t="n">
-        <f aca="false">F11-G11</f>
+      <c r="D11" s="9">
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="E11" s="9" t="n">
+      <c r="E11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="9" t="n">
+      <c r="F11" s="9">
         <v>20</v>
       </c>
-      <c r="G11" s="9" t="n">
-        <f aca="false">B11+C11</f>
-        <v>0</v>
-      </c>
-      <c r="H11" s="10" t="n">
-        <f aca="false">G11/F11</f>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I11" s="11"/>
@@ -1528,26 +1710,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
-      <c r="D12" s="9" t="n">
-        <f aca="false">F12-G12</f>
+      <c r="D12" s="9">
+        <f t="shared" si="2"/>
         <v>29</v>
       </c>
       <c r="E12" s="9"/>
-      <c r="F12" s="9" t="n">
+      <c r="F12" s="9">
         <v>29</v>
       </c>
-      <c r="G12" s="9" t="n">
-        <f aca="false">B12+C12</f>
-        <v>0</v>
-      </c>
-      <c r="H12" s="10" t="n">
-        <f aca="false">G12/F12</f>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="11"/>
@@ -1556,28 +1738,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="9" t="n">
-        <f aca="false">F13-G13</f>
+      <c r="D13" s="9">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="E13" s="9" t="n">
+      <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="9" t="n">
+      <c r="F13" s="9">
         <v>76</v>
       </c>
-      <c r="G13" s="9" t="n">
-        <f aca="false">B13+C13</f>
-        <v>0</v>
-      </c>
-      <c r="H13" s="10" t="n">
-        <f aca="false">G13/F13</f>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
@@ -1588,26 +1770,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="9" t="n">
-        <f aca="false">F14-G14</f>
+      <c r="D14" s="9">
+        <f t="shared" si="2"/>
         <v>232</v>
       </c>
       <c r="E14" s="9"/>
-      <c r="F14" s="9" t="n">
+      <c r="F14" s="9">
         <v>232</v>
       </c>
-      <c r="G14" s="9" t="n">
-        <f aca="false">B14+C14</f>
-        <v>0</v>
-      </c>
-      <c r="H14" s="10" t="n">
-        <f aca="false">G14/F14</f>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -1618,28 +1800,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="9" t="n">
-        <f aca="false">F15-G15</f>
+      <c r="D15" s="9">
+        <f t="shared" si="2"/>
         <v>142</v>
       </c>
-      <c r="E15" s="9" t="n">
+      <c r="E15" s="9">
         <v>1</v>
       </c>
-      <c r="F15" s="9" t="n">
+      <c r="F15" s="9">
         <v>142</v>
       </c>
-      <c r="G15" s="9" t="n">
-        <f aca="false">B15+C15</f>
-        <v>0</v>
-      </c>
-      <c r="H15" s="10" t="n">
-        <f aca="false">G15/F15</f>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
@@ -1650,28 +1832,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="9" t="n">
-        <f aca="false">F16-G16</f>
+      <c r="D16" s="9">
+        <f t="shared" si="2"/>
         <v>85</v>
       </c>
-      <c r="E16" s="9" t="n">
+      <c r="E16" s="9">
         <v>2</v>
       </c>
-      <c r="F16" s="9" t="n">
+      <c r="F16" s="9">
         <v>85</v>
       </c>
-      <c r="G16" s="9" t="n">
-        <f aca="false">B16+C16</f>
-        <v>0</v>
-      </c>
-      <c r="H16" s="10" t="n">
-        <f aca="false">G16/F16</f>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
@@ -1682,28 +1864,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="9" t="n">
-        <f aca="false">F17-G17</f>
+      <c r="D17" s="9">
+        <f t="shared" si="2"/>
         <v>166</v>
       </c>
-      <c r="E17" s="9" t="n">
+      <c r="E17" s="9">
         <v>1</v>
       </c>
-      <c r="F17" s="9" t="n">
+      <c r="F17" s="9">
         <v>166</v>
       </c>
-      <c r="G17" s="9" t="n">
-        <f aca="false">B17+C17</f>
-        <v>0</v>
-      </c>
-      <c r="H17" s="10" t="n">
-        <f aca="false">G17/F17</f>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -1714,26 +1896,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="9" t="n">
-        <f aca="false">F18-G18</f>
+      <c r="D18" s="9">
+        <f t="shared" si="2"/>
         <v>13</v>
       </c>
       <c r="E18" s="9"/>
-      <c r="F18" s="9" t="n">
+      <c r="F18" s="9">
         <v>13</v>
       </c>
-      <c r="G18" s="9" t="n">
-        <f aca="false">B18+C18</f>
-        <v>0</v>
-      </c>
-      <c r="H18" s="10" t="n">
-        <f aca="false">G18/F18</f>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
@@ -1744,26 +1926,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="9" t="n">
-        <f aca="false">F19-G19</f>
+      <c r="D19" s="9">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E19" s="9"/>
-      <c r="F19" s="9" t="n">
+      <c r="F19" s="9">
         <v>52</v>
       </c>
-      <c r="G19" s="9" t="n">
-        <f aca="false">B19+C19</f>
-        <v>0</v>
-      </c>
-      <c r="H19" s="10" t="n">
-        <f aca="false">G19/F19</f>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
@@ -1772,28 +1954,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="9" t="n">
-        <f aca="false">F20-G20</f>
+      <c r="D20" s="9">
+        <f t="shared" si="2"/>
         <v>60</v>
       </c>
-      <c r="E20" s="9" t="n">
+      <c r="E20" s="9">
         <v>1</v>
       </c>
-      <c r="F20" s="9" t="n">
+      <c r="F20" s="9">
         <v>60</v>
       </c>
-      <c r="G20" s="9" t="n">
-        <f aca="false">B20+C20</f>
-        <v>0</v>
-      </c>
-      <c r="H20" s="10" t="n">
-        <f aca="false">G20/F20</f>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I20" s="11"/>
@@ -1802,28 +1984,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="9" t="n">
-        <f aca="false">F21-G21</f>
+      <c r="D21" s="9">
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
-      <c r="E21" s="9" t="n">
+      <c r="E21" s="9">
         <v>1</v>
       </c>
-      <c r="F21" s="9" t="n">
+      <c r="F21" s="9">
         <v>48</v>
       </c>
-      <c r="G21" s="9" t="n">
-        <f aca="false">B21+C21</f>
-        <v>0</v>
-      </c>
-      <c r="H21" s="10" t="n">
-        <f aca="false">G21/F21</f>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I21" s="11"/>
@@ -1832,26 +2014,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="n">
-        <f aca="false">F22-G22</f>
+      <c r="D22" s="9">
+        <f t="shared" si="2"/>
         <v>50</v>
       </c>
       <c r="E22" s="9"/>
-      <c r="F22" s="9" t="n">
+      <c r="F22" s="9">
         <v>50</v>
       </c>
-      <c r="G22" s="9" t="n">
-        <f aca="false">B22+C22</f>
-        <v>0</v>
-      </c>
-      <c r="H22" s="10" t="n">
-        <f aca="false">G22/F22</f>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I22" s="11"/>
@@ -1860,28 +2042,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>37</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="9" t="n">
-        <f aca="false">F23-G23</f>
+      <c r="D23" s="9">
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="E23" s="9" t="n">
+      <c r="E23" s="9">
         <v>3</v>
       </c>
-      <c r="F23" s="9" t="n">
+      <c r="F23" s="9">
         <v>40</v>
       </c>
-      <c r="G23" s="9" t="n">
-        <f aca="false">B23+C23</f>
-        <v>0</v>
-      </c>
-      <c r="H23" s="10" t="n">
-        <f aca="false">G23/F23</f>
+      <c r="G23" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
@@ -1892,26 +2074,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>38</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="n">
-        <f aca="false">F24-G24</f>
+      <c r="D24" s="9">
+        <f t="shared" si="2"/>
         <v>52</v>
       </c>
       <c r="E24" s="9"/>
-      <c r="F24" s="9" t="n">
+      <c r="F24" s="9">
         <v>52</v>
       </c>
-      <c r="G24" s="9" t="n">
-        <f aca="false">B24+C24</f>
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="n">
-        <f aca="false">G24/F24</f>
+      <c r="G24" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="11"/>
@@ -1920,26 +2102,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>39</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
-      <c r="D25" s="9" t="n">
-        <f aca="false">F25-G25</f>
+      <c r="D25" s="9">
+        <f t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="E25" s="9"/>
-      <c r="F25" s="9" t="n">
+      <c r="F25" s="9">
         <v>56</v>
       </c>
-      <c r="G25" s="9" t="n">
-        <f aca="false">B25+C25</f>
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="n">
-        <f aca="false">G25/F25</f>
+      <c r="G25" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="11"/>
@@ -1948,26 +2130,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="9" t="n">
-        <f aca="false">F26-G26</f>
+      <c r="D26" s="9">
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="E26" s="9"/>
-      <c r="F26" s="9" t="n">
+      <c r="F26" s="9">
         <v>11</v>
       </c>
-      <c r="G26" s="9" t="n">
-        <f aca="false">B26+C26</f>
-        <v>0</v>
-      </c>
-      <c r="H26" s="10" t="n">
-        <f aca="false">G26/F26</f>
+      <c r="G26" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="11"/>
@@ -1976,26 +2158,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>41</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="9" t="n">
-        <f aca="false">F27-G27</f>
+      <c r="D27" s="9">
+        <f t="shared" si="2"/>
         <v>70</v>
       </c>
       <c r="E27" s="9"/>
-      <c r="F27" s="9" t="n">
+      <c r="F27" s="9">
         <v>70</v>
       </c>
-      <c r="G27" s="9" t="n">
-        <f aca="false">B27+C27</f>
-        <v>0</v>
-      </c>
-      <c r="H27" s="10" t="n">
-        <f aca="false">G27/F27</f>
+      <c r="G27" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -2006,26 +2188,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="9" t="n">
-        <f aca="false">F28-G28</f>
+      <c r="D28" s="9">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E28" s="9"/>
-      <c r="F28" s="9" t="n">
+      <c r="F28" s="9">
         <v>2</v>
       </c>
-      <c r="G28" s="9" t="n">
-        <f aca="false">B28+C28</f>
-        <v>0</v>
-      </c>
-      <c r="H28" s="10" t="n">
-        <f aca="false">G28/F28</f>
+      <c r="G28" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="11"/>
@@ -2034,28 +2216,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="9" t="n">
-        <f aca="false">F29-G29</f>
+      <c r="D29" s="9">
+        <f t="shared" si="2"/>
         <v>76</v>
       </c>
-      <c r="E29" s="9" t="n">
+      <c r="E29" s="9">
         <v>2</v>
       </c>
-      <c r="F29" s="9" t="n">
+      <c r="F29" s="9">
         <v>76</v>
       </c>
-      <c r="G29" s="9" t="n">
-        <f aca="false">B29+C29</f>
-        <v>0</v>
-      </c>
-      <c r="H29" s="10" t="n">
-        <f aca="false">G29/F29</f>
+      <c r="G29" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="11"/>
@@ -2064,26 +2246,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>44</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="9" t="n">
-        <f aca="false">F30-G30</f>
+      <c r="D30" s="9">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="E30" s="9"/>
-      <c r="F30" s="9" t="n">
+      <c r="F30" s="9">
         <v>3</v>
       </c>
-      <c r="G30" s="9" t="n">
-        <f aca="false">B30+C30</f>
-        <v>0</v>
-      </c>
-      <c r="H30" s="10" t="n">
-        <f aca="false">G30/F30</f>
+      <c r="G30" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="11"/>
@@ -2092,26 +2274,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>45</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9" t="n">
-        <f aca="false">F31-G31</f>
+      <c r="D31" s="9">
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="E31" s="9"/>
-      <c r="F31" s="9" t="n">
+      <c r="F31" s="9">
         <v>28</v>
       </c>
-      <c r="G31" s="9" t="n">
-        <f aca="false">B31+C31</f>
-        <v>0</v>
-      </c>
-      <c r="H31" s="10" t="n">
-        <f aca="false">G31/F31</f>
+      <c r="G31" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="11"/>
@@ -2120,28 +2302,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9" t="n">
-        <f aca="false">F32-G32</f>
+      <c r="D32" s="9">
+        <f t="shared" si="2"/>
         <v>53</v>
       </c>
-      <c r="E32" s="9" t="n">
+      <c r="E32" s="9">
         <v>1</v>
       </c>
-      <c r="F32" s="9" t="n">
+      <c r="F32" s="9">
         <v>53</v>
       </c>
-      <c r="G32" s="9" t="n">
-        <f aca="false">B32+C32</f>
-        <v>0</v>
-      </c>
-      <c r="H32" s="10" t="n">
-        <f aca="false">G32/F32</f>
+      <c r="G32" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="11" t="s">
@@ -2152,26 +2334,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>47</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9" t="n">
-        <f aca="false">F33-G33</f>
+      <c r="D33" s="9">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="E33" s="9"/>
-      <c r="F33" s="9" t="n">
+      <c r="F33" s="9">
         <v>2</v>
       </c>
-      <c r="G33" s="9" t="n">
-        <f aca="false">B33+C33</f>
-        <v>0</v>
-      </c>
-      <c r="H33" s="10" t="n">
-        <f aca="false">G33/F33</f>
+      <c r="G33" s="9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="11"/>
@@ -2180,26 +2362,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>48</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9" t="n">
-        <f aca="false">F34-G34</f>
+      <c r="D34" s="9">
+        <f t="shared" si="2"/>
         <v>107</v>
       </c>
       <c r="E34" s="9"/>
-      <c r="F34" s="9" t="n">
+      <c r="F34" s="9">
         <v>107</v>
       </c>
-      <c r="G34" s="9" t="n">
-        <f aca="false">B34+C34</f>
-        <v>0</v>
-      </c>
-      <c r="H34" s="10" t="n">
-        <f aca="false">G34/F34</f>
+      <c r="G34" s="9">
+        <f t="shared" ref="G34:G65" si="3">B34+C34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" ref="H34:H65" si="4">G34/F34</f>
         <v>0</v>
       </c>
       <c r="I34" s="11"/>
@@ -2208,28 +2390,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="9" t="n">
-        <f aca="false">F35-G35</f>
+      <c r="D35" s="9">
+        <f t="shared" ref="D35:D66" si="5">F35-G35</f>
         <v>166</v>
       </c>
-      <c r="E35" s="9" t="n">
+      <c r="E35" s="9">
         <v>1</v>
       </c>
-      <c r="F35" s="9" t="n">
+      <c r="F35" s="9">
         <v>166</v>
       </c>
-      <c r="G35" s="9" t="n">
-        <f aca="false">B35+C35</f>
-        <v>0</v>
-      </c>
-      <c r="H35" s="10" t="n">
-        <f aca="false">G35/F35</f>
+      <c r="G35" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -2240,26 +2422,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>50</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9" t="n">
-        <f aca="false">F36-G36</f>
+      <c r="D36" s="9">
+        <f t="shared" si="5"/>
         <v>4</v>
       </c>
       <c r="E36" s="9"/>
-      <c r="F36" s="9" t="n">
+      <c r="F36" s="9">
         <v>4</v>
       </c>
-      <c r="G36" s="9" t="n">
-        <f aca="false">B36+C36</f>
-        <v>0</v>
-      </c>
-      <c r="H36" s="10" t="n">
-        <f aca="false">G36/F36</f>
+      <c r="G36" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I36" s="11"/>
@@ -2268,26 +2450,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>51</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9" t="n">
-        <f aca="false">F37-G37</f>
+      <c r="D37" s="9">
+        <f t="shared" si="5"/>
         <v>131</v>
       </c>
       <c r="E37" s="9"/>
-      <c r="F37" s="9" t="n">
+      <c r="F37" s="9">
         <v>131</v>
       </c>
-      <c r="G37" s="9" t="n">
-        <f aca="false">B37+C37</f>
-        <v>0</v>
-      </c>
-      <c r="H37" s="10" t="n">
-        <f aca="false">G37/F37</f>
+      <c r="G37" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -2298,26 +2480,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>52</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9" t="n">
-        <f aca="false">F38-G38</f>
+      <c r="D38" s="9">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E38" s="9"/>
-      <c r="F38" s="9" t="n">
+      <c r="F38" s="9">
         <v>81</v>
       </c>
-      <c r="G38" s="9" t="n">
-        <f aca="false">B38+C38</f>
-        <v>0</v>
-      </c>
-      <c r="H38" s="10" t="n">
-        <f aca="false">G38/F38</f>
+      <c r="G38" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I38" s="11" t="s">
@@ -2328,26 +2510,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="9" t="n">
-        <f aca="false">F39-G39</f>
+      <c r="D39" s="9">
+        <f t="shared" si="5"/>
         <v>59</v>
       </c>
       <c r="E39" s="9"/>
-      <c r="F39" s="9" t="n">
+      <c r="F39" s="9">
         <v>59</v>
       </c>
-      <c r="G39" s="9" t="n">
-        <f aca="false">B39+C39</f>
-        <v>0</v>
-      </c>
-      <c r="H39" s="10" t="n">
-        <f aca="false">G39/F39</f>
+      <c r="G39" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -2358,26 +2540,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>54</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
-      <c r="D40" s="9" t="n">
-        <f aca="false">F40-G40</f>
+      <c r="D40" s="9">
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
       <c r="E40" s="9"/>
-      <c r="F40" s="9" t="n">
+      <c r="F40" s="9">
         <v>133</v>
       </c>
-      <c r="G40" s="9" t="n">
-        <f aca="false">B40+C40</f>
-        <v>0</v>
-      </c>
-      <c r="H40" s="10" t="n">
-        <f aca="false">G40/F40</f>
+      <c r="G40" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -2388,26 +2570,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>55</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="9" t="n">
-        <f aca="false">F41-G41</f>
+      <c r="D41" s="9">
+        <f t="shared" si="5"/>
         <v>172</v>
       </c>
       <c r="E41" s="9"/>
-      <c r="F41" s="9" t="n">
+      <c r="F41" s="9">
         <v>172</v>
       </c>
-      <c r="G41" s="9" t="n">
-        <f aca="false">B41+C41</f>
-        <v>0</v>
-      </c>
-      <c r="H41" s="10" t="n">
-        <f aca="false">G41/F41</f>
+      <c r="G41" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -2418,26 +2600,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>56</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="9" t="n">
-        <f aca="false">F42-G42</f>
+      <c r="D42" s="9">
+        <f t="shared" si="5"/>
         <v>148</v>
       </c>
       <c r="E42" s="9"/>
-      <c r="F42" s="9" t="n">
+      <c r="F42" s="9">
         <v>148</v>
       </c>
-      <c r="G42" s="9" t="n">
-        <f aca="false">B42+C42</f>
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="n">
-        <f aca="false">G42/F42</f>
+      <c r="G42" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -2448,26 +2630,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>57</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9" t="n">
-        <f aca="false">F43-G43</f>
+      <c r="D43" s="9">
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E43" s="9"/>
-      <c r="F43" s="9" t="n">
+      <c r="F43" s="9">
         <v>81</v>
       </c>
-      <c r="G43" s="9" t="n">
-        <f aca="false">B43+C43</f>
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="n">
-        <f aca="false">G43/F43</f>
+      <c r="G43" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I43" s="11"/>
@@ -2476,26 +2658,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>58</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9" t="n">
-        <f aca="false">F44-G44</f>
+      <c r="D44" s="9">
+        <f t="shared" si="5"/>
         <v>174</v>
       </c>
       <c r="E44" s="9"/>
-      <c r="F44" s="9" t="n">
+      <c r="F44" s="9">
         <v>174</v>
       </c>
-      <c r="G44" s="9" t="n">
-        <f aca="false">B44+C44</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="10" t="n">
-        <f aca="false">G44/F44</f>
+      <c r="G44" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -2506,26 +2688,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>59</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="9" t="n">
-        <f aca="false">F45-G45</f>
+      <c r="D45" s="9">
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
       <c r="E45" s="9"/>
-      <c r="F45" s="9" t="n">
+      <c r="F45" s="9">
         <v>147</v>
       </c>
-      <c r="G45" s="9" t="n">
-        <f aca="false">B45+C45</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="10" t="n">
-        <f aca="false">G45/F45</f>
+      <c r="G45" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -2536,26 +2718,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>60</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
-      <c r="D46" s="9" t="n">
-        <f aca="false">F46-G46</f>
+      <c r="D46" s="9">
+        <f t="shared" si="5"/>
         <v>11</v>
       </c>
       <c r="E46" s="9"/>
-      <c r="F46" s="9" t="n">
+      <c r="F46" s="9">
         <v>11</v>
       </c>
-      <c r="G46" s="9" t="n">
-        <f aca="false">B46+C46</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="10" t="n">
-        <f aca="false">G46/F46</f>
+      <c r="G46" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I46" s="11"/>
@@ -2564,28 +2746,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>61</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
-      <c r="D47" s="9" t="n">
-        <f aca="false">F47-G47</f>
+      <c r="D47" s="9">
+        <f t="shared" si="5"/>
         <v>220</v>
       </c>
-      <c r="E47" s="9" t="n">
+      <c r="E47" s="9">
         <v>1</v>
       </c>
-      <c r="F47" s="9" t="n">
+      <c r="F47" s="9">
         <v>220</v>
       </c>
-      <c r="G47" s="9" t="n">
-        <f aca="false">B47+C47</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="10" t="n">
-        <f aca="false">G47/F47</f>
+      <c r="G47" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -2596,26 +2778,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>62</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="9" t="n">
-        <f aca="false">F48-G48</f>
+      <c r="D48" s="9">
+        <f t="shared" si="5"/>
         <v>63</v>
       </c>
       <c r="E48" s="9"/>
-      <c r="F48" s="9" t="n">
+      <c r="F48" s="9">
         <v>63</v>
       </c>
-      <c r="G48" s="9" t="n">
-        <f aca="false">B48+C48</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="10" t="n">
-        <f aca="false">G48/F48</f>
+      <c r="G48" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I48" s="11"/>
@@ -2624,26 +2806,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>63</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
-      <c r="D49" s="9" t="n">
-        <f aca="false">F49-G49</f>
+      <c r="D49" s="9">
+        <f t="shared" si="5"/>
         <v>246</v>
       </c>
       <c r="E49" s="9"/>
-      <c r="F49" s="9" t="n">
+      <c r="F49" s="9">
         <v>246</v>
       </c>
-      <c r="G49" s="9" t="n">
-        <f aca="false">B49+C49</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="10" t="n">
-        <f aca="false">G49/F49</f>
+      <c r="G49" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -2654,26 +2836,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>64</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
-      <c r="D50" s="9" t="n">
-        <f aca="false">F50-G50</f>
+      <c r="D50" s="9">
+        <f t="shared" si="5"/>
         <v>256</v>
       </c>
       <c r="E50" s="9"/>
-      <c r="F50" s="9" t="n">
+      <c r="F50" s="9">
         <v>256</v>
       </c>
-      <c r="G50" s="9" t="n">
-        <f aca="false">B50+C50</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="10" t="n">
-        <f aca="false">G50/F50</f>
+      <c r="G50" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -2684,26 +2866,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
-      <c r="D51" s="9" t="n">
-        <f aca="false">F51-G51</f>
+      <c r="D51" s="9">
+        <f t="shared" si="5"/>
         <v>57</v>
       </c>
       <c r="E51" s="9"/>
-      <c r="F51" s="9" t="n">
+      <c r="F51" s="9">
         <v>57</v>
       </c>
-      <c r="G51" s="9" t="n">
-        <f aca="false">B51+C51</f>
-        <v>0</v>
-      </c>
-      <c r="H51" s="10" t="n">
-        <f aca="false">G51/F51</f>
+      <c r="G51" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I51" s="11"/>
@@ -2712,26 +2894,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>66</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
-      <c r="D52" s="9" t="n">
-        <f aca="false">F52-G52</f>
+      <c r="D52" s="9">
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="E52" s="9"/>
-      <c r="F52" s="9" t="n">
+      <c r="F52" s="9">
         <v>43</v>
       </c>
-      <c r="G52" s="9" t="n">
-        <f aca="false">B52+C52</f>
-        <v>0</v>
-      </c>
-      <c r="H52" s="10" t="n">
-        <f aca="false">G52/F52</f>
+      <c r="G52" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H52" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I52" s="11"/>
@@ -2740,26 +2922,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>67</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
-      <c r="D53" s="9" t="n">
-        <f aca="false">F53-G53</f>
+      <c r="D53" s="9">
+        <f t="shared" si="5"/>
         <v>119</v>
       </c>
       <c r="E53" s="9"/>
-      <c r="F53" s="9" t="n">
+      <c r="F53" s="9">
         <v>119</v>
       </c>
-      <c r="G53" s="9" t="n">
-        <f aca="false">B53+C53</f>
-        <v>0</v>
-      </c>
-      <c r="H53" s="10" t="n">
-        <f aca="false">G53/F53</f>
+      <c r="G53" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H53" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -2770,28 +2952,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>68</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
-      <c r="D54" s="9" t="n">
-        <f aca="false">F54-G54</f>
+      <c r="D54" s="9">
+        <f t="shared" si="5"/>
         <v>187</v>
       </c>
-      <c r="E54" s="9" t="n">
+      <c r="E54" s="9">
         <v>1</v>
       </c>
-      <c r="F54" s="9" t="n">
+      <c r="F54" s="9">
         <v>187</v>
       </c>
-      <c r="G54" s="9" t="n">
-        <f aca="false">B54+C54</f>
-        <v>0</v>
-      </c>
-      <c r="H54" s="10" t="n">
-        <f aca="false">G54/F54</f>
+      <c r="G54" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H54" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I54" s="11"/>
@@ -2800,28 +2982,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>69</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
-      <c r="D55" s="9" t="n">
-        <f aca="false">F55-G55</f>
+      <c r="D55" s="9">
+        <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="E55" s="9" t="n">
+      <c r="E55" s="9">
         <v>14</v>
       </c>
-      <c r="F55" s="9" t="n">
+      <c r="F55" s="9">
         <v>14</v>
       </c>
-      <c r="G55" s="9" t="n">
-        <f aca="false">B55+C55</f>
-        <v>0</v>
-      </c>
-      <c r="H55" s="10" t="n">
-        <f aca="false">G55/F55</f>
+      <c r="G55" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H55" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I55" s="11"/>
@@ -2830,28 +3012,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>70</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
-      <c r="D56" s="9" t="n">
-        <f aca="false">F56-G56</f>
+      <c r="D56" s="9">
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
-      <c r="E56" s="9" t="n">
+      <c r="E56" s="9">
         <v>1</v>
       </c>
-      <c r="F56" s="9" t="n">
+      <c r="F56" s="9">
         <v>214</v>
       </c>
-      <c r="G56" s="9" t="n">
-        <f aca="false">B56+C56</f>
-        <v>0</v>
-      </c>
-      <c r="H56" s="10" t="n">
-        <f aca="false">G56/F56</f>
+      <c r="G56" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H56" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -2862,26 +3044,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>71</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
-      <c r="D57" s="9" t="n">
-        <f aca="false">F57-G57</f>
+      <c r="D57" s="9">
+        <f t="shared" si="5"/>
         <v>92</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="9" t="n">
+      <c r="F57" s="9">
         <v>92</v>
       </c>
-      <c r="G57" s="9" t="n">
-        <f aca="false">B57+C57</f>
-        <v>0</v>
-      </c>
-      <c r="H57" s="10" t="n">
-        <f aca="false">G57/F57</f>
+      <c r="G57" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H57" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I57" s="11"/>
@@ -2890,28 +3072,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>72</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
-      <c r="D58" s="9" t="n">
-        <f aca="false">F58-G58</f>
+      <c r="D58" s="9">
+        <f t="shared" si="5"/>
         <v>97</v>
       </c>
-      <c r="E58" s="9" t="n">
+      <c r="E58" s="9">
         <v>1</v>
       </c>
-      <c r="F58" s="9" t="n">
+      <c r="F58" s="9">
         <v>97</v>
       </c>
-      <c r="G58" s="9" t="n">
-        <f aca="false">B58+C58</f>
-        <v>0</v>
-      </c>
-      <c r="H58" s="10" t="n">
-        <f aca="false">G58/F58</f>
+      <c r="G58" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I58" s="11"/>
@@ -2920,26 +3102,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>73</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
-      <c r="D59" s="9" t="n">
-        <f aca="false">F59-G59</f>
+      <c r="D59" s="9">
+        <f t="shared" si="5"/>
         <v>22</v>
       </c>
       <c r="E59" s="9"/>
-      <c r="F59" s="9" t="n">
+      <c r="F59" s="9">
         <v>22</v>
       </c>
-      <c r="G59" s="9" t="n">
-        <f aca="false">B59+C59</f>
-        <v>0</v>
-      </c>
-      <c r="H59" s="10" t="n">
-        <f aca="false">G59/F59</f>
+      <c r="G59" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I59" s="11"/>
@@ -2948,28 +3130,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
-      <c r="D60" s="9" t="n">
-        <f aca="false">F60-G60</f>
+      <c r="D60" s="9">
+        <f t="shared" si="5"/>
         <v>133</v>
       </c>
-      <c r="E60" s="9" t="n">
+      <c r="E60" s="9">
         <v>1</v>
       </c>
-      <c r="F60" s="9" t="n">
+      <c r="F60" s="9">
         <v>133</v>
       </c>
-      <c r="G60" s="9" t="n">
-        <f aca="false">B60+C60</f>
-        <v>0</v>
-      </c>
-      <c r="H60" s="10" t="n">
-        <f aca="false">G60/F60</f>
+      <c r="G60" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I60" s="11" t="s">
@@ -2980,26 +3162,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>75</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
-      <c r="D61" s="9" t="n">
-        <f aca="false">F61-G61</f>
+      <c r="D61" s="9">
+        <f t="shared" si="5"/>
         <v>83</v>
       </c>
       <c r="E61" s="9"/>
-      <c r="F61" s="9" t="n">
+      <c r="F61" s="9">
         <v>83</v>
       </c>
-      <c r="G61" s="9" t="n">
-        <f aca="false">B61+C61</f>
-        <v>0</v>
-      </c>
-      <c r="H61" s="10" t="n">
-        <f aca="false">G61/F61</f>
+      <c r="G61" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I61" s="11" t="s">
@@ -3010,28 +3192,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>76</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
-      <c r="D62" s="9" t="n">
-        <f aca="false">F62-G62</f>
+      <c r="D62" s="9">
+        <f t="shared" si="5"/>
         <v>147</v>
       </c>
-      <c r="E62" s="9" t="n">
+      <c r="E62" s="9">
         <v>1</v>
       </c>
-      <c r="F62" s="9" t="n">
+      <c r="F62" s="9">
         <v>147</v>
       </c>
-      <c r="G62" s="9" t="n">
-        <f aca="false">B62+C62</f>
-        <v>0</v>
-      </c>
-      <c r="H62" s="10" t="n">
-        <f aca="false">G62/F62</f>
+      <c r="G62" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I62" s="11"/>
@@ -3040,26 +3222,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>77</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="9" t="n">
-        <f aca="false">F63-G63</f>
+      <c r="D63" s="9">
+        <f t="shared" si="5"/>
         <v>69</v>
       </c>
       <c r="E63" s="9"/>
-      <c r="F63" s="9" t="n">
+      <c r="F63" s="9">
         <v>69</v>
       </c>
-      <c r="G63" s="9" t="n">
-        <f aca="false">B63+C63</f>
-        <v>0</v>
-      </c>
-      <c r="H63" s="10" t="n">
-        <f aca="false">G63/F63</f>
+      <c r="G63" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I63" s="11"/>
@@ -3068,26 +3250,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>78</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="9" t="n">
-        <f aca="false">F64-G64</f>
+      <c r="D64" s="9">
+        <f t="shared" si="5"/>
         <v>111</v>
       </c>
       <c r="E64" s="9"/>
-      <c r="F64" s="9" t="n">
+      <c r="F64" s="9">
         <v>111</v>
       </c>
-      <c r="G64" s="9" t="n">
-        <f aca="false">B64+C64</f>
-        <v>0</v>
-      </c>
-      <c r="H64" s="10" t="n">
-        <f aca="false">G64/F64</f>
+      <c r="G64" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H64" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I64" s="11" t="s">
@@ -3098,28 +3280,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>79</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
-      <c r="D65" s="9" t="n">
-        <f aca="false">F65-G65</f>
+      <c r="D65" s="9">
+        <f t="shared" si="5"/>
         <v>89</v>
       </c>
-      <c r="E65" s="9" t="n">
+      <c r="E65" s="9">
         <v>1</v>
       </c>
-      <c r="F65" s="9" t="n">
+      <c r="F65" s="9">
         <v>89</v>
       </c>
-      <c r="G65" s="9" t="n">
-        <f aca="false">B65+C65</f>
-        <v>0</v>
-      </c>
-      <c r="H65" s="10" t="n">
-        <f aca="false">G65/F65</f>
+      <c r="G65" s="9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="10">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
@@ -3130,26 +3312,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>80</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="9" t="n">
-        <f aca="false">F66-G66</f>
+      <c r="D66" s="9">
+        <f t="shared" si="5"/>
         <v>87</v>
       </c>
       <c r="E66" s="9"/>
-      <c r="F66" s="9" t="n">
+      <c r="F66" s="9">
         <v>87</v>
       </c>
-      <c r="G66" s="9" t="n">
-        <f aca="false">B66+C66</f>
-        <v>0</v>
-      </c>
-      <c r="H66" s="10" t="n">
-        <f aca="false">G66/F66</f>
+      <c r="G66" s="9">
+        <f t="shared" ref="G66:G97" si="6">B66+C66</f>
+        <v>0</v>
+      </c>
+      <c r="H66" s="10">
+        <f t="shared" ref="H66:H97" si="7">G66/F66</f>
         <v>0</v>
       </c>
       <c r="I66" s="11"/>
@@ -3158,26 +3340,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
-      <c r="D67" s="9" t="n">
-        <f aca="false">F67-G67</f>
+      <c r="D67" s="9">
+        <f t="shared" ref="D67:D98" si="8">F67-G67</f>
         <v>139</v>
       </c>
       <c r="E67" s="9"/>
-      <c r="F67" s="9" t="n">
+      <c r="F67" s="9">
         <v>139</v>
       </c>
-      <c r="G67" s="9" t="n">
-        <f aca="false">B67+C67</f>
-        <v>0</v>
-      </c>
-      <c r="H67" s="10" t="n">
-        <f aca="false">G67/F67</f>
+      <c r="G67" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
@@ -3188,26 +3370,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>82</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
-      <c r="D68" s="9" t="n">
-        <f aca="false">F68-G68</f>
+      <c r="D68" s="9">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="E68" s="9"/>
-      <c r="F68" s="9" t="n">
+      <c r="F68" s="9">
         <v>34</v>
       </c>
-      <c r="G68" s="9" t="n">
-        <f aca="false">B68+C68</f>
-        <v>0</v>
-      </c>
-      <c r="H68" s="10" t="n">
-        <f aca="false">G68/F68</f>
+      <c r="G68" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I68" s="11"/>
@@ -3216,28 +3398,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>83</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
-      <c r="D69" s="9" t="n">
-        <f aca="false">F69-G69</f>
+      <c r="D69" s="9">
+        <f t="shared" si="8"/>
         <v>91</v>
       </c>
-      <c r="E69" s="9" t="n">
+      <c r="E69" s="9">
         <v>1</v>
       </c>
-      <c r="F69" s="9" t="n">
+      <c r="F69" s="9">
         <v>91</v>
       </c>
-      <c r="G69" s="9" t="n">
-        <f aca="false">B69+C69</f>
-        <v>0</v>
-      </c>
-      <c r="H69" s="10" t="n">
-        <f aca="false">G69/F69</f>
+      <c r="G69" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I69" s="11"/>
@@ -3246,26 +3428,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>84</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
-      <c r="D70" s="9" t="n">
-        <f aca="false">F70-G70</f>
+      <c r="D70" s="9">
+        <f t="shared" si="8"/>
         <v>116</v>
       </c>
       <c r="E70" s="9"/>
-      <c r="F70" s="9" t="n">
+      <c r="F70" s="9">
         <v>116</v>
       </c>
-      <c r="G70" s="9" t="n">
-        <f aca="false">B70+C70</f>
-        <v>0</v>
-      </c>
-      <c r="H70" s="10" t="n">
-        <f aca="false">G70/F70</f>
+      <c r="G70" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I70" s="11"/>
@@ -3274,28 +3456,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>85</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
-      <c r="D71" s="9" t="n">
-        <f aca="false">F71-G71</f>
+      <c r="D71" s="9">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
-      <c r="E71" s="9" t="n">
+      <c r="E71" s="9">
         <v>1</v>
       </c>
-      <c r="F71" s="9" t="n">
+      <c r="F71" s="9">
         <v>13</v>
       </c>
-      <c r="G71" s="9" t="n">
-        <f aca="false">B71+C71</f>
-        <v>0</v>
-      </c>
-      <c r="H71" s="10" t="n">
-        <f aca="false">G71/F71</f>
+      <c r="G71" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I71" s="11"/>
@@ -3304,26 +3486,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
-      <c r="D72" s="9" t="n">
-        <f aca="false">F72-G72</f>
+      <c r="D72" s="9">
+        <f t="shared" si="8"/>
         <v>39</v>
       </c>
       <c r="E72" s="9"/>
-      <c r="F72" s="9" t="n">
+      <c r="F72" s="9">
         <v>39</v>
       </c>
-      <c r="G72" s="9" t="n">
-        <f aca="false">B72+C72</f>
-        <v>0</v>
-      </c>
-      <c r="H72" s="10" t="n">
-        <f aca="false">G72/F72</f>
+      <c r="G72" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I72" s="11" t="s">
@@ -3334,26 +3516,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
         <v>87</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
-      <c r="D73" s="9" t="n">
-        <f aca="false">F73-G73</f>
+      <c r="D73" s="9">
+        <f t="shared" si="8"/>
         <v>55</v>
       </c>
       <c r="E73" s="9"/>
-      <c r="F73" s="9" t="n">
+      <c r="F73" s="9">
         <v>55</v>
       </c>
-      <c r="G73" s="9" t="n">
-        <f aca="false">B73+C73</f>
-        <v>0</v>
-      </c>
-      <c r="H73" s="10" t="n">
-        <f aca="false">G73/F73</f>
+      <c r="G73" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
@@ -3364,28 +3546,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
-      <c r="D74" s="9" t="n">
-        <f aca="false">F74-G74</f>
+      <c r="D74" s="9">
+        <f t="shared" si="8"/>
         <v>100</v>
       </c>
-      <c r="E74" s="9" t="n">
+      <c r="E74" s="9">
         <v>1</v>
       </c>
-      <c r="F74" s="9" t="n">
+      <c r="F74" s="9">
         <v>100</v>
       </c>
-      <c r="G74" s="9" t="n">
-        <f aca="false">B74+C74</f>
-        <v>0</v>
-      </c>
-      <c r="H74" s="10" t="n">
-        <f aca="false">G74/F74</f>
+      <c r="G74" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I74" s="11" t="s">
@@ -3396,26 +3578,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
         <v>89</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
-      <c r="D75" s="9" t="n">
-        <f aca="false">F75-G75</f>
+      <c r="D75" s="9">
+        <f t="shared" si="8"/>
         <v>15</v>
       </c>
       <c r="E75" s="9"/>
-      <c r="F75" s="9" t="n">
-        <v>15</v>
-      </c>
-      <c r="G75" s="9" t="n">
-        <f aca="false">B75+C75</f>
-        <v>0</v>
-      </c>
-      <c r="H75" s="10" t="n">
-        <f aca="false">G75/F75</f>
+      <c r="F75" s="9">
+        <v>15</v>
+      </c>
+      <c r="G75" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H75" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I75" s="11"/>
@@ -3424,28 +3606,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
-      <c r="D76" s="9" t="n">
-        <f aca="false">F76-G76</f>
+      <c r="D76" s="9">
+        <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="E76" s="9" t="n">
+      <c r="E76" s="9">
         <v>1</v>
       </c>
-      <c r="F76" s="9" t="n">
+      <c r="F76" s="9">
         <v>108</v>
       </c>
-      <c r="G76" s="9" t="n">
-        <f aca="false">B76+C76</f>
-        <v>0</v>
-      </c>
-      <c r="H76" s="10" t="n">
-        <f aca="false">G76/F76</f>
+      <c r="G76" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H76" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I76" s="11" t="s">
@@ -3456,26 +3638,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
         <v>91</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
-      <c r="D77" s="9" t="n">
-        <f aca="false">F77-G77</f>
+      <c r="D77" s="9">
+        <f t="shared" si="8"/>
         <v>30</v>
       </c>
       <c r="E77" s="9"/>
-      <c r="F77" s="9" t="n">
+      <c r="F77" s="9">
         <v>30</v>
       </c>
-      <c r="G77" s="9" t="n">
-        <f aca="false">B77+C77</f>
-        <v>0</v>
-      </c>
-      <c r="H77" s="10" t="n">
-        <f aca="false">G77/F77</f>
+      <c r="G77" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H77" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
@@ -3486,28 +3668,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
         <v>92</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
-      <c r="D78" s="9" t="n">
-        <f aca="false">F78-G78</f>
+      <c r="D78" s="9">
+        <f t="shared" si="8"/>
         <v>73</v>
       </c>
-      <c r="E78" s="9" t="n">
+      <c r="E78" s="9">
         <v>1</v>
       </c>
-      <c r="F78" s="9" t="n">
+      <c r="F78" s="9">
         <v>73</v>
       </c>
-      <c r="G78" s="9" t="n">
-        <f aca="false">B78+C78</f>
-        <v>0</v>
-      </c>
-      <c r="H78" s="10" t="n">
-        <f aca="false">G78/F78</f>
+      <c r="G78" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H78" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -3518,26 +3700,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
         <v>93</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
-      <c r="D79" s="9" t="n">
-        <f aca="false">F79-G79</f>
+      <c r="D79" s="9">
+        <f t="shared" si="8"/>
         <v>25</v>
       </c>
       <c r="E79" s="9"/>
-      <c r="F79" s="9" t="n">
+      <c r="F79" s="9">
         <v>25</v>
       </c>
-      <c r="G79" s="9" t="n">
-        <f aca="false">B79+C79</f>
-        <v>0</v>
-      </c>
-      <c r="H79" s="10" t="n">
-        <f aca="false">G79/F79</f>
+      <c r="G79" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H79" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -3548,26 +3730,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
-      <c r="D80" s="9" t="n">
-        <f aca="false">F80-G80</f>
+      <c r="D80" s="9">
+        <f t="shared" si="8"/>
         <v>191</v>
       </c>
       <c r="E80" s="9"/>
-      <c r="F80" s="9" t="n">
+      <c r="F80" s="9">
         <v>191</v>
       </c>
-      <c r="G80" s="9" t="n">
-        <f aca="false">B80+C80</f>
-        <v>0</v>
-      </c>
-      <c r="H80" s="10" t="n">
-        <f aca="false">G80/F80</f>
+      <c r="G80" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
@@ -3578,28 +3760,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
-      <c r="D81" s="9" t="n">
-        <f aca="false">F81-G81</f>
+      <c r="D81" s="9">
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
-      <c r="E81" s="9" t="n">
+      <c r="E81" s="9">
         <v>1</v>
       </c>
-      <c r="F81" s="9" t="n">
+      <c r="F81" s="9">
         <v>61</v>
       </c>
-      <c r="G81" s="9" t="n">
-        <f aca="false">B81+C81</f>
-        <v>0</v>
-      </c>
-      <c r="H81" s="10" t="n">
-        <f aca="false">G81/F81</f>
+      <c r="G81" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H81" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
@@ -3610,26 +3792,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
         <v>96</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
-      <c r="D82" s="9" t="n">
-        <f aca="false">F82-G82</f>
+      <c r="D82" s="9">
+        <f t="shared" si="8"/>
         <v>35</v>
       </c>
       <c r="E82" s="9"/>
-      <c r="F82" s="9" t="n">
+      <c r="F82" s="9">
         <v>35</v>
       </c>
-      <c r="G82" s="9" t="n">
-        <f aca="false">B82+C82</f>
-        <v>0</v>
-      </c>
-      <c r="H82" s="10" t="n">
-        <f aca="false">G82/F82</f>
+      <c r="G82" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H82" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I82" s="11"/>
@@ -3638,26 +3820,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="9" t="n">
-        <f aca="false">F83-G83</f>
+      <c r="D83" s="9">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
       <c r="E83" s="9"/>
-      <c r="F83" s="9" t="n">
+      <c r="F83" s="9">
         <v>20</v>
       </c>
-      <c r="G83" s="9" t="n">
-        <f aca="false">B83+C83</f>
-        <v>0</v>
-      </c>
-      <c r="H83" s="10" t="n">
-        <f aca="false">G83/F83</f>
+      <c r="G83" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H83" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
@@ -3668,28 +3850,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
         <v>98</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
-      <c r="D84" s="9" t="n">
-        <f aca="false">F84-G84</f>
+      <c r="D84" s="9">
+        <f t="shared" si="8"/>
         <v>67</v>
       </c>
-      <c r="E84" s="9" t="n">
+      <c r="E84" s="9">
         <v>3</v>
       </c>
-      <c r="F84" s="9" t="n">
+      <c r="F84" s="9">
         <v>67</v>
       </c>
-      <c r="G84" s="9" t="n">
-        <f aca="false">B84+C84</f>
-        <v>0</v>
-      </c>
-      <c r="H84" s="10" t="n">
-        <f aca="false">G84/F84</f>
+      <c r="G84" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H84" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
@@ -3700,28 +3882,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
         <v>99</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
-      <c r="D85" s="9" t="n">
-        <f aca="false">F85-G85</f>
+      <c r="D85" s="9">
+        <f t="shared" si="8"/>
         <v>126</v>
       </c>
-      <c r="E85" s="9" t="n">
+      <c r="E85" s="9">
         <v>1</v>
       </c>
-      <c r="F85" s="9" t="n">
+      <c r="F85" s="9">
         <v>126</v>
       </c>
-      <c r="G85" s="9" t="n">
-        <f aca="false">B85+C85</f>
-        <v>0</v>
-      </c>
-      <c r="H85" s="10" t="n">
-        <f aca="false">G85/F85</f>
+      <c r="G85" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H85" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
@@ -3732,26 +3914,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
         <v>100</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
-      <c r="D86" s="9" t="n">
-        <f aca="false">F86-G86</f>
+      <c r="D86" s="9">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E86" s="9"/>
-      <c r="F86" s="9" t="n">
+      <c r="F86" s="9">
         <v>22</v>
       </c>
-      <c r="G86" s="9" t="n">
-        <f aca="false">B86+C86</f>
-        <v>0</v>
-      </c>
-      <c r="H86" s="10" t="n">
-        <f aca="false">G86/F86</f>
+      <c r="G86" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H86" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I86" s="11" t="s">
@@ -3762,26 +3944,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>101</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="9" t="n">
-        <f aca="false">F87-G87</f>
+      <c r="D87" s="9">
+        <f t="shared" si="8"/>
         <v>22</v>
       </c>
       <c r="E87" s="9"/>
-      <c r="F87" s="9" t="n">
+      <c r="F87" s="9">
         <v>22</v>
       </c>
-      <c r="G87" s="9" t="n">
-        <f aca="false">B87+C87</f>
-        <v>0</v>
-      </c>
-      <c r="H87" s="10" t="n">
-        <f aca="false">G87/F87</f>
+      <c r="G87" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H87" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I87" s="11" t="s">
@@ -3792,26 +3974,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>102</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="9" t="n">
-        <f aca="false">F88-G88</f>
+      <c r="D88" s="9">
+        <f t="shared" si="8"/>
         <v>188</v>
       </c>
       <c r="E88" s="9"/>
-      <c r="F88" s="9" t="n">
+      <c r="F88" s="9">
         <v>188</v>
       </c>
-      <c r="G88" s="9" t="n">
-        <f aca="false">B88+C88</f>
-        <v>0</v>
-      </c>
-      <c r="H88" s="10" t="n">
-        <f aca="false">G88/F88</f>
+      <c r="G88" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H88" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I88" s="11" t="s">
@@ -3822,26 +4004,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>103</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="9" t="n">
-        <f aca="false">F89-G89</f>
+      <c r="D89" s="9">
+        <f t="shared" si="8"/>
         <v>107</v>
       </c>
       <c r="E89" s="9"/>
-      <c r="F89" s="9" t="n">
+      <c r="F89" s="9">
         <v>107</v>
       </c>
-      <c r="G89" s="9" t="n">
-        <f aca="false">B89+C89</f>
-        <v>0</v>
-      </c>
-      <c r="H89" s="10" t="n">
-        <f aca="false">G89/F89</f>
+      <c r="G89" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H89" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
@@ -3852,26 +4034,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>104</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="9" t="n">
-        <f aca="false">F90-G90</f>
+      <c r="D90" s="9">
+        <f t="shared" si="8"/>
         <v>60</v>
       </c>
       <c r="E90" s="9"/>
-      <c r="F90" s="9" t="n">
+      <c r="F90" s="9">
         <v>60</v>
       </c>
-      <c r="G90" s="9" t="n">
-        <f aca="false">B90+C90</f>
-        <v>0</v>
-      </c>
-      <c r="H90" s="10" t="n">
-        <f aca="false">G90/F90</f>
+      <c r="G90" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H90" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -3882,28 +4064,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>105</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="9" t="n">
-        <f aca="false">F91-G91</f>
+      <c r="D91" s="9">
+        <f t="shared" si="8"/>
         <v>66</v>
       </c>
-      <c r="E91" s="9" t="n">
+      <c r="E91" s="9">
         <v>1</v>
       </c>
-      <c r="F91" s="9" t="n">
+      <c r="F91" s="9">
         <v>66</v>
       </c>
-      <c r="G91" s="9" t="n">
-        <f aca="false">B91+C91</f>
-        <v>0</v>
-      </c>
-      <c r="H91" s="10" t="n">
-        <f aca="false">G91/F91</f>
+      <c r="G91" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
@@ -3914,26 +4096,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>106</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="9" t="n">
-        <f aca="false">F92-G92</f>
+      <c r="D92" s="9">
+        <f t="shared" si="8"/>
         <v>63</v>
       </c>
       <c r="E92" s="9"/>
-      <c r="F92" s="9" t="n">
+      <c r="F92" s="9">
         <v>63</v>
       </c>
-      <c r="G92" s="9" t="n">
-        <f aca="false">B92+C92</f>
-        <v>0</v>
-      </c>
-      <c r="H92" s="10" t="n">
-        <f aca="false">G92/F92</f>
+      <c r="G92" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H92" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
@@ -3944,26 +4126,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>107</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="9" t="n">
-        <f aca="false">F93-G93</f>
+      <c r="D93" s="9">
+        <f t="shared" si="8"/>
         <v>61</v>
       </c>
       <c r="E93" s="9"/>
-      <c r="F93" s="9" t="n">
+      <c r="F93" s="9">
         <v>61</v>
       </c>
-      <c r="G93" s="9" t="n">
-        <f aca="false">B93+C93</f>
-        <v>0</v>
-      </c>
-      <c r="H93" s="10" t="n">
-        <f aca="false">G93/F93</f>
+      <c r="G93" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H93" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I93" s="11" t="s">
@@ -3974,26 +4156,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>108</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="9" t="n">
-        <f aca="false">F94-G94</f>
+      <c r="D94" s="9">
+        <f t="shared" si="8"/>
         <v>34</v>
       </c>
       <c r="E94" s="9"/>
-      <c r="F94" s="9" t="n">
+      <c r="F94" s="9">
         <v>34</v>
       </c>
-      <c r="G94" s="9" t="n">
-        <f aca="false">B94+C94</f>
-        <v>0</v>
-      </c>
-      <c r="H94" s="10" t="n">
-        <f aca="false">G94/F94</f>
+      <c r="G94" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H94" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I94" s="11"/>
@@ -4002,26 +4184,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>109</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
-      <c r="D95" s="9" t="n">
-        <f aca="false">F95-G95</f>
+      <c r="D95" s="9">
+        <f t="shared" si="8"/>
         <v>176</v>
       </c>
       <c r="E95" s="9"/>
-      <c r="F95" s="9" t="n">
+      <c r="F95" s="9">
         <v>176</v>
       </c>
-      <c r="G95" s="9" t="n">
-        <f aca="false">B95+C95</f>
-        <v>0</v>
-      </c>
-      <c r="H95" s="10" t="n">
-        <f aca="false">G95/F95</f>
+      <c r="G95" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H95" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I95" s="11"/>
@@ -4030,26 +4212,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="9" t="n">
-        <f aca="false">F96-G96</f>
+      <c r="D96" s="9">
+        <f t="shared" si="8"/>
         <v>13</v>
       </c>
       <c r="E96" s="9"/>
-      <c r="F96" s="9" t="n">
+      <c r="F96" s="9">
         <v>13</v>
       </c>
-      <c r="G96" s="9" t="n">
-        <f aca="false">B96+C96</f>
-        <v>0</v>
-      </c>
-      <c r="H96" s="10" t="n">
-        <f aca="false">G96/F96</f>
+      <c r="G96" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H96" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I96" s="11"/>
@@ -4058,28 +4240,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>111</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="9" t="n">
-        <f aca="false">F97-G97</f>
+      <c r="D97" s="9">
+        <f t="shared" si="8"/>
         <v>197</v>
       </c>
-      <c r="E97" s="9" t="n">
+      <c r="E97" s="9">
         <v>2</v>
       </c>
-      <c r="F97" s="9" t="n">
+      <c r="F97" s="9">
         <v>197</v>
       </c>
-      <c r="G97" s="9" t="n">
-        <f aca="false">B97+C97</f>
-        <v>0</v>
-      </c>
-      <c r="H97" s="10" t="n">
-        <f aca="false">G97/F97</f>
+      <c r="G97" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="H97" s="10">
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
@@ -4090,28 +4272,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>112</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="9" t="n">
-        <f aca="false">F98-G98</f>
+      <c r="D98" s="9">
+        <f t="shared" si="8"/>
         <v>146</v>
       </c>
-      <c r="E98" s="9" t="n">
+      <c r="E98" s="9">
         <v>1</v>
       </c>
-      <c r="F98" s="9" t="n">
+      <c r="F98" s="9">
         <v>146</v>
       </c>
-      <c r="G98" s="9" t="n">
-        <f aca="false">B98+C98</f>
-        <v>0</v>
-      </c>
-      <c r="H98" s="10" t="n">
-        <f aca="false">G98/F98</f>
+      <c r="G98" s="9">
+        <f t="shared" ref="G98:G129" si="9">B98+C98</f>
+        <v>0</v>
+      </c>
+      <c r="H98" s="10">
+        <f t="shared" ref="H98:H129" si="10">G98/F98</f>
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
@@ -4122,26 +4304,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>113</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="9" t="n">
-        <f aca="false">F99-G99</f>
+      <c r="D99" s="9">
+        <f t="shared" ref="D99:D130" si="11">F99-G99</f>
         <v>171</v>
       </c>
       <c r="E99" s="9"/>
-      <c r="F99" s="9" t="n">
+      <c r="F99" s="9">
         <v>171</v>
       </c>
-      <c r="G99" s="9" t="n">
-        <f aca="false">B99+C99</f>
-        <v>0</v>
-      </c>
-      <c r="H99" s="10" t="n">
-        <f aca="false">G99/F99</f>
+      <c r="G99" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H99" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
@@ -4152,26 +4334,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>114</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="9" t="n">
-        <f aca="false">F100-G100</f>
+      <c r="D100" s="9">
+        <f t="shared" si="11"/>
         <v>219</v>
       </c>
       <c r="E100" s="9"/>
-      <c r="F100" s="9" t="n">
+      <c r="F100" s="9">
         <v>219</v>
       </c>
-      <c r="G100" s="9" t="n">
-        <f aca="false">B100+C100</f>
-        <v>0</v>
-      </c>
-      <c r="H100" s="10" t="n">
-        <f aca="false">G100/F100</f>
+      <c r="G100" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H100" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I100" s="11" t="s">
@@ -4182,26 +4364,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>115</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="9" t="n">
-        <f aca="false">F101-G101</f>
+      <c r="D101" s="9">
+        <f t="shared" si="11"/>
         <v>98</v>
       </c>
       <c r="E101" s="9"/>
-      <c r="F101" s="9" t="n">
+      <c r="F101" s="9">
         <v>98</v>
       </c>
-      <c r="G101" s="9" t="n">
-        <f aca="false">B101+C101</f>
-        <v>0</v>
-      </c>
-      <c r="H101" s="10" t="n">
-        <f aca="false">G101/F101</f>
+      <c r="G101" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H101" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I101" s="11"/>
@@ -4210,28 +4392,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>116</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="9" t="n">
-        <f aca="false">F102-G102</f>
+      <c r="D102" s="9">
+        <f t="shared" si="11"/>
         <v>190</v>
       </c>
-      <c r="E102" s="9" t="n">
+      <c r="E102" s="9">
         <v>2</v>
       </c>
-      <c r="F102" s="9" t="n">
+      <c r="F102" s="9">
         <v>190</v>
       </c>
-      <c r="G102" s="9" t="n">
-        <f aca="false">B102+C102</f>
-        <v>0</v>
-      </c>
-      <c r="H102" s="10" t="n">
-        <f aca="false">G102/F102</f>
+      <c r="G102" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H102" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
@@ -4242,26 +4424,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>117</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="9" t="n">
-        <f aca="false">F103-G103</f>
+      <c r="D103" s="9">
+        <f t="shared" si="11"/>
         <v>194</v>
       </c>
       <c r="E103" s="9"/>
-      <c r="F103" s="9" t="n">
+      <c r="F103" s="9">
         <v>194</v>
       </c>
-      <c r="G103" s="9" t="n">
-        <f aca="false">B103+C103</f>
-        <v>0</v>
-      </c>
-      <c r="H103" s="10" t="n">
-        <f aca="false">G103/F103</f>
+      <c r="G103" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H103" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I103" s="11" t="s">
@@ -4272,28 +4454,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>118</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="9" t="n">
-        <f aca="false">F104-G104</f>
+      <c r="D104" s="9">
+        <f t="shared" si="11"/>
         <v>208</v>
       </c>
-      <c r="E104" s="9" t="n">
+      <c r="E104" s="9">
         <v>1</v>
       </c>
-      <c r="F104" s="9" t="n">
+      <c r="F104" s="9">
         <v>208</v>
       </c>
-      <c r="G104" s="9" t="n">
-        <f aca="false">B104+C104</f>
-        <v>0</v>
-      </c>
-      <c r="H104" s="10" t="n">
-        <f aca="false">G104/F104</f>
+      <c r="G104" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H104" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
@@ -4304,28 +4486,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>119</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9" t="n">
-        <f aca="false">F105-G105</f>
+      <c r="D105" s="9">
+        <f t="shared" si="11"/>
         <v>279</v>
       </c>
-      <c r="E105" s="9" t="n">
+      <c r="E105" s="9">
         <v>3</v>
       </c>
-      <c r="F105" s="9" t="n">
+      <c r="F105" s="9">
         <v>279</v>
       </c>
-      <c r="G105" s="9" t="n">
-        <f aca="false">B105+C105</f>
-        <v>0</v>
-      </c>
-      <c r="H105" s="10" t="n">
-        <f aca="false">G105/F105</f>
+      <c r="G105" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H105" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
@@ -4336,26 +4518,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>120</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="9" t="n">
-        <f aca="false">F106-G106</f>
+      <c r="D106" s="9">
+        <f t="shared" si="11"/>
         <v>53</v>
       </c>
       <c r="E106" s="9"/>
-      <c r="F106" s="9" t="n">
+      <c r="F106" s="9">
         <v>53</v>
       </c>
-      <c r="G106" s="9" t="n">
-        <f aca="false">B106+C106</f>
-        <v>0</v>
-      </c>
-      <c r="H106" s="10" t="n">
-        <f aca="false">G106/F106</f>
+      <c r="G106" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H106" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
@@ -4366,28 +4548,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>121</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="9" t="n">
-        <f aca="false">F107-G107</f>
+      <c r="D107" s="9">
+        <f t="shared" si="11"/>
         <v>165</v>
       </c>
-      <c r="E107" s="9" t="n">
+      <c r="E107" s="9">
         <v>1</v>
       </c>
-      <c r="F107" s="9" t="n">
+      <c r="F107" s="9">
         <v>165</v>
       </c>
-      <c r="G107" s="9" t="n">
-        <f aca="false">B107+C107</f>
-        <v>0</v>
-      </c>
-      <c r="H107" s="10" t="n">
-        <f aca="false">G107/F107</f>
+      <c r="G107" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H107" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
@@ -4398,28 +4580,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>122</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="9" t="n">
-        <f aca="false">F108-G108</f>
+      <c r="D108" s="9">
+        <f t="shared" si="11"/>
         <v>256</v>
       </c>
-      <c r="E108" s="9" t="n">
+      <c r="E108" s="9">
         <v>2</v>
       </c>
-      <c r="F108" s="9" t="n">
+      <c r="F108" s="9">
         <v>256</v>
       </c>
-      <c r="G108" s="9" t="n">
-        <f aca="false">B108+C108</f>
-        <v>0</v>
-      </c>
-      <c r="H108" s="10" t="n">
-        <f aca="false">G108/F108</f>
+      <c r="G108" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H108" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
@@ -4430,28 +4612,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>123</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="9" t="n">
-        <f aca="false">F109-G109</f>
+      <c r="D109" s="9">
+        <f t="shared" si="11"/>
         <v>181</v>
       </c>
-      <c r="E109" s="9" t="n">
+      <c r="E109" s="9">
         <v>2</v>
       </c>
-      <c r="F109" s="9" t="n">
+      <c r="F109" s="9">
         <v>181</v>
       </c>
-      <c r="G109" s="9" t="n">
-        <f aca="false">B109+C109</f>
-        <v>0</v>
-      </c>
-      <c r="H109" s="10" t="n">
-        <f aca="false">G109/F109</f>
+      <c r="G109" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H109" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
@@ -4462,28 +4644,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>124</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="9" t="n">
-        <f aca="false">F110-G110</f>
+      <c r="D110" s="9">
+        <f t="shared" si="11"/>
         <v>198</v>
       </c>
-      <c r="E110" s="9" t="n">
+      <c r="E110" s="9">
         <v>1</v>
       </c>
-      <c r="F110" s="9" t="n">
+      <c r="F110" s="9">
         <v>198</v>
       </c>
-      <c r="G110" s="9" t="n">
-        <f aca="false">B110+C110</f>
-        <v>0</v>
-      </c>
-      <c r="H110" s="10" t="n">
-        <f aca="false">G110/F110</f>
+      <c r="G110" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H110" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
@@ -4494,28 +4676,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>125</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="9" t="n">
-        <f aca="false">F111-G111</f>
+      <c r="D111" s="9">
+        <f t="shared" si="11"/>
         <v>238</v>
       </c>
-      <c r="E111" s="9" t="n">
+      <c r="E111" s="9">
         <v>6</v>
       </c>
-      <c r="F111" s="9" t="n">
+      <c r="F111" s="9">
         <v>238</v>
       </c>
-      <c r="G111" s="9" t="n">
-        <f aca="false">B111+C111</f>
-        <v>0</v>
-      </c>
-      <c r="H111" s="10" t="n">
-        <f aca="false">G111/F111</f>
+      <c r="G111" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H111" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
@@ -4526,28 +4708,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>126</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="9" t="n">
-        <f aca="false">F112-G112</f>
+      <c r="D112" s="9">
+        <f t="shared" si="11"/>
         <v>253</v>
       </c>
-      <c r="E112" s="9" t="n">
+      <c r="E112" s="9">
         <v>2</v>
       </c>
-      <c r="F112" s="9" t="n">
+      <c r="F112" s="9">
         <v>253</v>
       </c>
-      <c r="G112" s="9" t="n">
-        <f aca="false">B112+C112</f>
-        <v>0</v>
-      </c>
-      <c r="H112" s="10" t="n">
-        <f aca="false">G112/F112</f>
+      <c r="G112" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H112" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
@@ -4558,26 +4740,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>127</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
-      <c r="D113" s="9" t="n">
-        <f aca="false">F113-G113</f>
+      <c r="D113" s="9">
+        <f t="shared" si="11"/>
         <v>78</v>
       </c>
       <c r="E113" s="9"/>
-      <c r="F113" s="9" t="n">
+      <c r="F113" s="9">
         <v>78</v>
       </c>
-      <c r="G113" s="9" t="n">
-        <f aca="false">B113+C113</f>
-        <v>0</v>
-      </c>
-      <c r="H113" s="10" t="n">
-        <f aca="false">G113/F113</f>
+      <c r="G113" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H113" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -4588,26 +4770,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>128</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
-      <c r="D114" s="9" t="n">
-        <f aca="false">F114-G114</f>
+      <c r="D114" s="9">
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="E114" s="9"/>
-      <c r="F114" s="9" t="n">
+      <c r="F114" s="9">
         <v>25</v>
       </c>
-      <c r="G114" s="9" t="n">
-        <f aca="false">B114+C114</f>
-        <v>0</v>
-      </c>
-      <c r="H114" s="10" t="n">
-        <f aca="false">G114/F114</f>
+      <c r="G114" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H114" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
@@ -4618,26 +4800,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>129</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
-      <c r="D115" s="9" t="n">
-        <f aca="false">F115-G115</f>
+      <c r="D115" s="9">
+        <f t="shared" si="11"/>
         <v>2</v>
       </c>
       <c r="E115" s="9"/>
-      <c r="F115" s="9" t="n">
+      <c r="F115" s="9">
         <v>2</v>
       </c>
-      <c r="G115" s="9" t="n">
-        <f aca="false">B115+C115</f>
-        <v>0</v>
-      </c>
-      <c r="H115" s="10" t="n">
-        <f aca="false">G115/F115</f>
+      <c r="G115" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H115" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I115" s="11"/>
@@ -4646,28 +4828,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>130</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
-      <c r="D116" s="9" t="n">
-        <f aca="false">F116-G116</f>
+      <c r="D116" s="9">
+        <f t="shared" si="11"/>
         <v>126</v>
       </c>
-      <c r="E116" s="9" t="n">
+      <c r="E116" s="9">
         <v>3</v>
       </c>
-      <c r="F116" s="9" t="n">
+      <c r="F116" s="9">
         <v>126</v>
       </c>
-      <c r="G116" s="9" t="n">
-        <f aca="false">B116+C116</f>
-        <v>0</v>
-      </c>
-      <c r="H116" s="10" t="n">
-        <f aca="false">G116/F116</f>
+      <c r="G116" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H116" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
@@ -4678,28 +4860,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>131</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
-      <c r="D117" s="9" t="n">
-        <f aca="false">F117-G117</f>
+      <c r="D117" s="9">
+        <f t="shared" si="11"/>
         <v>121</v>
       </c>
-      <c r="E117" s="9" t="n">
+      <c r="E117" s="9">
         <v>1</v>
       </c>
-      <c r="F117" s="9" t="n">
+      <c r="F117" s="9">
         <v>121</v>
       </c>
-      <c r="G117" s="9" t="n">
-        <f aca="false">B117+C117</f>
-        <v>0</v>
-      </c>
-      <c r="H117" s="10" t="n">
-        <f aca="false">G117/F117</f>
+      <c r="G117" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H117" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
@@ -4710,26 +4892,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
         <v>132</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
-      <c r="D118" s="9" t="n">
-        <f aca="false">F118-G118</f>
+      <c r="D118" s="9">
+        <f t="shared" si="11"/>
         <v>20</v>
       </c>
       <c r="E118" s="9"/>
-      <c r="F118" s="9" t="n">
+      <c r="F118" s="9">
         <v>20</v>
       </c>
-      <c r="G118" s="9" t="n">
-        <f aca="false">B118+C118</f>
-        <v>0</v>
-      </c>
-      <c r="H118" s="10" t="n">
-        <f aca="false">G118/F118</f>
+      <c r="G118" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H118" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
@@ -4740,26 +4922,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
         <v>133</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
-      <c r="D119" s="9" t="n">
-        <f aca="false">F119-G119</f>
+      <c r="D119" s="9">
+        <f t="shared" si="11"/>
         <v>43</v>
       </c>
       <c r="E119" s="9"/>
-      <c r="F119" s="9" t="n">
+      <c r="F119" s="9">
         <v>43</v>
       </c>
-      <c r="G119" s="9" t="n">
-        <f aca="false">B119+C119</f>
-        <v>0</v>
-      </c>
-      <c r="H119" s="10" t="n">
-        <f aca="false">G119/F119</f>
+      <c r="G119" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H119" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I119" s="11"/>
@@ -4768,28 +4950,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>134</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
-      <c r="D120" s="9" t="n">
-        <f aca="false">F120-G120</f>
+      <c r="D120" s="9">
+        <f t="shared" si="11"/>
         <v>96</v>
       </c>
-      <c r="E120" s="9" t="n">
+      <c r="E120" s="9">
         <v>2</v>
       </c>
-      <c r="F120" s="9" t="n">
+      <c r="F120" s="9">
         <v>96</v>
       </c>
-      <c r="G120" s="9" t="n">
-        <f aca="false">B120+C120</f>
-        <v>0</v>
-      </c>
-      <c r="H120" s="10" t="n">
-        <f aca="false">G120/F120</f>
+      <c r="G120" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H120" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
@@ -4800,26 +4982,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>135</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
-      <c r="D121" s="9" t="n">
-        <f aca="false">F121-G121</f>
+      <c r="D121" s="9">
+        <f t="shared" si="11"/>
         <v>212</v>
       </c>
       <c r="E121" s="9"/>
-      <c r="F121" s="9" t="n">
+      <c r="F121" s="9">
         <v>212</v>
       </c>
-      <c r="G121" s="9" t="n">
-        <f aca="false">B121+C121</f>
-        <v>0</v>
-      </c>
-      <c r="H121" s="10" t="n">
-        <f aca="false">G121/F121</f>
+      <c r="G121" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H121" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -4830,26 +5012,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>136</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
-      <c r="D122" s="9" t="n">
-        <f aca="false">F122-G122</f>
+      <c r="D122" s="9">
+        <f t="shared" si="11"/>
         <v>152</v>
       </c>
       <c r="E122" s="9"/>
-      <c r="F122" s="9" t="n">
+      <c r="F122" s="9">
         <v>152</v>
       </c>
-      <c r="G122" s="9" t="n">
-        <f aca="false">B122+C122</f>
-        <v>0</v>
-      </c>
-      <c r="H122" s="10" t="n">
-        <f aca="false">G122/F122</f>
+      <c r="G122" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H122" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
@@ -4860,26 +5042,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>137</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
-      <c r="D123" s="9" t="n">
-        <f aca="false">F123-G123</f>
+      <c r="D123" s="9">
+        <f t="shared" si="11"/>
         <v>217</v>
       </c>
       <c r="E123" s="9"/>
-      <c r="F123" s="9" t="n">
+      <c r="F123" s="9">
         <v>217</v>
       </c>
-      <c r="G123" s="9" t="n">
-        <f aca="false">B123+C123</f>
-        <v>0</v>
-      </c>
-      <c r="H123" s="10" t="n">
-        <f aca="false">G123/F123</f>
+      <c r="G123" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H123" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
@@ -4890,26 +5072,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>138</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
-      <c r="D124" s="9" t="n">
-        <f aca="false">F124-G124</f>
+      <c r="D124" s="9">
+        <f t="shared" si="11"/>
         <v>83</v>
       </c>
       <c r="E124" s="9"/>
-      <c r="F124" s="9" t="n">
+      <c r="F124" s="9">
         <v>83</v>
       </c>
-      <c r="G124" s="9" t="n">
-        <f aca="false">B124+C124</f>
-        <v>0</v>
-      </c>
-      <c r="H124" s="10" t="n">
-        <f aca="false">G124/F124</f>
+      <c r="G124" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H124" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I124" s="11"/>
@@ -4918,26 +5100,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>139</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
-      <c r="D125" s="9" t="n">
-        <f aca="false">F125-G125</f>
+      <c r="D125" s="9">
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="E125" s="9"/>
-      <c r="F125" s="9" t="n">
+      <c r="F125" s="9">
         <v>4</v>
       </c>
-      <c r="G125" s="9" t="n">
-        <f aca="false">B125+C125</f>
-        <v>0</v>
-      </c>
-      <c r="H125" s="10" t="n">
-        <f aca="false">G125/F125</f>
+      <c r="G125" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H125" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I125" s="11"/>
@@ -4946,26 +5128,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>140</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
-      <c r="D126" s="9" t="n">
-        <f aca="false">F126-G126</f>
+      <c r="D126" s="9">
+        <f t="shared" si="11"/>
         <v>131</v>
       </c>
       <c r="E126" s="9"/>
-      <c r="F126" s="9" t="n">
+      <c r="F126" s="9">
         <v>131</v>
       </c>
-      <c r="G126" s="9" t="n">
-        <f aca="false">B126+C126</f>
-        <v>0</v>
-      </c>
-      <c r="H126" s="10" t="n">
-        <f aca="false">G126/F126</f>
+      <c r="G126" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H126" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
@@ -4976,28 +5158,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>141</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
-      <c r="D127" s="9" t="n">
-        <f aca="false">F127-G127</f>
+      <c r="D127" s="9">
+        <f t="shared" si="11"/>
         <v>70</v>
       </c>
-      <c r="E127" s="9" t="n">
+      <c r="E127" s="9">
         <v>1</v>
       </c>
-      <c r="F127" s="9" t="n">
+      <c r="F127" s="9">
         <v>70</v>
       </c>
-      <c r="G127" s="9" t="n">
-        <f aca="false">B127+C127</f>
-        <v>0</v>
-      </c>
-      <c r="H127" s="10" t="n">
-        <f aca="false">G127/F127</f>
+      <c r="G127" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H127" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
@@ -5008,28 +5190,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>142</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
-      <c r="D128" s="9" t="n">
-        <f aca="false">F128-G128</f>
+      <c r="D128" s="9">
+        <f t="shared" si="11"/>
         <v>168</v>
       </c>
-      <c r="E128" s="9" t="n">
+      <c r="E128" s="9">
         <v>1</v>
       </c>
-      <c r="F128" s="9" t="n">
+      <c r="F128" s="9">
         <v>168</v>
       </c>
-      <c r="G128" s="9" t="n">
-        <f aca="false">B128+C128</f>
-        <v>0</v>
-      </c>
-      <c r="H128" s="10" t="n">
-        <f aca="false">G128/F128</f>
+      <c r="G128" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H128" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
@@ -5040,28 +5222,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>143</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
-      <c r="D129" s="9" t="n">
-        <f aca="false">F129-G129</f>
+      <c r="D129" s="9">
+        <f t="shared" si="11"/>
         <v>105</v>
       </c>
-      <c r="E129" s="9" t="n">
+      <c r="E129" s="9">
         <v>1</v>
       </c>
-      <c r="F129" s="9" t="n">
+      <c r="F129" s="9">
         <v>105</v>
       </c>
-      <c r="G129" s="9" t="n">
-        <f aca="false">B129+C129</f>
-        <v>0</v>
-      </c>
-      <c r="H129" s="10" t="n">
-        <f aca="false">G129/F129</f>
+      <c r="G129" s="9">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H129" s="10">
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
@@ -5072,28 +5254,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
         <v>144</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
-      <c r="D130" s="9" t="n">
-        <f aca="false">F130-G130</f>
+      <c r="D130" s="9">
+        <f t="shared" si="11"/>
         <v>87</v>
       </c>
-      <c r="E130" s="9" t="n">
+      <c r="E130" s="9">
         <v>1</v>
       </c>
-      <c r="F130" s="9" t="n">
+      <c r="F130" s="9">
         <v>87</v>
       </c>
-      <c r="G130" s="9" t="n">
-        <f aca="false">B130+C130</f>
-        <v>0</v>
-      </c>
-      <c r="H130" s="10" t="n">
-        <f aca="false">G130/F130</f>
+      <c r="G130" s="9">
+        <f t="shared" ref="G130:G155" si="12">B130+C130</f>
+        <v>0</v>
+      </c>
+      <c r="H130" s="10">
+        <f t="shared" ref="H130:H161" si="13">G130/F130</f>
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
@@ -5104,28 +5286,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
-      <c r="D131" s="9" t="n">
-        <f aca="false">F131-G131</f>
+      <c r="D131" s="9">
+        <f t="shared" ref="D131:D154" si="14">F131-G131</f>
         <v>190</v>
       </c>
-      <c r="E131" s="9" t="n">
+      <c r="E131" s="9">
         <v>2</v>
       </c>
-      <c r="F131" s="9" t="n">
+      <c r="F131" s="9">
         <v>190</v>
       </c>
-      <c r="G131" s="9" t="n">
-        <f aca="false">B131+C131</f>
-        <v>0</v>
-      </c>
-      <c r="H131" s="10" t="n">
-        <f aca="false">G131/F131</f>
+      <c r="G131" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H131" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
@@ -5136,26 +5318,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>146</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
-      <c r="D132" s="9" t="n">
-        <f aca="false">F132-G132</f>
+      <c r="D132" s="9">
+        <f t="shared" si="14"/>
         <v>193</v>
       </c>
       <c r="E132" s="9"/>
-      <c r="F132" s="9" t="n">
+      <c r="F132" s="9">
         <v>193</v>
       </c>
-      <c r="G132" s="9" t="n">
-        <f aca="false">B132+C132</f>
-        <v>0</v>
-      </c>
-      <c r="H132" s="10" t="n">
-        <f aca="false">G132/F132</f>
+      <c r="G132" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H132" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
@@ -5166,26 +5348,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>147</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
-      <c r="D133" s="9" t="n">
-        <f aca="false">F133-G133</f>
+      <c r="D133" s="9">
+        <f t="shared" si="14"/>
         <v>174</v>
       </c>
       <c r="E133" s="9"/>
-      <c r="F133" s="9" t="n">
+      <c r="F133" s="9">
         <v>174</v>
       </c>
-      <c r="G133" s="9" t="n">
-        <f aca="false">B133+C133</f>
-        <v>0</v>
-      </c>
-      <c r="H133" s="10" t="n">
-        <f aca="false">G133/F133</f>
+      <c r="G133" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H133" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
@@ -5196,26 +5378,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>149</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
-      <c r="D134" s="9" t="n">
-        <f aca="false">F134-G134</f>
+      <c r="D134" s="9">
+        <f t="shared" si="14"/>
         <v>139</v>
       </c>
       <c r="E134" s="9"/>
-      <c r="F134" s="9" t="n">
+      <c r="F134" s="9">
         <v>139</v>
       </c>
-      <c r="G134" s="9" t="n">
-        <f aca="false">B134+C134</f>
-        <v>0</v>
-      </c>
-      <c r="H134" s="10" t="n">
-        <f aca="false">G134/F134</f>
+      <c r="G134" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H134" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
@@ -5226,28 +5408,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>150</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
-      <c r="D135" s="9" t="n">
-        <f aca="false">F135-G135</f>
+      <c r="D135" s="9">
+        <f t="shared" si="14"/>
         <v>105</v>
       </c>
-      <c r="E135" s="9" t="n">
+      <c r="E135" s="9">
         <v>1</v>
       </c>
-      <c r="F135" s="9" t="n">
+      <c r="F135" s="9">
         <v>105</v>
       </c>
-      <c r="G135" s="9" t="n">
-        <f aca="false">B135+C135</f>
-        <v>0</v>
-      </c>
-      <c r="H135" s="10" t="n">
-        <f aca="false">G135/F135</f>
+      <c r="G135" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H135" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
@@ -5258,26 +5440,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>151</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
-      <c r="D136" s="9" t="n">
-        <f aca="false">F136-G136</f>
+      <c r="D136" s="9">
+        <f t="shared" si="14"/>
         <v>26</v>
       </c>
       <c r="E136" s="9"/>
-      <c r="F136" s="9" t="n">
+      <c r="F136" s="9">
         <v>26</v>
       </c>
-      <c r="G136" s="9" t="n">
-        <f aca="false">B136+C136</f>
-        <v>0</v>
-      </c>
-      <c r="H136" s="10" t="n">
-        <f aca="false">G136/F136</f>
+      <c r="G136" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H136" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I136" s="11"/>
@@ -5286,26 +5468,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>152</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
-      <c r="D137" s="9" t="n">
-        <f aca="false">F137-G137</f>
+      <c r="D137" s="9">
+        <f t="shared" si="14"/>
         <v>158</v>
       </c>
       <c r="E137" s="9"/>
-      <c r="F137" s="9" t="n">
+      <c r="F137" s="9">
         <v>158</v>
       </c>
-      <c r="G137" s="9" t="n">
-        <f aca="false">B137+C137</f>
-        <v>0</v>
-      </c>
-      <c r="H137" s="10" t="n">
-        <f aca="false">G137/F137</f>
+      <c r="G137" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H137" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
@@ -5316,26 +5498,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
         <v>153</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
-      <c r="D138" s="9" t="n">
-        <f aca="false">F138-G138</f>
+      <c r="D138" s="9">
+        <f t="shared" si="14"/>
         <v>46</v>
       </c>
       <c r="E138" s="9"/>
-      <c r="F138" s="9" t="n">
+      <c r="F138" s="9">
         <v>46</v>
       </c>
-      <c r="G138" s="9" t="n">
-        <f aca="false">B138+C138</f>
-        <v>0</v>
-      </c>
-      <c r="H138" s="10" t="n">
-        <f aca="false">G138/F138</f>
+      <c r="G138" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H138" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
@@ -5346,28 +5528,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>154</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
-      <c r="D139" s="9" t="n">
-        <f aca="false">F139-G139</f>
+      <c r="D139" s="9">
+        <f t="shared" si="14"/>
         <v>197</v>
       </c>
-      <c r="E139" s="9" t="n">
+      <c r="E139" s="9">
         <v>2</v>
       </c>
-      <c r="F139" s="9" t="n">
+      <c r="F139" s="9">
         <v>197</v>
       </c>
-      <c r="G139" s="9" t="n">
-        <f aca="false">B139+C139</f>
-        <v>0</v>
-      </c>
-      <c r="H139" s="10" t="n">
-        <f aca="false">G139/F139</f>
+      <c r="G139" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H139" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
@@ -5378,26 +5560,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>155</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
-      <c r="D140" s="9" t="n">
-        <f aca="false">F140-G140</f>
+      <c r="D140" s="9">
+        <f t="shared" si="14"/>
         <v>57</v>
       </c>
       <c r="E140" s="9"/>
-      <c r="F140" s="9" t="n">
+      <c r="F140" s="9">
         <v>57</v>
       </c>
-      <c r="G140" s="9" t="n">
-        <f aca="false">B140+C140</f>
-        <v>0</v>
-      </c>
-      <c r="H140" s="10" t="n">
-        <f aca="false">G140/F140</f>
+      <c r="G140" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H140" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I140" s="11"/>
@@ -5406,26 +5588,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>156</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
-      <c r="D141" s="9" t="n">
-        <f aca="false">F141-G141</f>
+      <c r="D141" s="9">
+        <f t="shared" si="14"/>
         <v>130</v>
       </c>
       <c r="E141" s="9"/>
-      <c r="F141" s="9" t="n">
+      <c r="F141" s="9">
         <v>130</v>
       </c>
-      <c r="G141" s="9" t="n">
-        <f aca="false">B141+C141</f>
-        <v>0</v>
-      </c>
-      <c r="H141" s="10" t="n">
-        <f aca="false">G141/F141</f>
+      <c r="G141" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H141" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
@@ -5436,28 +5618,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>157</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
-      <c r="D142" s="9" t="n">
-        <f aca="false">F142-G142</f>
+      <c r="D142" s="9">
+        <f t="shared" si="14"/>
         <v>156</v>
       </c>
-      <c r="E142" s="9" t="n">
+      <c r="E142" s="9">
         <v>2</v>
       </c>
-      <c r="F142" s="9" t="n">
+      <c r="F142" s="9">
         <v>156</v>
       </c>
-      <c r="G142" s="9" t="n">
-        <f aca="false">B142+C142</f>
-        <v>0</v>
-      </c>
-      <c r="H142" s="10" t="n">
-        <f aca="false">G142/F142</f>
+      <c r="G142" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H142" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I142" s="11"/>
@@ -5466,26 +5648,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>158</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
-      <c r="D143" s="9" t="n">
-        <f aca="false">F143-G143</f>
+      <c r="D143" s="9">
+        <f t="shared" si="14"/>
         <v>155</v>
       </c>
       <c r="E143" s="9"/>
-      <c r="F143" s="9" t="n">
+      <c r="F143" s="9">
         <v>155</v>
       </c>
-      <c r="G143" s="9" t="n">
-        <f aca="false">B143+C143</f>
-        <v>0</v>
-      </c>
-      <c r="H143" s="10" t="n">
-        <f aca="false">G143/F143</f>
+      <c r="G143" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H143" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
@@ -5496,26 +5678,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>159</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
-      <c r="D144" s="9" t="n">
-        <f aca="false">F144-G144</f>
+      <c r="D144" s="9">
+        <f t="shared" si="14"/>
         <v>90</v>
       </c>
       <c r="E144" s="9"/>
-      <c r="F144" s="9" t="n">
+      <c r="F144" s="9">
         <v>90</v>
       </c>
-      <c r="G144" s="9" t="n">
-        <f aca="false">B144+C144</f>
-        <v>0</v>
-      </c>
-      <c r="H144" s="10" t="n">
-        <f aca="false">G144/F144</f>
+      <c r="G144" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H144" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I144" s="11"/>
@@ -5524,28 +5706,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>160</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
-      <c r="D145" s="9" t="n">
-        <f aca="false">F145-G145</f>
+      <c r="D145" s="9">
+        <f t="shared" si="14"/>
         <v>177</v>
       </c>
-      <c r="E145" s="9" t="n">
+      <c r="E145" s="9">
         <v>2</v>
       </c>
-      <c r="F145" s="9" t="n">
+      <c r="F145" s="9">
         <v>177</v>
       </c>
-      <c r="G145" s="9" t="n">
-        <f aca="false">B145+C145</f>
-        <v>0</v>
-      </c>
-      <c r="H145" s="10" t="n">
-        <f aca="false">G145/F145</f>
+      <c r="G145" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H145" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I145" s="11"/>
@@ -5554,28 +5736,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>161</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
-      <c r="D146" s="9" t="n">
-        <f aca="false">F146-G146</f>
+      <c r="D146" s="9">
+        <f t="shared" si="14"/>
         <v>12</v>
       </c>
-      <c r="E146" s="9" t="n">
+      <c r="E146" s="9">
         <v>1</v>
       </c>
-      <c r="F146" s="9" t="n">
+      <c r="F146" s="9">
         <v>12</v>
       </c>
-      <c r="G146" s="9" t="n">
-        <f aca="false">B146+C146</f>
-        <v>0</v>
-      </c>
-      <c r="H146" s="10" t="n">
-        <f aca="false">G146/F146</f>
+      <c r="G146" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H146" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I146" s="11"/>
@@ -5584,26 +5766,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>162</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
-      <c r="D147" s="9" t="n">
-        <f aca="false">F147-G147</f>
+      <c r="D147" s="9">
+        <f t="shared" si="14"/>
         <v>132</v>
       </c>
       <c r="E147" s="9"/>
-      <c r="F147" s="9" t="n">
+      <c r="F147" s="9">
         <v>132</v>
       </c>
-      <c r="G147" s="9" t="n">
-        <f aca="false">B147+C147</f>
-        <v>0</v>
-      </c>
-      <c r="H147" s="10" t="n">
-        <f aca="false">G147/F147</f>
+      <c r="G147" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H147" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I147" s="11"/>
@@ -5612,28 +5794,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
         <v>163</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
-      <c r="D148" s="9" t="n">
-        <f aca="false">F148-G148</f>
+      <c r="D148" s="9">
+        <f t="shared" si="14"/>
         <v>82</v>
       </c>
-      <c r="E148" s="9" t="n">
+      <c r="E148" s="9">
         <v>1</v>
       </c>
-      <c r="F148" s="9" t="n">
+      <c r="F148" s="9">
         <v>82</v>
       </c>
-      <c r="G148" s="9" t="n">
-        <f aca="false">B148+C148</f>
-        <v>0</v>
-      </c>
-      <c r="H148" s="10" t="n">
-        <f aca="false">G148/F148</f>
+      <c r="G148" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H148" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I148" s="11"/>
@@ -5642,28 +5824,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
         <v>164</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
-      <c r="D149" s="9" t="n">
-        <f aca="false">F149-G149</f>
+      <c r="D149" s="9">
+        <f t="shared" si="14"/>
         <v>146</v>
       </c>
-      <c r="E149" s="9" t="n">
+      <c r="E149" s="9">
         <v>2</v>
       </c>
-      <c r="F149" s="9" t="n">
+      <c r="F149" s="9">
         <v>146</v>
       </c>
-      <c r="G149" s="9" t="n">
-        <f aca="false">B149+C149</f>
-        <v>0</v>
-      </c>
-      <c r="H149" s="10" t="n">
-        <f aca="false">G149/F149</f>
+      <c r="G149" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H149" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
@@ -5674,26 +5856,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
         <v>165</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
-      <c r="D150" s="9" t="n">
-        <f aca="false">F150-G150</f>
+      <c r="D150" s="9">
+        <f t="shared" si="14"/>
         <v>77</v>
       </c>
       <c r="E150" s="9"/>
-      <c r="F150" s="9" t="n">
+      <c r="F150" s="9">
         <v>77</v>
       </c>
-      <c r="G150" s="9" t="n">
-        <f aca="false">B150+C150</f>
-        <v>0</v>
-      </c>
-      <c r="H150" s="10" t="n">
-        <f aca="false">G150/F150</f>
+      <c r="G150" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H150" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I150" s="11"/>
@@ -5702,26 +5884,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
-      <c r="D151" s="9" t="n">
-        <f aca="false">F151-G151</f>
+      <c r="D151" s="9">
+        <f t="shared" si="14"/>
         <v>5</v>
       </c>
       <c r="E151" s="9"/>
-      <c r="F151" s="9" t="n">
+      <c r="F151" s="9">
         <v>5</v>
       </c>
-      <c r="G151" s="9" t="n">
-        <f aca="false">B151+C151</f>
-        <v>0</v>
-      </c>
-      <c r="H151" s="10" t="n">
-        <f aca="false">G151/F151</f>
+      <c r="G151" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H151" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I151" s="11"/>
@@ -5730,26 +5912,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
-      <c r="D152" s="9" t="n">
-        <f aca="false">F152-G152</f>
+      <c r="D152" s="9">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="E152" s="9"/>
-      <c r="F152" s="9" t="n">
+      <c r="F152" s="9">
         <v>1</v>
       </c>
-      <c r="G152" s="9" t="n">
-        <f aca="false">B152+C152</f>
-        <v>0</v>
-      </c>
-      <c r="H152" s="10" t="n">
-        <f aca="false">G152/F152</f>
+      <c r="G152" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H152" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I152" s="11"/>
@@ -5758,26 +5940,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
         <v>168</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
-      <c r="D153" s="9" t="n">
-        <f aca="false">F153-G153</f>
+      <c r="D153" s="9">
+        <f t="shared" si="14"/>
         <v>8</v>
       </c>
       <c r="E153" s="9"/>
-      <c r="F153" s="9" t="n">
+      <c r="F153" s="9">
         <v>8</v>
       </c>
-      <c r="G153" s="9" t="n">
-        <f aca="false">B153+C153</f>
-        <v>0</v>
-      </c>
-      <c r="H153" s="10" t="n">
-        <f aca="false">G153/F153</f>
+      <c r="G153" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H153" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
@@ -5788,26 +5970,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
         <v>169</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
-      <c r="D154" s="9" t="n">
-        <f aca="false">F154-G154</f>
+      <c r="D154" s="9">
+        <f t="shared" si="14"/>
         <v>67</v>
       </c>
       <c r="E154" s="9"/>
-      <c r="F154" s="9" t="n">
+      <c r="F154" s="9">
         <v>67</v>
       </c>
-      <c r="G154" s="9" t="n">
-        <f aca="false">B154+C154</f>
-        <v>0</v>
-      </c>
-      <c r="H154" s="10" t="n">
-        <f aca="false">G154/F154</f>
+      <c r="G154" s="9">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H154" s="10">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I154" s="11"/>
@@ -5816,34 +5998,34 @@
         <v>15</v>
       </c>
     </row>
-    <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B155" s="12" t="n">
-        <f aca="false">SUM(B3:B154)</f>
-        <v>0</v>
-      </c>
-      <c r="C155" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="D155" s="12" t="n">
-        <f aca="false">SUM(D2:D154)</f>
+      <c r="B155" s="12">
+        <f>SUM(B3:B154)</f>
+        <v>0</v>
+      </c>
+      <c r="C155" s="12">
+        <v>0</v>
+      </c>
+      <c r="D155" s="12">
+        <f>SUM(D2:D154)</f>
         <v>15572</v>
       </c>
-      <c r="E155" s="12" t="n">
+      <c r="E155" s="12">
         <v>181</v>
       </c>
-      <c r="F155" s="12" t="n">
-        <f aca="false">SUM(F2:F154)</f>
+      <c r="F155" s="12">
+        <f>SUM(F2:F154)</f>
         <v>15630</v>
       </c>
-      <c r="G155" s="12" t="n">
-        <f aca="false">B155+C155</f>
-        <v>0</v>
-      </c>
-      <c r="H155" s="13" t="n">
-        <f aca="false">G155/F155</f>
+      <c r="G155" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H155" s="13">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I155" s="11"/>
@@ -5851,556 +6033,541 @@
       <c r="K155" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L1"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A103"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView topLeftCell="A66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="37.57"/>
+    <col min="1" max="1" width="37.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>231</v>
       </c>
     </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="87" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="88" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="89" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="90" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="94" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
         <v>266</v>
       </c>
     </row>
-    <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="274">
   <si>
     <t>Диспечерское наименование ТП</t>
   </si>
@@ -62,15 +62,9 @@
     <t>УСПД Установлен</t>
   </si>
   <si>
-    <t>Развитие на 2023 г.</t>
-  </si>
-  <si>
     <t>Гарантирующий поставщик</t>
   </si>
   <si>
-    <t>нет тп в бд есть успд 258, 270, 271, 202, 260, 270, 251, 268, 243, 244, 248, 247, 252, 107П, 253П, ТП-274, ТП-275П, ТП-265</t>
-  </si>
-  <si>
     <t>Нет привязки к ТП</t>
   </si>
   <si>
@@ -852,6 +846,15 @@
   </si>
   <si>
     <t>ТП-Т8-97</t>
+  </si>
+  <si>
+    <t>ТП-265</t>
+  </si>
+  <si>
+    <t>нет тп в бд есть успд 258, 270, 271, 202, 260, 270, 251, 268, 243, 244, 248, 247, 252, 107П, 253П, ТП-274, ТП-275П</t>
+  </si>
+  <si>
+    <t>Развитие на 2025 г.</t>
   </si>
 </sst>
 </file>
@@ -1354,10 +1357,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AMJ155"/>
+  <dimension ref="A1:AMJ156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1406,18 +1409,18 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>11</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1467,16 +1470,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
@@ -1497,16 +1500,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1531,12 +1534,12 @@
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
@@ -1561,12 +1564,12 @@
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
@@ -1589,12 +1592,12 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
@@ -1617,12 +1620,12 @@
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
@@ -1645,12 +1648,12 @@
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
@@ -1673,16 +1676,16 @@
         <v>0</v>
       </c>
       <c r="I10" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
@@ -1707,12 +1710,12 @@
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
@@ -1735,12 +1738,12 @@
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
@@ -1763,16 +1766,16 @@
         <v>0</v>
       </c>
       <c r="I13" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
@@ -1793,16 +1796,16 @@
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J14" s="11"/>
       <c r="K14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
@@ -1825,16 +1828,16 @@
         <v>0</v>
       </c>
       <c r="I15" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J15" s="11"/>
       <c r="K15" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
@@ -1857,16 +1860,16 @@
         <v>0</v>
       </c>
       <c r="I16" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
@@ -1889,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
@@ -1919,16 +1922,16 @@
         <v>0</v>
       </c>
       <c r="I18" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1951,12 +1954,12 @@
       <c r="I19" s="11"/>
       <c r="J19" s="11"/>
       <c r="K19" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
@@ -1981,12 +1984,12 @@
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
@@ -2011,12 +2014,12 @@
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
@@ -2039,12 +2042,12 @@
       <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
@@ -2067,16 +2070,16 @@
         <v>0</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
@@ -2099,12 +2102,12 @@
       <c r="I24" s="11"/>
       <c r="J24" s="11"/>
       <c r="K24" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
@@ -2127,12 +2130,12 @@
       <c r="I25" s="11"/>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
@@ -2155,12 +2158,12 @@
       <c r="I26" s="11"/>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
@@ -2181,16 +2184,16 @@
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
@@ -2213,12 +2216,12 @@
       <c r="I28" s="11"/>
       <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -2243,12 +2246,12 @@
       <c r="I29" s="11"/>
       <c r="J29" s="11"/>
       <c r="K29" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
@@ -2271,12 +2274,12 @@
       <c r="I30" s="11"/>
       <c r="J30" s="11"/>
       <c r="K30" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
@@ -2299,12 +2302,12 @@
       <c r="I31" s="11"/>
       <c r="J31" s="11"/>
       <c r="K31" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
@@ -2327,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J32" s="11"/>
       <c r="K32" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
@@ -2359,12 +2362,12 @@
       <c r="I33" s="11"/>
       <c r="J33" s="11"/>
       <c r="K33" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
@@ -2387,12 +2390,12 @@
       <c r="I34" s="11"/>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
@@ -2415,16 +2418,16 @@
         <v>0</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
@@ -2447,12 +2450,12 @@
       <c r="I36" s="11"/>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
@@ -2473,16 +2476,16 @@
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
@@ -2503,16 +2506,16 @@
         <v>0</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
@@ -2533,16 +2536,16 @@
         <v>0</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
@@ -2563,16 +2566,16 @@
         <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
@@ -2593,16 +2596,16 @@
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
@@ -2623,16 +2626,16 @@
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
@@ -2655,12 +2658,12 @@
       <c r="I43" s="11"/>
       <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -2681,16 +2684,16 @@
         <v>0</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
@@ -2711,16 +2714,16 @@
         <v>0</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
@@ -2743,12 +2746,12 @@
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
@@ -2771,16 +2774,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
@@ -2803,12 +2806,12 @@
       <c r="I48" s="11"/>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
@@ -2829,16 +2832,16 @@
         <v>0</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
@@ -2859,16 +2862,16 @@
         <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J50" s="11"/>
       <c r="K50" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
@@ -2891,12 +2894,12 @@
       <c r="I51" s="11"/>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
@@ -2919,12 +2922,12 @@
       <c r="I52" s="11"/>
       <c r="J52" s="11"/>
       <c r="K52" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
@@ -2945,16 +2948,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
@@ -2979,12 +2982,12 @@
       <c r="I54" s="11"/>
       <c r="J54" s="11"/>
       <c r="K54" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
@@ -3009,12 +3012,12 @@
       <c r="I55" s="11"/>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
@@ -3037,16 +3040,16 @@
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
@@ -3069,12 +3072,12 @@
       <c r="I57" s="11"/>
       <c r="J57" s="11"/>
       <c r="K57" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
@@ -3099,12 +3102,12 @@
       <c r="I58" s="11"/>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
@@ -3127,12 +3130,12 @@
       <c r="I59" s="11"/>
       <c r="J59" s="11"/>
       <c r="K59" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
@@ -3155,16 +3158,16 @@
         <v>0</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
@@ -3185,16 +3188,16 @@
         <v>0</v>
       </c>
       <c r="I61" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
@@ -3219,12 +3222,12 @@
       <c r="I62" s="11"/>
       <c r="J62" s="11"/>
       <c r="K62" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
@@ -3247,12 +3250,12 @@
       <c r="I63" s="11"/>
       <c r="J63" s="11"/>
       <c r="K63" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
@@ -3273,16 +3276,16 @@
         <v>0</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J64" s="11"/>
       <c r="K64" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
@@ -3305,16 +3308,16 @@
         <v>0</v>
       </c>
       <c r="I65" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J65" s="11"/>
       <c r="K65" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
@@ -3337,12 +3340,12 @@
       <c r="I66" s="11"/>
       <c r="J66" s="11"/>
       <c r="K66" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
@@ -3363,16 +3366,16 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
@@ -3395,12 +3398,12 @@
       <c r="I68" s="11"/>
       <c r="J68" s="11"/>
       <c r="K68" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
@@ -3425,12 +3428,12 @@
       <c r="I69" s="11"/>
       <c r="J69" s="11"/>
       <c r="K69" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
@@ -3453,12 +3456,12 @@
       <c r="I70" s="11"/>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
@@ -3483,12 +3486,12 @@
       <c r="I71" s="11"/>
       <c r="J71" s="11"/>
       <c r="K71" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="8" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B72" s="9"/>
       <c r="C72" s="9"/>
@@ -3509,16 +3512,16 @@
         <v>0</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J72" s="11"/>
       <c r="K72" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="8" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B73" s="9"/>
       <c r="C73" s="9"/>
@@ -3539,16 +3542,16 @@
         <v>0</v>
       </c>
       <c r="I73" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="8" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B74" s="9"/>
       <c r="C74" s="9"/>
@@ -3571,16 +3574,16 @@
         <v>0</v>
       </c>
       <c r="I74" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="8" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
@@ -3603,12 +3606,12 @@
       <c r="I75" s="11"/>
       <c r="J75" s="11"/>
       <c r="K75" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="8" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
@@ -3631,16 +3634,16 @@
         <v>0</v>
       </c>
       <c r="I76" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J76" s="11"/>
       <c r="K76" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="8" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
@@ -3661,16 +3664,16 @@
         <v>0</v>
       </c>
       <c r="I77" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
@@ -3693,16 +3696,16 @@
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="8" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
@@ -3723,16 +3726,16 @@
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="8" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
@@ -3753,16 +3756,16 @@
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J80" s="11"/>
       <c r="K80" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
@@ -3785,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="I81" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
@@ -3817,12 +3820,12 @@
       <c r="I82" s="11"/>
       <c r="J82" s="11"/>
       <c r="K82" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="8" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
@@ -3843,16 +3846,16 @@
         <v>0</v>
       </c>
       <c r="I83" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
@@ -3875,16 +3878,16 @@
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
@@ -3907,16 +3910,16 @@
         <v>0</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
@@ -3937,16 +3940,16 @@
         <v>0</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
@@ -3967,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J87" s="11"/>
       <c r="K87" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
@@ -3997,16 +4000,16 @@
         <v>0</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J88" s="11"/>
       <c r="K88" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
@@ -4027,16 +4030,16 @@
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J89" s="11"/>
       <c r="K89" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
@@ -4057,16 +4060,16 @@
         <v>0</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
@@ -4089,16 +4092,16 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J91" s="11"/>
       <c r="K91" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
@@ -4119,16 +4122,16 @@
         <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J92" s="11"/>
       <c r="K92" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
@@ -4149,16 +4152,16 @@
         <v>0</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
@@ -4181,12 +4184,12 @@
       <c r="I94" s="11"/>
       <c r="J94" s="11"/>
       <c r="K94" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
@@ -4209,12 +4212,12 @@
       <c r="I95" s="11"/>
       <c r="J95" s="11"/>
       <c r="K95" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
@@ -4237,12 +4240,12 @@
       <c r="I96" s="11"/>
       <c r="J96" s="11"/>
       <c r="K96" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
@@ -4265,16 +4268,16 @@
         <v>0</v>
       </c>
       <c r="I97" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
@@ -4297,16 +4300,16 @@
         <v>0</v>
       </c>
       <c r="I98" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J98" s="11"/>
       <c r="K98" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
@@ -4327,16 +4330,16 @@
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B100" s="9"/>
       <c r="C100" s="9"/>
@@ -4357,16 +4360,16 @@
         <v>0</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B101" s="9"/>
       <c r="C101" s="9"/>
@@ -4389,12 +4392,12 @@
       <c r="I101" s="11"/>
       <c r="J101" s="11"/>
       <c r="K101" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B102" s="9"/>
       <c r="C102" s="9"/>
@@ -4417,16 +4420,16 @@
         <v>0</v>
       </c>
       <c r="I102" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B103" s="9"/>
       <c r="C103" s="9"/>
@@ -4447,16 +4450,16 @@
         <v>0</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
@@ -4479,16 +4482,16 @@
         <v>0</v>
       </c>
       <c r="I104" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J104" s="11"/>
       <c r="K104" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
@@ -4511,16 +4514,16 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B106" s="9"/>
       <c r="C106" s="9"/>
@@ -4541,16 +4544,16 @@
         <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
@@ -4573,16 +4576,16 @@
         <v>0</v>
       </c>
       <c r="I107" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
@@ -4605,16 +4608,16 @@
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J108" s="11"/>
       <c r="K108" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B109" s="9"/>
       <c r="C109" s="9"/>
@@ -4637,16 +4640,16 @@
         <v>0</v>
       </c>
       <c r="I109" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B110" s="9"/>
       <c r="C110" s="9"/>
@@ -4669,16 +4672,16 @@
         <v>0</v>
       </c>
       <c r="I110" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B111" s="9"/>
       <c r="C111" s="9"/>
@@ -4701,16 +4704,16 @@
         <v>0</v>
       </c>
       <c r="I111" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
@@ -4733,16 +4736,16 @@
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
@@ -4763,16 +4766,16 @@
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J113" s="11"/>
       <c r="K113" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
@@ -4793,16 +4796,16 @@
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J114" s="11"/>
       <c r="K114" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
@@ -4825,12 +4828,12 @@
       <c r="I115" s="11"/>
       <c r="J115" s="11"/>
       <c r="K115" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B116" s="9"/>
       <c r="C116" s="9"/>
@@ -4853,16 +4856,16 @@
         <v>0</v>
       </c>
       <c r="I116" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J116" s="11"/>
       <c r="K116" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
@@ -4885,16 +4888,16 @@
         <v>0</v>
       </c>
       <c r="I117" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J117" s="11"/>
       <c r="K117" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="8" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
@@ -4915,16 +4918,16 @@
         <v>0</v>
       </c>
       <c r="I118" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J118" s="11"/>
       <c r="K118" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
@@ -4947,12 +4950,12 @@
       <c r="I119" s="11"/>
       <c r="J119" s="11"/>
       <c r="K119" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120" s="9"/>
       <c r="C120" s="9"/>
@@ -4975,16 +4978,16 @@
         <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J120" s="11"/>
       <c r="K120" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
@@ -5005,16 +5008,16 @@
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J121" s="11"/>
       <c r="K121" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
@@ -5035,16 +5038,16 @@
         <v>0</v>
       </c>
       <c r="I122" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J122" s="11"/>
       <c r="K122" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
@@ -5065,16 +5068,16 @@
         <v>0</v>
       </c>
       <c r="I123" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J123" s="11"/>
       <c r="K123" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
@@ -5097,12 +5100,12 @@
       <c r="I124" s="11"/>
       <c r="J124" s="11"/>
       <c r="K124" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
@@ -5125,12 +5128,12 @@
       <c r="I125" s="11"/>
       <c r="J125" s="11"/>
       <c r="K125" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
@@ -5151,16 +5154,16 @@
         <v>0</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J126" s="11"/>
       <c r="K126" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
@@ -5183,16 +5186,16 @@
         <v>0</v>
       </c>
       <c r="I127" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J127" s="11"/>
       <c r="K127" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B128" s="9"/>
       <c r="C128" s="9"/>
@@ -5215,16 +5218,16 @@
         <v>0</v>
       </c>
       <c r="I128" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J128" s="11"/>
       <c r="K128" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
@@ -5247,16 +5250,16 @@
         <v>0</v>
       </c>
       <c r="I129" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J129" s="11"/>
       <c r="K129" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B130" s="9"/>
       <c r="C130" s="9"/>
@@ -5271,29 +5274,29 @@
         <v>87</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" ref="G130:G155" si="12">B130+C130</f>
+        <f t="shared" ref="G130:G156" si="12">B130+C130</f>
         <v>0</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" ref="H130:H161" si="13">G130/F130</f>
+        <f t="shared" ref="H130:H156" si="13">G130/F130</f>
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J130" s="11"/>
       <c r="K130" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9">
-        <f t="shared" ref="D131:D154" si="14">F131-G131</f>
+        <f t="shared" ref="D131:D155" si="14">F131-G131</f>
         <v>190</v>
       </c>
       <c r="E131" s="9">
@@ -5311,16 +5314,16 @@
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J131" s="11"/>
       <c r="K131" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
@@ -5341,16 +5344,16 @@
         <v>0</v>
       </c>
       <c r="I132" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J132" s="11"/>
       <c r="K132" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B133" s="9"/>
       <c r="C133" s="9"/>
@@ -5371,16 +5374,16 @@
         <v>0</v>
       </c>
       <c r="I133" s="11" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J133" s="11"/>
       <c r="K133" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B134" s="9"/>
       <c r="C134" s="9"/>
@@ -5401,16 +5404,16 @@
         <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J134" s="11"/>
       <c r="K134" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
@@ -5433,16 +5436,16 @@
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J135" s="11"/>
       <c r="K135" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B136" s="9"/>
       <c r="C136" s="9"/>
@@ -5465,12 +5468,12 @@
       <c r="I136" s="11"/>
       <c r="J136" s="11"/>
       <c r="K136" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B137" s="9"/>
       <c r="C137" s="9"/>
@@ -5491,16 +5494,16 @@
         <v>0</v>
       </c>
       <c r="I137" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J137" s="11"/>
       <c r="K137" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="8" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
@@ -5521,16 +5524,16 @@
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J138" s="11"/>
       <c r="K138" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B139" s="9"/>
       <c r="C139" s="9"/>
@@ -5553,16 +5556,16 @@
         <v>0</v>
       </c>
       <c r="I139" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J139" s="11"/>
       <c r="K139" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B140" s="9"/>
       <c r="C140" s="9"/>
@@ -5585,12 +5588,12 @@
       <c r="I140" s="11"/>
       <c r="J140" s="11"/>
       <c r="K140" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
@@ -5611,16 +5614,16 @@
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J141" s="11"/>
       <c r="K141" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B142" s="9"/>
       <c r="C142" s="9"/>
@@ -5645,12 +5648,12 @@
       <c r="I142" s="11"/>
       <c r="J142" s="11"/>
       <c r="K142" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B143" s="9"/>
       <c r="C143" s="9"/>
@@ -5671,16 +5674,16 @@
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J143" s="11"/>
       <c r="K143" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
@@ -5703,12 +5706,12 @@
       <c r="I144" s="11"/>
       <c r="J144" s="11"/>
       <c r="K144" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B145" s="9"/>
       <c r="C145" s="9"/>
@@ -5733,12 +5736,12 @@
       <c r="I145" s="11"/>
       <c r="J145" s="11"/>
       <c r="K145" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B146" s="9"/>
       <c r="C146" s="9"/>
@@ -5763,12 +5766,12 @@
       <c r="I146" s="11"/>
       <c r="J146" s="11"/>
       <c r="K146" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
@@ -5791,12 +5794,12 @@
       <c r="I147" s="11"/>
       <c r="J147" s="11"/>
       <c r="K147" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
@@ -5821,12 +5824,12 @@
       <c r="I148" s="11"/>
       <c r="J148" s="11"/>
       <c r="K148" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B149" s="9"/>
       <c r="C149" s="9"/>
@@ -5849,16 +5852,16 @@
         <v>0</v>
       </c>
       <c r="I149" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J149" s="11"/>
       <c r="K149" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="8" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
@@ -5881,12 +5884,12 @@
       <c r="I150" s="11"/>
       <c r="J150" s="11"/>
       <c r="K150" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B151" s="9"/>
       <c r="C151" s="9"/>
@@ -5909,12 +5912,12 @@
       <c r="I151" s="11"/>
       <c r="J151" s="11"/>
       <c r="K151" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="8" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
@@ -5937,22 +5940,22 @@
       <c r="I152" s="11"/>
       <c r="J152" s="11"/>
       <c r="K152" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="8" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9">
         <f t="shared" si="14"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E153" s="9"/>
       <c r="F153" s="9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G153" s="9">
         <f t="shared" si="12"/>
@@ -5963,26 +5966,26 @@
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J153" s="11"/>
       <c r="K153" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9">
         <f t="shared" si="14"/>
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="E154" s="9"/>
       <c r="F154" s="9">
-        <v>67</v>
+        <v>8</v>
       </c>
       <c r="G154" s="9">
         <f t="shared" si="12"/>
@@ -5992,45 +5995,75 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I154" s="11"/>
+      <c r="I154" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="J154" s="11"/>
       <c r="K154" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B155" s="12">
-        <f>SUM(B3:B154)</f>
-        <v>0</v>
-      </c>
-      <c r="C155" s="12">
-        <v>0</v>
-      </c>
-      <c r="D155" s="12">
-        <f>SUM(D2:D154)</f>
-        <v>15572</v>
-      </c>
-      <c r="E155" s="12">
-        <v>181</v>
-      </c>
-      <c r="F155" s="12">
-        <f>SUM(F2:F154)</f>
-        <v>15630</v>
-      </c>
-      <c r="G155" s="12">
+      <c r="A155" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="E155" s="9"/>
+      <c r="F155" s="9">
+        <v>67</v>
+      </c>
+      <c r="G155" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H155" s="13">
+      <c r="H155" s="10">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I155" s="11"/>
       <c r="J155" s="11"/>
-      <c r="K155" s="11"/>
+      <c r="K155" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A156" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" s="12">
+        <f>SUM(B3:B155)</f>
+        <v>0</v>
+      </c>
+      <c r="C156" s="12">
+        <v>0</v>
+      </c>
+      <c r="D156" s="12">
+        <f>SUM(D2:D155)</f>
+        <v>15573</v>
+      </c>
+      <c r="E156" s="12">
+        <v>181</v>
+      </c>
+      <c r="F156" s="12">
+        <f>SUM(F2:F155)</f>
+        <v>15631</v>
+      </c>
+      <c r="G156" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H156" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I156" s="11"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -6053,517 +6086,517 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="14" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="14" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="14" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="14" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="14" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="14" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="14" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" s="14" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" s="14" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" s="14" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" s="14" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" s="14" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" s="14" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" s="14" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" s="14" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" s="14" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" s="14" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" s="14" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" s="14" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" s="14" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" s="14" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" s="14" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" s="14" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" s="14" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" s="14" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="86" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="87" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A87" s="14" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="88" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A88" s="14" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="89" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="90" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A90" s="14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="91" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A91" s="14" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="92" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="93" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A93" s="14" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="94" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A94" s="14" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="95" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A96" s="14" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A97" s="14" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A99" s="14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="100" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A100" s="14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A101" s="14" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A103" s="14" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>

--- a/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="275">
   <si>
     <t>Диспечерское наименование ТП</t>
   </si>
@@ -855,6 +855,9 @@
   </si>
   <si>
     <t>Развитие на 2025 г.</t>
+  </si>
+  <si>
+    <t>ТП-279</t>
   </si>
 </sst>
 </file>
@@ -1357,10 +1360,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AMJ156"/>
+  <dimension ref="A1:AMJ157"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A121" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5274,11 +5277,11 @@
         <v>87</v>
       </c>
       <c r="G130" s="9">
-        <f t="shared" ref="G130:G156" si="12">B130+C130</f>
+        <f t="shared" ref="G130:G157" si="12">B130+C130</f>
         <v>0</v>
       </c>
       <c r="H130" s="10">
-        <f t="shared" ref="H130:H156" si="13">G130/F130</f>
+        <f t="shared" ref="H130:H157" si="13">G130/F130</f>
         <v>0</v>
       </c>
       <c r="I130" s="11" t="s">
@@ -5296,7 +5299,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9">
-        <f t="shared" ref="D131:D155" si="14">F131-G131</f>
+        <f t="shared" ref="D131:D156" si="14">F131-G131</f>
         <v>190</v>
       </c>
       <c r="E131" s="9">
@@ -6005,17 +6008,17 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="8" t="s">
-        <v>167</v>
+        <v>274</v>
       </c>
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9">
         <f t="shared" si="14"/>
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="E155" s="9"/>
       <c r="F155" s="9">
-        <v>67</v>
+        <v>14</v>
       </c>
       <c r="G155" s="9">
         <f t="shared" si="12"/>
@@ -6025,45 +6028,75 @@
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="I155" s="11"/>
+      <c r="I155" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="J155" s="11"/>
       <c r="K155" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A156" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B156" s="12">
-        <f>SUM(B3:B155)</f>
-        <v>0</v>
-      </c>
-      <c r="C156" s="12">
-        <v>0</v>
-      </c>
-      <c r="D156" s="12">
-        <f>SUM(D2:D155)</f>
-        <v>15573</v>
-      </c>
-      <c r="E156" s="12">
-        <v>181</v>
-      </c>
-      <c r="F156" s="12">
-        <f>SUM(F2:F155)</f>
-        <v>15631</v>
-      </c>
-      <c r="G156" s="12">
+      <c r="A156" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9">
+        <f t="shared" si="14"/>
+        <v>67</v>
+      </c>
+      <c r="E156" s="9"/>
+      <c r="F156" s="9">
+        <v>67</v>
+      </c>
+      <c r="G156" s="9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="H156" s="13">
+      <c r="H156" s="10">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="I156" s="11"/>
       <c r="J156" s="11"/>
-      <c r="K156" s="11"/>
+      <c r="K156" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A157" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" s="12">
+        <f>SUM(B3:B156)</f>
+        <v>0</v>
+      </c>
+      <c r="C157" s="12">
+        <v>0</v>
+      </c>
+      <c r="D157" s="12">
+        <f>SUM(D2:D156)</f>
+        <v>15587</v>
+      </c>
+      <c r="E157" s="12">
+        <v>181</v>
+      </c>
+      <c r="F157" s="12">
+        <f>SUM(F2:F156)</f>
+        <v>15645</v>
+      </c>
+      <c r="G157" s="12">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H157" s="13">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I157" s="11"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>

--- a/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="376">
   <si>
     <t>Диспечерское наименование ТП</t>
   </si>
@@ -1594,8 +1594,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F255" sqref="F255"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1666,11 +1666,11 @@
         <v>180</v>
       </c>
       <c r="G2" s="9">
-        <f>B2+C2</f>
+        <f t="shared" ref="G2:G33" si="0">B2+C2</f>
         <v>0</v>
       </c>
       <c r="H2" s="10">
-        <f t="shared" ref="H2:H131" si="0">G2/F2</f>
+        <f t="shared" ref="H2:H131" si="1">G2/F2</f>
         <v>0</v>
       </c>
       <c r="I2" s="11"/>
@@ -1684,7 +1684,7 @@
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9">
-        <f>F3-G3</f>
+        <f t="shared" ref="D3:D9" si="2">F3-G3</f>
         <v>165</v>
       </c>
       <c r="E3" s="9">
@@ -1694,11 +1694,11 @@
         <v>165</v>
       </c>
       <c r="G3" s="9">
-        <f>B3+C3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H3" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -1716,7 +1716,7 @@
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9">
-        <f>F4-G4</f>
+        <f t="shared" si="2"/>
         <v>147</v>
       </c>
       <c r="E4" s="9">
@@ -1726,14 +1726,16 @@
         <v>147</v>
       </c>
       <c r="G4" s="9">
-        <f>B4+C4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H4" s="10">
-        <f>G4/F4</f>
-        <v>0</v>
-      </c>
-      <c r="I4" s="11"/>
+        <f t="shared" ref="H4:H9" si="3">G4/F4</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
         <v>14</v>
@@ -1746,7 +1748,7 @@
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9">
-        <f>F5-G5</f>
+        <f t="shared" si="2"/>
         <v>171</v>
       </c>
       <c r="E5" s="9"/>
@@ -1754,11 +1756,11 @@
         <v>171</v>
       </c>
       <c r="G5" s="9">
-        <f>B5+C5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H5" s="10">
-        <f>G5/F5</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -1776,7 +1778,7 @@
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9">
-        <f>F6-G6</f>
+        <f t="shared" si="2"/>
         <v>181</v>
       </c>
       <c r="E6" s="9">
@@ -1786,11 +1788,11 @@
         <v>181</v>
       </c>
       <c r="G6" s="9">
-        <f>B6+C6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H6" s="10">
-        <f>G6/F6</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -1808,7 +1810,7 @@
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9">
-        <f>F7-G7</f>
+        <f t="shared" si="2"/>
         <v>43</v>
       </c>
       <c r="E7" s="9"/>
@@ -1816,11 +1818,11 @@
         <v>43</v>
       </c>
       <c r="G7" s="9">
-        <f>B7+C7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="10">
-        <f>G7/F7</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I7" s="11"/>
@@ -1836,7 +1838,7 @@
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9">
-        <f>F8-G8</f>
+        <f t="shared" si="2"/>
         <v>168</v>
       </c>
       <c r="E8" s="9">
@@ -1846,11 +1848,11 @@
         <v>168</v>
       </c>
       <c r="G8" s="9">
-        <f>B8+C8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="10">
-        <f>G8/F8</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I8" s="11" t="s">
@@ -1868,7 +1870,7 @@
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9">
-        <f>F9-G9</f>
+        <f t="shared" si="2"/>
         <v>105</v>
       </c>
       <c r="E9" s="9">
@@ -1878,11 +1880,11 @@
         <v>105</v>
       </c>
       <c r="G9" s="9">
-        <f>B9+C9</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="10">
-        <f>G9/F9</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I9" s="11" t="s">
@@ -1909,7 +1911,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="9">
-        <f>B10+C10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="10">
@@ -1938,7 +1940,7 @@
         <v>156</v>
       </c>
       <c r="G11" s="9">
-        <f>B11+C11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="10">
@@ -1958,7 +1960,7 @@
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9">
-        <f t="shared" ref="D12:D132" si="1">F12-G12</f>
+        <f t="shared" ref="D12:D132" si="4">F12-G12</f>
         <v>158</v>
       </c>
       <c r="E12" s="9"/>
@@ -1966,11 +1968,11 @@
         <v>158</v>
       </c>
       <c r="G12" s="9">
-        <f>B12+C12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I12" s="11" t="s">
@@ -1988,7 +1990,7 @@
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9">
-        <f>F13-G13</f>
+        <f t="shared" ref="D13:D20" si="5">F13-G13</f>
         <v>20</v>
       </c>
       <c r="E13" s="9">
@@ -1998,11 +2000,11 @@
         <v>20</v>
       </c>
       <c r="G13" s="9">
-        <f>B13+C13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="10">
-        <f>G13/F13</f>
+        <f t="shared" ref="H13:H20" si="6">G13/F13</f>
         <v>0</v>
       </c>
       <c r="I13" s="11"/>
@@ -2018,7 +2020,7 @@
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9">
-        <f>F14-G14</f>
+        <f t="shared" si="5"/>
         <v>85</v>
       </c>
       <c r="E14" s="9">
@@ -2028,11 +2030,11 @@
         <v>85</v>
       </c>
       <c r="G14" s="9">
-        <f>B14+C14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="10">
-        <f>G14/F14</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I14" s="11" t="s">
@@ -2050,7 +2052,7 @@
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9">
-        <f>F15-G15</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="E15" s="9"/>
@@ -2058,11 +2060,11 @@
         <v>52</v>
       </c>
       <c r="G15" s="9">
-        <f>B15+C15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="10">
-        <f>G15/F15</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I15" s="11"/>
@@ -2078,7 +2080,7 @@
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9">
-        <f>F16-G16</f>
+        <f t="shared" si="5"/>
         <v>2</v>
       </c>
       <c r="E16" s="9"/>
@@ -2086,11 +2088,11 @@
         <v>2</v>
       </c>
       <c r="G16" s="9">
-        <f>B16+C16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="10">
-        <f>G16/F16</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I16" s="11"/>
@@ -2106,7 +2108,7 @@
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9">
-        <f>F17-G17</f>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E17" s="9"/>
@@ -2114,11 +2116,11 @@
         <v>81</v>
       </c>
       <c r="G17" s="9">
-        <f>B17+C17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="10">
-        <f>G17/F17</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I17" s="11" t="s">
@@ -2136,7 +2138,7 @@
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9">
-        <f>F18-G18</f>
+        <f t="shared" si="5"/>
         <v>81</v>
       </c>
       <c r="E18" s="9"/>
@@ -2144,11 +2146,11 @@
         <v>81</v>
       </c>
       <c r="G18" s="9">
-        <f>B18+C18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="10">
-        <f>G18/F18</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I18" s="11"/>
@@ -2164,7 +2166,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9">
-        <f>F19-G19</f>
+        <f t="shared" si="5"/>
         <v>43</v>
       </c>
       <c r="E19" s="9"/>
@@ -2172,11 +2174,11 @@
         <v>43</v>
       </c>
       <c r="G19" s="9">
-        <f>B19+C19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="10">
-        <f>G19/F19</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I19" s="11"/>
@@ -2192,7 +2194,7 @@
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9">
-        <f>F20-G20</f>
+        <f t="shared" si="5"/>
         <v>214</v>
       </c>
       <c r="E20" s="9">
@@ -2202,11 +2204,11 @@
         <v>214</v>
       </c>
       <c r="G20" s="9">
-        <f>B20+C20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="10">
-        <f>G20/F20</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I20" s="11" t="s">
@@ -2233,7 +2235,7 @@
         <v>0</v>
       </c>
       <c r="G21" s="9">
-        <f>B21+C21</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="10">
@@ -2260,7 +2262,7 @@
         <v>69</v>
       </c>
       <c r="G22" s="9">
-        <f>B22+C22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="10">
@@ -2289,7 +2291,7 @@
         <v>0</v>
       </c>
       <c r="G23" s="9">
-        <f>B23+C23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="10">
@@ -2316,7 +2318,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="9">
-        <f>B24+C24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="10">
@@ -2344,7 +2346,7 @@
         <v>35</v>
       </c>
       <c r="G25" s="9">
-        <f>B25+C25</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H25" s="10">
@@ -2373,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="G26" s="9">
-        <f>B26+C26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H26" s="10">
@@ -2392,7 +2394,7 @@
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9">
-        <f>F27-G27</f>
+        <f t="shared" ref="D27:D37" si="7">F27-G27</f>
         <v>188</v>
       </c>
       <c r="E27" s="9"/>
@@ -2400,11 +2402,11 @@
         <v>188</v>
       </c>
       <c r="G27" s="9">
-        <f>B27+C27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H27" s="10">
-        <f>G27/F27</f>
+        <f t="shared" ref="H27:H37" si="8">G27/F27</f>
         <v>0</v>
       </c>
       <c r="I27" s="11" t="s">
@@ -2422,7 +2424,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9">
-        <f>F28-G28</f>
+        <f t="shared" si="7"/>
         <v>176</v>
       </c>
       <c r="E28" s="9"/>
@@ -2430,14 +2432,16 @@
         <v>176</v>
       </c>
       <c r="G28" s="9">
-        <f>B28+C28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H28" s="10">
-        <f>G28/F28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="11"/>
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
         <v>14</v>
@@ -2450,7 +2454,7 @@
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9">
-        <f>F29-G29</f>
+        <f t="shared" si="7"/>
         <v>197</v>
       </c>
       <c r="E29" s="9">
@@ -2460,11 +2464,11 @@
         <v>197</v>
       </c>
       <c r="G29" s="9">
-        <f>B29+C29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H29" s="10">
-        <f>G29/F29</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I29" s="11" t="s">
@@ -3495,7 +3499,7 @@
       <c r="B30" s="15"/>
       <c r="C30" s="15"/>
       <c r="D30" s="15">
-        <f>F30-G30</f>
+        <f t="shared" si="7"/>
         <v>146</v>
       </c>
       <c r="E30" s="15">
@@ -3505,11 +3509,11 @@
         <v>146</v>
       </c>
       <c r="G30" s="15">
-        <f>B30+C30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H30" s="16">
-        <f>G30/F30</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I30" s="17" t="s">
@@ -3527,7 +3531,7 @@
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
       <c r="D31" s="9">
-        <f>F31-G31</f>
+        <f t="shared" si="7"/>
         <v>219</v>
       </c>
       <c r="E31" s="9"/>
@@ -3535,11 +3539,11 @@
         <v>219</v>
       </c>
       <c r="G31" s="9">
-        <f>B31+C31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H31" s="10">
-        <f>G31/F31</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I31" s="11" t="s">
@@ -3557,7 +3561,7 @@
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
       <c r="D32" s="9">
-        <f>F32-G32</f>
+        <f t="shared" si="7"/>
         <v>98</v>
       </c>
       <c r="E32" s="9"/>
@@ -3565,11 +3569,11 @@
         <v>98</v>
       </c>
       <c r="G32" s="9">
-        <f>B32+C32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H32" s="10">
-        <f>G32/F32</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I32" s="11"/>
@@ -3585,7 +3589,7 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="9">
-        <f>F33-G33</f>
+        <f t="shared" si="7"/>
         <v>190</v>
       </c>
       <c r="E33" s="9">
@@ -3595,11 +3599,11 @@
         <v>190</v>
       </c>
       <c r="G33" s="9">
-        <f>B33+C33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H33" s="10">
-        <f>G33/F33</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I33" s="11" t="s">
@@ -3617,7 +3621,7 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="9">
-        <f>F34-G34</f>
+        <f t="shared" si="7"/>
         <v>194</v>
       </c>
       <c r="E34" s="9"/>
@@ -3625,11 +3629,11 @@
         <v>194</v>
       </c>
       <c r="G34" s="9">
-        <f>B34+C34</f>
+        <f t="shared" ref="G34:G65" si="9">B34+C34</f>
         <v>0</v>
       </c>
       <c r="H34" s="10">
-        <f>G34/F34</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I34" s="11" t="s">
@@ -3647,7 +3651,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="9">
-        <f>F35-G35</f>
+        <f t="shared" si="7"/>
         <v>208</v>
       </c>
       <c r="E35" s="9">
@@ -3657,11 +3661,11 @@
         <v>208</v>
       </c>
       <c r="G35" s="9">
-        <f>B35+C35</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H35" s="10">
-        <f>G35/F35</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I35" s="11" t="s">
@@ -3679,7 +3683,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="9">
-        <f>F36-G36</f>
+        <f t="shared" si="7"/>
         <v>279</v>
       </c>
       <c r="E36" s="9">
@@ -3689,11 +3693,11 @@
         <v>279</v>
       </c>
       <c r="G36" s="9">
-        <f>B36+C36</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H36" s="10">
-        <f>G36/F36</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
@@ -3711,7 +3715,7 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="9">
-        <f>F37-G37</f>
+        <f t="shared" si="7"/>
         <v>53</v>
       </c>
       <c r="E37" s="9"/>
@@ -3719,11 +3723,11 @@
         <v>53</v>
       </c>
       <c r="G37" s="9">
-        <f>B37+C37</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H37" s="10">
-        <f>G37/F37</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="I37" s="11" t="s">
@@ -3750,7 +3754,7 @@
         <v>0</v>
       </c>
       <c r="G38" s="9">
-        <f>B38+C38</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H38" s="10">
@@ -3769,7 +3773,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="9">
-        <f>F39-G39</f>
+        <f t="shared" ref="D39:D57" si="10">F39-G39</f>
         <v>165</v>
       </c>
       <c r="E39" s="9">
@@ -3779,11 +3783,11 @@
         <v>165</v>
       </c>
       <c r="G39" s="9">
-        <f>B39+C39</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H39" s="10">
-        <f>G39/F39</f>
+        <f t="shared" ref="H39:H47" si="11">G39/F39</f>
         <v>0</v>
       </c>
       <c r="I39" s="11" t="s">
@@ -3801,7 +3805,7 @@
       <c r="B40" s="9"/>
       <c r="C40" s="9"/>
       <c r="D40" s="9">
-        <f>F40-G40</f>
+        <f t="shared" si="10"/>
         <v>256</v>
       </c>
       <c r="E40" s="9">
@@ -3811,11 +3815,11 @@
         <v>256</v>
       </c>
       <c r="G40" s="9">
-        <f>B40+C40</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H40" s="10">
-        <f>G40/F40</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I40" s="11" t="s">
@@ -3833,7 +3837,7 @@
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
       <c r="D41" s="9">
-        <f>F41-G41</f>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="E41" s="9">
@@ -3843,11 +3847,11 @@
         <v>198</v>
       </c>
       <c r="G41" s="9">
-        <f>B41+C41</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H41" s="10">
-        <f>G41/F41</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I41" s="11" t="s">
@@ -3865,7 +3869,7 @@
       <c r="B42" s="9"/>
       <c r="C42" s="9"/>
       <c r="D42" s="9">
-        <f>F42-G42</f>
+        <f t="shared" si="10"/>
         <v>238</v>
       </c>
       <c r="E42" s="9">
@@ -3875,11 +3879,11 @@
         <v>238</v>
       </c>
       <c r="G42" s="9">
-        <f>B42+C42</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H42" s="10">
-        <f>G42/F42</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I42" s="11" t="s">
@@ -3897,7 +3901,7 @@
       <c r="B43" s="9"/>
       <c r="C43" s="9"/>
       <c r="D43" s="9">
-        <f>F43-G43</f>
+        <f t="shared" si="10"/>
         <v>253</v>
       </c>
       <c r="E43" s="9">
@@ -3907,11 +3911,11 @@
         <v>253</v>
       </c>
       <c r="G43" s="9">
-        <f>B43+C43</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H43" s="10">
-        <f>G43/F43</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I43" s="11" t="s">
@@ -3929,7 +3933,7 @@
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
       <c r="D44" s="9">
-        <f>F44-G44</f>
+        <f t="shared" si="10"/>
         <v>78</v>
       </c>
       <c r="E44" s="9"/>
@@ -3937,11 +3941,11 @@
         <v>78</v>
       </c>
       <c r="G44" s="9">
-        <f>B44+C44</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H44" s="10">
-        <f>G44/F44</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I44" s="11" t="s">
@@ -3959,7 +3963,7 @@
       <c r="B45" s="9"/>
       <c r="C45" s="9"/>
       <c r="D45" s="9">
-        <f>F45-G45</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="E45" s="9"/>
@@ -3967,11 +3971,11 @@
         <v>25</v>
       </c>
       <c r="G45" s="9">
-        <f>B45+C45</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H45" s="10">
-        <f>G45/F45</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I45" s="11" t="s">
@@ -3989,7 +3993,7 @@
       <c r="B46" s="9"/>
       <c r="C46" s="9"/>
       <c r="D46" s="9">
-        <f>F46-G46</f>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
       <c r="E46" s="9"/>
@@ -3997,11 +4001,11 @@
         <v>2</v>
       </c>
       <c r="G46" s="9">
-        <f>B46+C46</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H46" s="10">
-        <f>G46/F46</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I46" s="11"/>
@@ -4017,7 +4021,7 @@
       <c r="B47" s="9"/>
       <c r="C47" s="9"/>
       <c r="D47" s="9">
-        <f>F47-G47</f>
+        <f t="shared" si="10"/>
         <v>126</v>
       </c>
       <c r="E47" s="9">
@@ -4027,11 +4031,11 @@
         <v>126</v>
       </c>
       <c r="G47" s="9">
-        <f>B47+C47</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H47" s="10">
-        <f>G47/F47</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="I47" s="11" t="s">
@@ -4049,7 +4053,7 @@
       <c r="B48" s="9"/>
       <c r="C48" s="9"/>
       <c r="D48" s="9">
-        <f>F48-G48</f>
+        <f t="shared" si="10"/>
         <v>121</v>
       </c>
       <c r="E48" s="9">
@@ -4059,11 +4063,11 @@
         <v>121</v>
       </c>
       <c r="G48" s="9">
-        <f>B48+C48</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H48" s="10">
-        <f t="shared" ref="H48:H57" si="2">G48/F48</f>
+        <f t="shared" ref="H48:H57" si="12">G48/F48</f>
         <v>0</v>
       </c>
       <c r="I48" s="11" t="s">
@@ -4081,7 +4085,7 @@
       <c r="B49" s="9"/>
       <c r="C49" s="9"/>
       <c r="D49" s="9">
-        <f>F49-G49</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="E49" s="9"/>
@@ -4089,11 +4093,11 @@
         <v>20</v>
       </c>
       <c r="G49" s="9">
-        <f>B49+C49</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H49" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I49" s="11" t="s">
@@ -4111,7 +4115,7 @@
       <c r="B50" s="9"/>
       <c r="C50" s="9"/>
       <c r="D50" s="9">
-        <f>F50-G50</f>
+        <f t="shared" si="10"/>
         <v>96</v>
       </c>
       <c r="E50" s="9">
@@ -4121,11 +4125,11 @@
         <v>96</v>
       </c>
       <c r="G50" s="9">
-        <f>B50+C50</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H50" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
@@ -4143,7 +4147,7 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="9">
-        <f>F51-G51</f>
+        <f t="shared" si="10"/>
         <v>212</v>
       </c>
       <c r="E51" s="9"/>
@@ -4151,11 +4155,11 @@
         <v>212</v>
       </c>
       <c r="G51" s="9">
-        <f>B51+C51</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I51" s="11" t="s">
@@ -4173,7 +4177,7 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="9">
-        <f>F52-G52</f>
+        <f t="shared" si="10"/>
         <v>152</v>
       </c>
       <c r="E52" s="9"/>
@@ -4181,11 +4185,11 @@
         <v>152</v>
       </c>
       <c r="G52" s="9">
-        <f>B52+C52</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H52" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I52" s="11" t="s">
@@ -4203,7 +4207,7 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="9">
-        <f>F53-G53</f>
+        <f t="shared" si="10"/>
         <v>217</v>
       </c>
       <c r="E53" s="9"/>
@@ -4211,11 +4215,11 @@
         <v>217</v>
       </c>
       <c r="G53" s="9">
-        <f>B53+C53</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H53" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I53" s="11" t="s">
@@ -4233,7 +4237,7 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="9">
-        <f>F54-G54</f>
+        <f t="shared" si="10"/>
         <v>83</v>
       </c>
       <c r="E54" s="9"/>
@@ -4241,11 +4245,11 @@
         <v>83</v>
       </c>
       <c r="G54" s="9">
-        <f>B54+C54</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H54" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I54" s="11"/>
@@ -4261,7 +4265,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="9">
-        <f>F55-G55</f>
+        <f t="shared" si="10"/>
         <v>4</v>
       </c>
       <c r="E55" s="9"/>
@@ -4269,11 +4273,11 @@
         <v>4</v>
       </c>
       <c r="G55" s="9">
-        <f>B55+C55</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H55" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I55" s="11"/>
@@ -4289,7 +4293,7 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="9">
-        <f>F56-G56</f>
+        <f t="shared" si="10"/>
         <v>131</v>
       </c>
       <c r="E56" s="9"/>
@@ -4297,11 +4301,11 @@
         <v>131</v>
       </c>
       <c r="G56" s="9">
-        <f>B56+C56</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H56" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I56" s="11" t="s">
@@ -4319,7 +4323,7 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="9">
-        <f>F57-G57</f>
+        <f t="shared" si="10"/>
         <v>70</v>
       </c>
       <c r="E57" s="9">
@@ -4329,11 +4333,11 @@
         <v>70</v>
       </c>
       <c r="G57" s="9">
-        <f>B57+C57</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H57" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="I57" s="11" t="s">
@@ -4360,7 +4364,7 @@
         <v>0</v>
       </c>
       <c r="G58" s="9">
-        <f>B58+C58</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H58" s="10">
@@ -4388,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="G59" s="9">
-        <f>B59+C59</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H59" s="10">
@@ -4416,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="G60" s="9">
-        <f>B60+C60</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H60" s="10">
@@ -4444,7 +4448,7 @@
         <v>0</v>
       </c>
       <c r="G61" s="9">
-        <f>B61+C61</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H61" s="10">
@@ -4472,7 +4476,7 @@
         <v>0</v>
       </c>
       <c r="G62" s="9">
-        <f>B62+C62</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H62" s="10">
@@ -4500,7 +4504,7 @@
         <v>0</v>
       </c>
       <c r="G63" s="9">
-        <f>B63+C63</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H63" s="10">
@@ -4528,7 +4532,7 @@
         <v>0</v>
       </c>
       <c r="G64" s="9">
-        <f>B64+C64</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H64" s="10">
@@ -4556,7 +4560,7 @@
         <v>0</v>
       </c>
       <c r="G65" s="9">
-        <f>B65+C65</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="H65" s="10">
@@ -4584,7 +4588,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="9">
-        <f>B66+C66</f>
+        <f t="shared" ref="G66:G97" si="13">B66+C66</f>
         <v>0</v>
       </c>
       <c r="H66" s="10">
@@ -4612,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="G67" s="9">
-        <f>B67+C67</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H67" s="10">
@@ -4631,7 +4635,7 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="9">
-        <f t="shared" ref="D68" si="3">F68-G68</f>
+        <f t="shared" ref="D68" si="14">F68-G68</f>
         <v>87</v>
       </c>
       <c r="E68" s="9">
@@ -4641,7 +4645,7 @@
         <v>87</v>
       </c>
       <c r="G68" s="9">
-        <f>B68+C68</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H68" s="10">
@@ -4673,7 +4677,7 @@
         <v>190</v>
       </c>
       <c r="G69" s="9">
-        <f>B69+C69</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H69" s="10">
@@ -4704,7 +4708,7 @@
         <v>0</v>
       </c>
       <c r="G70" s="9">
-        <f>B70+C70</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H70" s="10">
@@ -4731,7 +4735,7 @@
         <v>194</v>
       </c>
       <c r="G71" s="9">
-        <f>B71+C71</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H71" s="10">
@@ -4761,7 +4765,7 @@
         <v>174</v>
       </c>
       <c r="G72" s="9">
-        <f>B72+C72</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H72" s="10">
@@ -4792,7 +4796,7 @@
         <v>0</v>
       </c>
       <c r="G73" s="9">
-        <f>B73+C73</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H73" s="10">
@@ -4820,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="G74" s="9">
-        <f>B74+C74</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H74" s="10">
@@ -4839,7 +4843,7 @@
       <c r="B75" s="9"/>
       <c r="C75" s="9"/>
       <c r="D75" s="9">
-        <f>F75-G75</f>
+        <f t="shared" ref="D75:D82" si="15">F75-G75</f>
         <v>139</v>
       </c>
       <c r="E75" s="9"/>
@@ -4847,11 +4851,11 @@
         <v>139</v>
       </c>
       <c r="G75" s="9">
-        <f>B75+C75</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H75" s="10">
-        <f>G75/F75</f>
+        <f t="shared" ref="H75:H82" si="16">G75/F75</f>
         <v>0</v>
       </c>
       <c r="I75" s="11" t="s">
@@ -4869,7 +4873,7 @@
       <c r="B76" s="9"/>
       <c r="C76" s="9"/>
       <c r="D76" s="9">
-        <f>F76-G76</f>
+        <f t="shared" si="15"/>
         <v>105</v>
       </c>
       <c r="E76" s="9">
@@ -4879,11 +4883,11 @@
         <v>105</v>
       </c>
       <c r="G76" s="9">
-        <f>B76+C76</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H76" s="10">
-        <f>G76/F76</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I76" s="11" t="s">
@@ -4901,7 +4905,7 @@
       <c r="B77" s="9"/>
       <c r="C77" s="9"/>
       <c r="D77" s="9">
-        <f>F77-G77</f>
+        <f t="shared" si="15"/>
         <v>26</v>
       </c>
       <c r="E77" s="9"/>
@@ -4909,11 +4913,11 @@
         <v>26</v>
       </c>
       <c r="G77" s="9">
-        <f>B77+C77</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H77" s="10">
-        <f>G77/F77</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I77" s="11"/>
@@ -4929,7 +4933,7 @@
       <c r="B78" s="9"/>
       <c r="C78" s="9"/>
       <c r="D78" s="9">
-        <f>F78-G78</f>
+        <f t="shared" si="15"/>
         <v>158</v>
       </c>
       <c r="E78" s="9"/>
@@ -4937,11 +4941,11 @@
         <v>158</v>
       </c>
       <c r="G78" s="9">
-        <f>B78+C78</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H78" s="10">
-        <f>G78/F78</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
@@ -4959,7 +4963,7 @@
       <c r="B79" s="9"/>
       <c r="C79" s="9"/>
       <c r="D79" s="9">
-        <f>F79-G79</f>
+        <f t="shared" si="15"/>
         <v>46</v>
       </c>
       <c r="E79" s="9"/>
@@ -4967,11 +4971,11 @@
         <v>46</v>
       </c>
       <c r="G79" s="9">
-        <f>B79+C79</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H79" s="10">
-        <f>G79/F79</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I79" s="11" t="s">
@@ -4989,7 +4993,7 @@
       <c r="B80" s="9"/>
       <c r="C80" s="9"/>
       <c r="D80" s="9">
-        <f>F80-G80</f>
+        <f t="shared" si="15"/>
         <v>197</v>
       </c>
       <c r="E80" s="9">
@@ -4999,11 +5003,11 @@
         <v>197</v>
       </c>
       <c r="G80" s="9">
-        <f>B80+C80</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H80" s="10">
-        <f>G80/F80</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I80" s="11" t="s">
@@ -5021,7 +5025,7 @@
       <c r="B81" s="9"/>
       <c r="C81" s="9"/>
       <c r="D81" s="9">
-        <f>F81-G81</f>
+        <f t="shared" si="15"/>
         <v>57</v>
       </c>
       <c r="E81" s="9"/>
@@ -5029,11 +5033,11 @@
         <v>57</v>
       </c>
       <c r="G81" s="9">
-        <f>B81+C81</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H81" s="10">
-        <f>G81/F81</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I81" s="11"/>
@@ -5049,7 +5053,7 @@
       <c r="B82" s="9"/>
       <c r="C82" s="9"/>
       <c r="D82" s="9">
-        <f>F82-G82</f>
+        <f t="shared" si="15"/>
         <v>130</v>
       </c>
       <c r="E82" s="9"/>
@@ -5057,11 +5061,11 @@
         <v>130</v>
       </c>
       <c r="G82" s="9">
-        <f>B82+C82</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H82" s="10">
-        <f>G82/F82</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="I82" s="11" t="s">
@@ -5088,7 +5092,7 @@
         <v>0</v>
       </c>
       <c r="G83" s="9">
-        <f>B83+C83</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H83" s="10">
@@ -5107,7 +5111,7 @@
       <c r="B84" s="9"/>
       <c r="C84" s="9"/>
       <c r="D84" s="9">
-        <f>F84-G84</f>
+        <f t="shared" ref="D84:D93" si="17">F84-G84</f>
         <v>155</v>
       </c>
       <c r="E84" s="9"/>
@@ -5115,11 +5119,11 @@
         <v>155</v>
       </c>
       <c r="G84" s="9">
-        <f>B84+C84</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H84" s="10">
-        <f>G84/F84</f>
+        <f t="shared" ref="H84:H93" si="18">G84/F84</f>
         <v>0</v>
       </c>
       <c r="I84" s="11" t="s">
@@ -5137,7 +5141,7 @@
       <c r="B85" s="9"/>
       <c r="C85" s="9"/>
       <c r="D85" s="9">
-        <f>F85-G85</f>
+        <f t="shared" si="17"/>
         <v>90</v>
       </c>
       <c r="E85" s="9"/>
@@ -5145,11 +5149,11 @@
         <v>90</v>
       </c>
       <c r="G85" s="9">
-        <f>B85+C85</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H85" s="10">
-        <f>G85/F85</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I85" s="11"/>
@@ -5165,7 +5169,7 @@
       <c r="B86" s="9"/>
       <c r="C86" s="9"/>
       <c r="D86" s="9">
-        <f>F86-G86</f>
+        <f t="shared" si="17"/>
         <v>177</v>
       </c>
       <c r="E86" s="9">
@@ -5175,11 +5179,11 @@
         <v>177</v>
       </c>
       <c r="G86" s="9">
-        <f>B86+C86</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H86" s="10">
-        <f>G86/F86</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I86" s="11"/>
@@ -5195,7 +5199,7 @@
       <c r="B87" s="9"/>
       <c r="C87" s="9"/>
       <c r="D87" s="9">
-        <f>F87-G87</f>
+        <f t="shared" si="17"/>
         <v>12</v>
       </c>
       <c r="E87" s="9">
@@ -5205,11 +5209,11 @@
         <v>12</v>
       </c>
       <c r="G87" s="9">
-        <f>B87+C87</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H87" s="10">
-        <f>G87/F87</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I87" s="11"/>
@@ -5225,7 +5229,7 @@
       <c r="B88" s="9"/>
       <c r="C88" s="9"/>
       <c r="D88" s="9">
-        <f>F88-G88</f>
+        <f t="shared" si="17"/>
         <v>132</v>
       </c>
       <c r="E88" s="9"/>
@@ -5233,11 +5237,11 @@
         <v>132</v>
       </c>
       <c r="G88" s="9">
-        <f>B88+C88</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H88" s="10">
-        <f>G88/F88</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I88" s="11"/>
@@ -5253,7 +5257,7 @@
       <c r="B89" s="9"/>
       <c r="C89" s="9"/>
       <c r="D89" s="9">
-        <f>F89-G89</f>
+        <f t="shared" si="17"/>
         <v>82</v>
       </c>
       <c r="E89" s="9">
@@ -5263,11 +5267,11 @@
         <v>82</v>
       </c>
       <c r="G89" s="9">
-        <f>B89+C89</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H89" s="10">
-        <f>G89/F89</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I89" s="11"/>
@@ -5283,7 +5287,7 @@
       <c r="B90" s="9"/>
       <c r="C90" s="9"/>
       <c r="D90" s="9">
-        <f>F90-G90</f>
+        <f t="shared" si="17"/>
         <v>146</v>
       </c>
       <c r="E90" s="9">
@@ -5293,11 +5297,11 @@
         <v>146</v>
       </c>
       <c r="G90" s="9">
-        <f>B90+C90</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H90" s="10">
-        <f>G90/F90</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I90" s="11" t="s">
@@ -5315,7 +5319,7 @@
       <c r="B91" s="9"/>
       <c r="C91" s="9"/>
       <c r="D91" s="9">
-        <f>F91-G91</f>
+        <f t="shared" si="17"/>
         <v>77</v>
       </c>
       <c r="E91" s="9"/>
@@ -5323,11 +5327,11 @@
         <v>77</v>
       </c>
       <c r="G91" s="9">
-        <f>B91+C91</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H91" s="10">
-        <f>G91/F91</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I91" s="11"/>
@@ -5343,7 +5347,7 @@
       <c r="B92" s="9"/>
       <c r="C92" s="9"/>
       <c r="D92" s="9">
-        <f>F92-G92</f>
+        <f t="shared" si="17"/>
         <v>5</v>
       </c>
       <c r="E92" s="9"/>
@@ -5351,11 +5355,11 @@
         <v>5</v>
       </c>
       <c r="G92" s="9">
-        <f>B92+C92</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H92" s="10">
-        <f>G92/F92</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I92" s="11"/>
@@ -5371,7 +5375,7 @@
       <c r="B93" s="9"/>
       <c r="C93" s="9"/>
       <c r="D93" s="9">
-        <f>F93-G93</f>
+        <f t="shared" si="17"/>
         <v>67</v>
       </c>
       <c r="E93" s="9"/>
@@ -5379,11 +5383,11 @@
         <v>67</v>
       </c>
       <c r="G93" s="9">
-        <f>B93+C93</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H93" s="10">
-        <f>G93/F93</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I93" s="11"/>
@@ -5399,7 +5403,7 @@
       <c r="B94" s="9"/>
       <c r="C94" s="9"/>
       <c r="D94" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>224</v>
       </c>
       <c r="E94" s="9">
@@ -5409,11 +5413,11 @@
         <v>224</v>
       </c>
       <c r="G94" s="9">
-        <f>B94+C94</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H94" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I94" s="11"/>
@@ -5429,7 +5433,7 @@
       <c r="B95" s="9"/>
       <c r="C95" s="9"/>
       <c r="D95" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="E95" s="9">
@@ -5439,11 +5443,11 @@
         <v>53</v>
       </c>
       <c r="G95" s="9">
-        <f>B95+C95</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H95" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I95" s="11"/>
@@ -5459,7 +5463,7 @@
       <c r="B96" s="9"/>
       <c r="C96" s="9"/>
       <c r="D96" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>33</v>
       </c>
       <c r="E96" s="9"/>
@@ -5467,11 +5471,11 @@
         <v>33</v>
       </c>
       <c r="G96" s="9">
-        <f>B96+C96</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H96" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I96" s="11"/>
@@ -5487,7 +5491,7 @@
       <c r="B97" s="9"/>
       <c r="C97" s="9"/>
       <c r="D97" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>51</v>
       </c>
       <c r="E97" s="9"/>
@@ -5495,11 +5499,11 @@
         <v>51</v>
       </c>
       <c r="G97" s="9">
-        <f>B97+C97</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H97" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I97" s="11"/>
@@ -5515,7 +5519,7 @@
       <c r="B98" s="9"/>
       <c r="C98" s="9"/>
       <c r="D98" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
       <c r="E98" s="9"/>
@@ -5523,11 +5527,11 @@
         <v>9</v>
       </c>
       <c r="G98" s="9">
-        <f>B98+C98</f>
+        <f t="shared" ref="G98:G129" si="19">B98+C98</f>
         <v>0</v>
       </c>
       <c r="H98" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I98" s="11"/>
@@ -5543,7 +5547,7 @@
       <c r="B99" s="9"/>
       <c r="C99" s="9"/>
       <c r="D99" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="E99" s="9">
@@ -5553,11 +5557,11 @@
         <v>169</v>
       </c>
       <c r="G99" s="9">
-        <f>B99+C99</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H99" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I99" s="11" t="s">
@@ -5584,7 +5588,7 @@
         <v>0</v>
       </c>
       <c r="G100" s="9">
-        <f>B100+C100</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H100" s="10">
@@ -5612,7 +5616,7 @@
         <v>0</v>
       </c>
       <c r="G101" s="9">
-        <f>B101+C101</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H101" s="10">
@@ -5642,7 +5646,7 @@
         <v>0</v>
       </c>
       <c r="G102" s="9">
-        <f>B102+C102</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H102" s="10">
@@ -5670,7 +5674,7 @@
         <v>0</v>
       </c>
       <c r="G103" s="9">
-        <f>B103+C103</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H103" s="10">
@@ -5689,7 +5693,7 @@
       <c r="B104" s="9"/>
       <c r="C104" s="9"/>
       <c r="D104" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>29</v>
       </c>
       <c r="E104" s="9"/>
@@ -5697,11 +5701,11 @@
         <v>29</v>
       </c>
       <c r="G104" s="9">
-        <f>B104+C104</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H104" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I104" s="11"/>
@@ -5717,7 +5721,7 @@
       <c r="B105" s="9"/>
       <c r="C105" s="9"/>
       <c r="D105" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E105" s="9">
@@ -5727,11 +5731,11 @@
         <v>76</v>
       </c>
       <c r="G105" s="9">
-        <f>B105+C105</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H105" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
@@ -5758,7 +5762,7 @@
         <v>0</v>
       </c>
       <c r="G106" s="9">
-        <f>B106+C106</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H106" s="10">
@@ -5786,7 +5790,7 @@
         <v>0</v>
       </c>
       <c r="G107" s="9">
-        <f>B107+C107</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H107" s="10">
@@ -5805,7 +5809,7 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>232</v>
       </c>
       <c r="E108" s="9"/>
@@ -5813,11 +5817,11 @@
         <v>232</v>
       </c>
       <c r="G108" s="9">
-        <f>B108+C108</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H108" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I108" s="11" t="s">
@@ -5844,7 +5848,7 @@
         <v>0</v>
       </c>
       <c r="G109" s="9">
-        <f>B109+C109</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H109" s="10">
@@ -5872,7 +5876,7 @@
         <v>0</v>
       </c>
       <c r="G110" s="9">
-        <f>B110+C110</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H110" s="10">
@@ -5900,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="G111" s="9">
-        <f>B111+C111</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H111" s="10">
@@ -5919,7 +5923,7 @@
       <c r="B112" s="9"/>
       <c r="C112" s="9"/>
       <c r="D112" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>142</v>
       </c>
       <c r="E112" s="9">
@@ -5929,11 +5933,11 @@
         <v>142</v>
       </c>
       <c r="G112" s="9">
-        <f>B112+C112</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H112" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I112" s="11" t="s">
@@ -5951,7 +5955,7 @@
       <c r="B113" s="9"/>
       <c r="C113" s="9"/>
       <c r="D113" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>166</v>
       </c>
       <c r="E113" s="9">
@@ -5961,11 +5965,11 @@
         <v>166</v>
       </c>
       <c r="G113" s="9">
-        <f>B113+C113</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H113" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I113" s="11" t="s">
@@ -5983,7 +5987,7 @@
       <c r="B114" s="9"/>
       <c r="C114" s="9"/>
       <c r="D114" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="E114" s="9"/>
@@ -5991,11 +5995,11 @@
         <v>13</v>
       </c>
       <c r="G114" s="9">
-        <f>B114+C114</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H114" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I114" s="11" t="s">
@@ -6013,7 +6017,7 @@
       <c r="B115" s="9"/>
       <c r="C115" s="9"/>
       <c r="D115" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>52</v>
       </c>
       <c r="E115" s="9"/>
@@ -6021,14 +6025,16 @@
         <v>52</v>
       </c>
       <c r="G115" s="9">
-        <f>B115+C115</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H115" s="10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I115" s="11"/>
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I115" s="11" t="s">
+        <v>13</v>
+      </c>
       <c r="J115" s="11"/>
       <c r="K115" s="11" t="s">
         <v>14</v>
@@ -6050,7 +6056,7 @@
         <v>0</v>
       </c>
       <c r="G116" s="9">
-        <f>B116+C116</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H116" s="10">
@@ -6069,7 +6075,7 @@
       <c r="B117" s="9"/>
       <c r="C117" s="9"/>
       <c r="D117" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>60</v>
       </c>
       <c r="E117" s="9">
@@ -6079,11 +6085,11 @@
         <v>60</v>
       </c>
       <c r="G117" s="9">
-        <f>B117+C117</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H117" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I117" s="11"/>
@@ -6099,7 +6105,7 @@
       <c r="B118" s="9"/>
       <c r="C118" s="9"/>
       <c r="D118" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>48</v>
       </c>
       <c r="E118" s="9">
@@ -6109,11 +6115,11 @@
         <v>48</v>
       </c>
       <c r="G118" s="9">
-        <f>B118+C118</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H118" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I118" s="11"/>
@@ -6129,7 +6135,7 @@
       <c r="B119" s="9"/>
       <c r="C119" s="9"/>
       <c r="D119" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>50</v>
       </c>
       <c r="E119" s="9"/>
@@ -6137,11 +6143,11 @@
         <v>50</v>
       </c>
       <c r="G119" s="9">
-        <f>B119+C119</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H119" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I119" s="11"/>
@@ -6166,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="G120" s="9">
-        <f>B120+C120</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H120" s="10">
@@ -6185,7 +6191,7 @@
       <c r="B121" s="9"/>
       <c r="C121" s="9"/>
       <c r="D121" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>40</v>
       </c>
       <c r="E121" s="9">
@@ -6195,11 +6201,11 @@
         <v>40</v>
       </c>
       <c r="G121" s="9">
-        <f>B121+C121</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H121" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I121" s="11" t="s">
@@ -6217,7 +6223,7 @@
       <c r="B122" s="9"/>
       <c r="C122" s="9"/>
       <c r="D122" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>56</v>
       </c>
       <c r="E122" s="9"/>
@@ -6225,11 +6231,11 @@
         <v>56</v>
       </c>
       <c r="G122" s="9">
-        <f>B122+C122</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H122" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I122" s="11"/>
@@ -6245,7 +6251,7 @@
       <c r="B123" s="9"/>
       <c r="C123" s="9"/>
       <c r="D123" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
       <c r="E123" s="9"/>
@@ -6253,11 +6259,11 @@
         <v>11</v>
       </c>
       <c r="G123" s="9">
-        <f>B123+C123</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H123" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I123" s="11"/>
@@ -6273,7 +6279,7 @@
       <c r="B124" s="9"/>
       <c r="C124" s="9"/>
       <c r="D124" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>70</v>
       </c>
       <c r="E124" s="9"/>
@@ -6281,11 +6287,11 @@
         <v>70</v>
       </c>
       <c r="G124" s="9">
-        <f>B124+C124</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H124" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I124" s="11" t="s">
@@ -6303,7 +6309,7 @@
       <c r="B125" s="9"/>
       <c r="C125" s="9"/>
       <c r="D125" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2</v>
       </c>
       <c r="E125" s="9"/>
@@ -6311,11 +6317,11 @@
         <v>2</v>
       </c>
       <c r="G125" s="9">
-        <f>B125+C125</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H125" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I125" s="11"/>
@@ -6331,7 +6337,7 @@
       <c r="B126" s="9"/>
       <c r="C126" s="9"/>
       <c r="D126" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>76</v>
       </c>
       <c r="E126" s="9">
@@ -6341,11 +6347,11 @@
         <v>76</v>
       </c>
       <c r="G126" s="9">
-        <f>B126+C126</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H126" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I126" s="11"/>
@@ -6361,7 +6367,7 @@
       <c r="B127" s="9"/>
       <c r="C127" s="9"/>
       <c r="D127" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>3</v>
       </c>
       <c r="E127" s="9"/>
@@ -6369,11 +6375,11 @@
         <v>3</v>
       </c>
       <c r="G127" s="9">
-        <f>B127+C127</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H127" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I127" s="11"/>
@@ -6398,7 +6404,7 @@
         <v>0</v>
       </c>
       <c r="G128" s="9">
-        <f>B128+C128</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H128" s="10">
@@ -6417,7 +6423,7 @@
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
       <c r="D129" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>28</v>
       </c>
       <c r="E129" s="9"/>
@@ -6425,11 +6431,11 @@
         <v>28</v>
       </c>
       <c r="G129" s="9">
-        <f>B129+C129</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="H129" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I129" s="11"/>
@@ -6454,7 +6460,7 @@
         <v>0</v>
       </c>
       <c r="G130" s="9">
-        <f>B130+C130</f>
+        <f t="shared" ref="G130:G145" si="20">B130+C130</f>
         <v>0</v>
       </c>
       <c r="H130" s="10">
@@ -6473,7 +6479,7 @@
       <c r="B131" s="9"/>
       <c r="C131" s="9"/>
       <c r="D131" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>53</v>
       </c>
       <c r="E131" s="9">
@@ -6483,11 +6489,11 @@
         <v>53</v>
       </c>
       <c r="G131" s="9">
-        <f>B131+C131</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H131" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I131" s="11" t="s">
@@ -6505,7 +6511,7 @@
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
       <c r="D132" s="9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="E132" s="9"/>
@@ -6513,11 +6519,11 @@
         <v>107</v>
       </c>
       <c r="G132" s="9">
-        <f>B132+C132</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H132" s="10">
-        <f t="shared" ref="H132:H190" si="4">G132/F132</f>
+        <f t="shared" ref="H132:H190" si="21">G132/F132</f>
         <v>0</v>
       </c>
       <c r="I132" s="11"/>
@@ -6542,7 +6548,7 @@
         <v>0</v>
       </c>
       <c r="G133" s="9">
-        <f>B133+C133</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H133" s="10">
@@ -6570,7 +6576,7 @@
         <v>0</v>
       </c>
       <c r="G134" s="9">
-        <f>B134+C134</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H134" s="10">
@@ -6589,7 +6595,7 @@
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
       <c r="D135" s="9">
-        <f t="shared" ref="D135:D191" si="5">F135-G135</f>
+        <f t="shared" ref="D135:D191" si="22">F135-G135</f>
         <v>166</v>
       </c>
       <c r="E135" s="9">
@@ -6599,11 +6605,11 @@
         <v>166</v>
       </c>
       <c r="G135" s="9">
-        <f>B135+C135</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H135" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I135" s="11" t="s">
@@ -6630,7 +6636,7 @@
         <v>0</v>
       </c>
       <c r="G136" s="9">
-        <f>B136+C136</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H136" s="10">
@@ -6658,7 +6664,7 @@
         <v>0</v>
       </c>
       <c r="G137" s="9">
-        <f>B137+C137</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H137" s="10">
@@ -6677,7 +6683,7 @@
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
       <c r="D138" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="E138" s="9"/>
@@ -6685,11 +6691,11 @@
         <v>133</v>
       </c>
       <c r="G138" s="9">
-        <f>B138+C138</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H138" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I138" s="11" t="s">
@@ -6716,7 +6722,7 @@
         <v>0</v>
       </c>
       <c r="G139" s="9">
-        <f>B139+C139</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H139" s="10">
@@ -6744,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="G140" s="9">
-        <f>B140+C140</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H140" s="10">
@@ -6763,7 +6769,7 @@
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
       <c r="D141" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>59</v>
       </c>
       <c r="E141" s="9"/>
@@ -6771,11 +6777,11 @@
         <v>59</v>
       </c>
       <c r="G141" s="9">
-        <f>B141+C141</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H141" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I141" s="11" t="s">
@@ -6802,7 +6808,7 @@
         <v>0</v>
       </c>
       <c r="G142" s="9">
-        <f>B142+C142</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H142" s="10">
@@ -6830,7 +6836,7 @@
         <v>0</v>
       </c>
       <c r="G143" s="9">
-        <f>B143+C143</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H143" s="10">
@@ -6849,7 +6855,7 @@
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
       <c r="D144" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="E144" s="9"/>
@@ -6857,11 +6863,11 @@
         <v>133</v>
       </c>
       <c r="G144" s="9">
-        <f>B144+C144</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H144" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I144" s="11" t="s">
@@ -6886,7 +6892,7 @@
         <v>0</v>
       </c>
       <c r="G145" s="9">
-        <f>B145+C145</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H145" s="10">
@@ -6930,7 +6936,7 @@
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
       <c r="D147" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>172</v>
       </c>
       <c r="E147" s="9"/>
@@ -6938,11 +6944,11 @@
         <v>172</v>
       </c>
       <c r="G147" s="9">
-        <f>B147+C147</f>
+        <f t="shared" ref="G147:G178" si="23">B147+C147</f>
         <v>0</v>
       </c>
       <c r="H147" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I147" s="11" t="s">
@@ -6960,7 +6966,7 @@
       <c r="B148" s="9"/>
       <c r="C148" s="9"/>
       <c r="D148" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>148</v>
       </c>
       <c r="E148" s="9"/>
@@ -6968,11 +6974,11 @@
         <v>148</v>
       </c>
       <c r="G148" s="9">
-        <f>B148+C148</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H148" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I148" s="11" t="s">
@@ -6999,7 +7005,7 @@
         <v>0</v>
       </c>
       <c r="G149" s="9">
-        <f>B149+C149</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H149" s="10">
@@ -7027,7 +7033,7 @@
         <v>0</v>
       </c>
       <c r="G150" s="9">
-        <f>B150+C150</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H150" s="10">
@@ -7055,7 +7061,7 @@
         <v>0</v>
       </c>
       <c r="G151" s="9">
-        <f>B151+C151</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H151" s="10">
@@ -7074,7 +7080,7 @@
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
       <c r="D152" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>174</v>
       </c>
       <c r="E152" s="9"/>
@@ -7082,11 +7088,11 @@
         <v>174</v>
       </c>
       <c r="G152" s="9">
-        <f>B152+C152</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H152" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I152" s="11" t="s">
@@ -7104,7 +7110,7 @@
       <c r="B153" s="9"/>
       <c r="C153" s="9"/>
       <c r="D153" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>147</v>
       </c>
       <c r="E153" s="9"/>
@@ -7112,11 +7118,11 @@
         <v>147</v>
       </c>
       <c r="G153" s="9">
-        <f>B153+C153</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H153" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I153" s="11" t="s">
@@ -7134,7 +7140,7 @@
       <c r="B154" s="9"/>
       <c r="C154" s="9"/>
       <c r="D154" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>11</v>
       </c>
       <c r="E154" s="9"/>
@@ -7142,11 +7148,11 @@
         <v>11</v>
       </c>
       <c r="G154" s="9">
-        <f>B154+C154</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H154" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I154" s="11"/>
@@ -7162,7 +7168,7 @@
       <c r="B155" s="9"/>
       <c r="C155" s="9"/>
       <c r="D155" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>220</v>
       </c>
       <c r="E155" s="9">
@@ -7172,11 +7178,11 @@
         <v>220</v>
       </c>
       <c r="G155" s="9">
-        <f>B155+C155</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H155" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I155" s="11" t="s">
@@ -7194,7 +7200,7 @@
       <c r="B156" s="9"/>
       <c r="C156" s="9"/>
       <c r="D156" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>63</v>
       </c>
       <c r="E156" s="9"/>
@@ -7202,11 +7208,11 @@
         <v>63</v>
       </c>
       <c r="G156" s="9">
-        <f>B156+C156</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H156" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I156" s="11"/>
@@ -7231,7 +7237,7 @@
         <v>0</v>
       </c>
       <c r="G157" s="9">
-        <f>B157+C157</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H157" s="10">
@@ -7250,7 +7256,7 @@
       <c r="B158" s="9"/>
       <c r="C158" s="9"/>
       <c r="D158" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>246</v>
       </c>
       <c r="E158" s="9"/>
@@ -7258,11 +7264,11 @@
         <v>246</v>
       </c>
       <c r="G158" s="9">
-        <f>B158+C158</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H158" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I158" s="11" t="s">
@@ -7280,7 +7286,7 @@
       <c r="B159" s="9"/>
       <c r="C159" s="9"/>
       <c r="D159" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>256</v>
       </c>
       <c r="E159" s="9"/>
@@ -7288,11 +7294,11 @@
         <v>256</v>
       </c>
       <c r="G159" s="9">
-        <f>B159+C159</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H159" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I159" s="11" t="s">
@@ -7310,7 +7316,7 @@
       <c r="B160" s="9"/>
       <c r="C160" s="9"/>
       <c r="D160" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>57</v>
       </c>
       <c r="E160" s="9"/>
@@ -7318,11 +7324,11 @@
         <v>57</v>
       </c>
       <c r="G160" s="9">
-        <f>B160+C160</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H160" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I160" s="11"/>
@@ -7347,7 +7353,7 @@
         <v>0</v>
       </c>
       <c r="G161" s="9">
-        <f>B161+C161</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H161" s="10">
@@ -7366,7 +7372,7 @@
       <c r="B162" s="9"/>
       <c r="C162" s="9"/>
       <c r="D162" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>119</v>
       </c>
       <c r="E162" s="9"/>
@@ -7374,11 +7380,11 @@
         <v>119</v>
       </c>
       <c r="G162" s="9">
-        <f>B162+C162</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H162" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I162" s="11" t="s">
@@ -7396,7 +7402,7 @@
       <c r="B163" s="9"/>
       <c r="C163" s="9"/>
       <c r="D163" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>187</v>
       </c>
       <c r="E163" s="9">
@@ -7406,11 +7412,11 @@
         <v>187</v>
       </c>
       <c r="G163" s="9">
-        <f>B163+C163</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H163" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I163" s="11"/>
@@ -7435,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="G164" s="9">
-        <f>B164+C164</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H164" s="10">
@@ -7463,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="G165" s="9">
-        <f>B165+C165</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H165" s="10">
@@ -7491,7 +7497,7 @@
         <v>0</v>
       </c>
       <c r="G166" s="9">
-        <f>B166+C166</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H166" s="10">
@@ -7519,7 +7525,7 @@
         <v>0</v>
       </c>
       <c r="G167" s="9">
-        <f>B167+C167</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H167" s="10">
@@ -7547,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="G168" s="9">
-        <f>B168+C168</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H168" s="10">
@@ -7575,7 +7581,7 @@
         <v>0</v>
       </c>
       <c r="G169" s="9">
-        <f>B169+C169</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H169" s="10">
@@ -7603,7 +7609,7 @@
         <v>0</v>
       </c>
       <c r="G170" s="9">
-        <f>B170+C170</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H170" s="10">
@@ -7631,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="G171" s="9">
-        <f>B171+C171</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H171" s="10">
@@ -7659,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="G172" s="9">
-        <f>B172+C172</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H172" s="10">
@@ -7687,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="G173" s="9">
-        <f>B173+C173</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H173" s="10">
@@ -7715,7 +7721,7 @@
         <v>0</v>
       </c>
       <c r="G174" s="9">
-        <f>B174+C174</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H174" s="10">
@@ -7734,7 +7740,7 @@
       <c r="B175" s="9"/>
       <c r="C175" s="9"/>
       <c r="D175" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>92</v>
       </c>
       <c r="E175" s="9"/>
@@ -7742,11 +7748,11 @@
         <v>92</v>
       </c>
       <c r="G175" s="9">
-        <f>B175+C175</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H175" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I175" s="11"/>
@@ -7771,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="G176" s="9">
-        <f>B176+C176</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H176" s="10">
@@ -7790,7 +7796,7 @@
       <c r="B177" s="9"/>
       <c r="C177" s="9"/>
       <c r="D177" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>97</v>
       </c>
       <c r="E177" s="9">
@@ -7800,11 +7806,11 @@
         <v>97</v>
       </c>
       <c r="G177" s="9">
-        <f>B177+C177</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H177" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I177" s="11"/>
@@ -7829,7 +7835,7 @@
         <v>0</v>
       </c>
       <c r="G178" s="9">
-        <f>B178+C178</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H178" s="10">
@@ -7857,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="G179" s="9">
-        <f>B179+C179</f>
+        <f t="shared" ref="G179:G210" si="24">B179+C179</f>
         <v>0</v>
       </c>
       <c r="H179" s="10">
@@ -7876,7 +7882,7 @@
       <c r="B180" s="9"/>
       <c r="C180" s="9"/>
       <c r="D180" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="E180" s="9"/>
@@ -7884,11 +7890,11 @@
         <v>22</v>
       </c>
       <c r="G180" s="9">
-        <f>B180+C180</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H180" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I180" s="11"/>
@@ -7913,7 +7919,7 @@
         <v>0</v>
       </c>
       <c r="G181" s="9">
-        <f>B181+C181</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H181" s="10">
@@ -7941,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="G182" s="9">
-        <f>B182+C182</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H182" s="10">
@@ -7969,7 +7975,7 @@
         <v>0</v>
       </c>
       <c r="G183" s="9">
-        <f>B183+C183</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H183" s="10">
@@ -7988,7 +7994,7 @@
       <c r="B184" s="9"/>
       <c r="C184" s="9"/>
       <c r="D184" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>133</v>
       </c>
       <c r="E184" s="9">
@@ -7998,11 +8004,11 @@
         <v>133</v>
       </c>
       <c r="G184" s="9">
-        <f>B184+C184</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H184" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I184" s="11" t="s">
@@ -8029,7 +8035,7 @@
         <v>0</v>
       </c>
       <c r="G185" s="9">
-        <f>B185+C185</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H185" s="10">
@@ -8048,7 +8054,7 @@
       <c r="B186" s="9"/>
       <c r="C186" s="9"/>
       <c r="D186" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>83</v>
       </c>
       <c r="E186" s="9"/>
@@ -8056,11 +8062,11 @@
         <v>83</v>
       </c>
       <c r="G186" s="9">
-        <f>B186+C186</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H186" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I186" s="11" t="s">
@@ -8078,7 +8084,7 @@
       <c r="B187" s="9"/>
       <c r="C187" s="9"/>
       <c r="D187" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>111</v>
       </c>
       <c r="E187" s="9"/>
@@ -8086,11 +8092,11 @@
         <v>111</v>
       </c>
       <c r="G187" s="9">
-        <f>B187+C187</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H187" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I187" s="11" t="s">
@@ -8117,7 +8123,7 @@
         <v>0</v>
       </c>
       <c r="G188" s="9">
-        <f>B188+C188</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H188" s="10">
@@ -8147,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="G189" s="9">
-        <f>B189+C189</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H189" s="10">
@@ -8166,7 +8172,7 @@
       <c r="B190" s="9"/>
       <c r="C190" s="9"/>
       <c r="D190" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>89</v>
       </c>
       <c r="E190" s="9">
@@ -8176,11 +8182,11 @@
         <v>89</v>
       </c>
       <c r="G190" s="9">
-        <f>B190+C190</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H190" s="10">
-        <f t="shared" si="4"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="I190" s="11" t="s">
@@ -8198,7 +8204,7 @@
       <c r="B191" s="9"/>
       <c r="C191" s="9"/>
       <c r="D191" s="9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="22"/>
         <v>87</v>
       </c>
       <c r="E191" s="9"/>
@@ -8206,11 +8212,11 @@
         <v>87</v>
       </c>
       <c r="G191" s="9">
-        <f>B191+C191</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H191" s="10">
-        <f t="shared" ref="H191:H253" si="6">G191/F191</f>
+        <f t="shared" ref="H191:H253" si="25">G191/F191</f>
         <v>0</v>
       </c>
       <c r="I191" s="11"/>
@@ -8235,7 +8241,7 @@
         <v>0</v>
       </c>
       <c r="G192" s="9">
-        <f>B192+C192</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H192" s="10">
@@ -8263,7 +8269,7 @@
         <v>0</v>
       </c>
       <c r="G193" s="9">
-        <f>B193+C193</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H193" s="10">
@@ -8282,7 +8288,7 @@
       <c r="B194" s="9"/>
       <c r="C194" s="9"/>
       <c r="D194" s="9">
-        <f t="shared" ref="D194:D253" si="7">F194-G194</f>
+        <f t="shared" ref="D194:D253" si="26">F194-G194</f>
         <v>139</v>
       </c>
       <c r="E194" s="9"/>
@@ -8290,11 +8296,11 @@
         <v>139</v>
       </c>
       <c r="G194" s="9">
-        <f>B194+C194</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H194" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I194" s="11" t="s">
@@ -8321,7 +8327,7 @@
         <v>0</v>
       </c>
       <c r="G195" s="9">
-        <f>B195+C195</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H195" s="10">
@@ -8349,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="G196" s="9">
-        <f>B196+C196</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H196" s="10">
@@ -8377,7 +8383,7 @@
         <v>0</v>
       </c>
       <c r="G197" s="9">
-        <f>B197+C197</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H197" s="10">
@@ -8396,7 +8402,7 @@
       <c r="B198" s="9"/>
       <c r="C198" s="9"/>
       <c r="D198" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="E198" s="9"/>
@@ -8404,11 +8410,11 @@
         <v>34</v>
       </c>
       <c r="G198" s="9">
-        <f>B198+C198</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H198" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I198" s="11"/>
@@ -8433,7 +8439,7 @@
         <v>0</v>
       </c>
       <c r="G199" s="9">
-        <f>B199+C199</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H199" s="10">
@@ -8461,7 +8467,7 @@
         <v>0</v>
       </c>
       <c r="G200" s="9">
-        <f>B200+C200</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H200" s="10">
@@ -8489,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="G201" s="9">
-        <f>B201+C201</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H201" s="10">
@@ -8517,7 +8523,7 @@
         <v>0</v>
       </c>
       <c r="G202" s="9">
-        <f>B202+C202</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H202" s="10">
@@ -8545,7 +8551,7 @@
         <v>0</v>
       </c>
       <c r="G203" s="9">
-        <f>B203+C203</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H203" s="10">
@@ -8564,7 +8570,7 @@
       <c r="B204" s="9"/>
       <c r="C204" s="9"/>
       <c r="D204" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>91</v>
       </c>
       <c r="E204" s="9">
@@ -8574,11 +8580,11 @@
         <v>91</v>
       </c>
       <c r="G204" s="9">
-        <f>B204+C204</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H204" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I204" s="11"/>
@@ -8594,7 +8600,7 @@
       <c r="B205" s="9"/>
       <c r="C205" s="9"/>
       <c r="D205" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>116</v>
       </c>
       <c r="E205" s="9"/>
@@ -8602,11 +8608,11 @@
         <v>116</v>
       </c>
       <c r="G205" s="9">
-        <f>B205+C205</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H205" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I205" s="11"/>
@@ -8631,7 +8637,7 @@
         <v>0</v>
       </c>
       <c r="G206" s="9">
-        <f>B206+C206</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H206" s="10">
@@ -8659,7 +8665,7 @@
         <v>0</v>
       </c>
       <c r="G207" s="9">
-        <f>B207+C207</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H207" s="10">
@@ -8678,7 +8684,7 @@
       <c r="B208" s="9"/>
       <c r="C208" s="9"/>
       <c r="D208" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>39</v>
       </c>
       <c r="E208" s="9"/>
@@ -8686,11 +8692,11 @@
         <v>39</v>
       </c>
       <c r="G208" s="9">
-        <f>B208+C208</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H208" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I208" s="11" t="s">
@@ -8717,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="G209" s="9">
-        <f>B209+C209</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H209" s="10">
@@ -8745,7 +8751,7 @@
         <v>0</v>
       </c>
       <c r="G210" s="9">
-        <f>B210+C210</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="H210" s="10">
@@ -8773,7 +8779,7 @@
         <v>0</v>
       </c>
       <c r="G211" s="9">
-        <f>B211+C211</f>
+        <f t="shared" ref="G211:G242" si="27">B211+C211</f>
         <v>0</v>
       </c>
       <c r="H211" s="10">
@@ -8801,7 +8807,7 @@
         <v>0</v>
       </c>
       <c r="G212" s="9">
-        <f>B212+C212</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H212" s="10">
@@ -8820,7 +8826,7 @@
       <c r="B213" s="9"/>
       <c r="C213" s="9"/>
       <c r="D213" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>55</v>
       </c>
       <c r="E213" s="9"/>
@@ -8828,11 +8834,11 @@
         <v>55</v>
       </c>
       <c r="G213" s="9">
-        <f>B213+C213</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H213" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I213" s="11" t="s">
@@ -8850,7 +8856,7 @@
       <c r="B214" s="9"/>
       <c r="C214" s="9"/>
       <c r="D214" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>100</v>
       </c>
       <c r="E214" s="9">
@@ -8860,11 +8866,11 @@
         <v>100</v>
       </c>
       <c r="G214" s="9">
-        <f>B214+C214</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H214" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I214" s="11" t="s">
@@ -8891,7 +8897,7 @@
         <v>0</v>
       </c>
       <c r="G215" s="9">
-        <f>B215+C215</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H215" s="10">
@@ -8919,7 +8925,7 @@
         <v>0</v>
       </c>
       <c r="G216" s="9">
-        <f>B216+C216</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H216" s="10">
@@ -8938,7 +8944,7 @@
       <c r="B217" s="9"/>
       <c r="C217" s="9"/>
       <c r="D217" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>108</v>
       </c>
       <c r="E217" s="9">
@@ -8948,11 +8954,11 @@
         <v>108</v>
       </c>
       <c r="G217" s="9">
-        <f>B217+C217</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H217" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I217" s="11" t="s">
@@ -8970,7 +8976,7 @@
       <c r="B218" s="9"/>
       <c r="C218" s="9"/>
       <c r="D218" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>30</v>
       </c>
       <c r="E218" s="9"/>
@@ -8978,11 +8984,11 @@
         <v>30</v>
       </c>
       <c r="G218" s="9">
-        <f>B218+C218</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H218" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I218" s="11" t="s">
@@ -9000,7 +9006,7 @@
       <c r="B219" s="9"/>
       <c r="C219" s="9"/>
       <c r="D219" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>73</v>
       </c>
       <c r="E219" s="9">
@@ -9010,11 +9016,11 @@
         <v>73</v>
       </c>
       <c r="G219" s="9">
-        <f>B219+C219</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H219" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I219" s="11" t="s">
@@ -9032,7 +9038,7 @@
       <c r="B220" s="9"/>
       <c r="C220" s="9"/>
       <c r="D220" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>25</v>
       </c>
       <c r="E220" s="9"/>
@@ -9040,11 +9046,11 @@
         <v>25</v>
       </c>
       <c r="G220" s="9">
-        <f>B220+C220</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H220" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I220" s="11" t="s">
@@ -9062,7 +9068,7 @@
       <c r="B221" s="9"/>
       <c r="C221" s="9"/>
       <c r="D221" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>191</v>
       </c>
       <c r="E221" s="9"/>
@@ -9070,11 +9076,11 @@
         <v>191</v>
       </c>
       <c r="G221" s="9">
-        <f>B221+C221</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H221" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I221" s="11" t="s">
@@ -9101,7 +9107,7 @@
         <v>0</v>
       </c>
       <c r="G222" s="9">
-        <f>B222+C222</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H222" s="10">
@@ -9129,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="G223" s="9">
-        <f>B223+C223</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H223" s="10">
@@ -9148,7 +9154,7 @@
       <c r="B224" s="9"/>
       <c r="C224" s="9"/>
       <c r="D224" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="E224" s="9">
@@ -9158,11 +9164,11 @@
         <v>61</v>
       </c>
       <c r="G224" s="9">
-        <f>B224+C224</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H224" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I224" s="11" t="s">
@@ -9189,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="G225" s="9">
-        <f>B225+C225</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H225" s="10">
@@ -9208,7 +9214,7 @@
       <c r="B226" s="9"/>
       <c r="C226" s="9"/>
       <c r="D226" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>20</v>
       </c>
       <c r="E226" s="9"/>
@@ -9216,11 +9222,11 @@
         <v>20</v>
       </c>
       <c r="G226" s="9">
-        <f>B226+C226</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H226" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I226" s="11" t="s">
@@ -9238,7 +9244,7 @@
       <c r="B227" s="9"/>
       <c r="C227" s="9"/>
       <c r="D227" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>67</v>
       </c>
       <c r="E227" s="9">
@@ -9248,11 +9254,11 @@
         <v>67</v>
       </c>
       <c r="G227" s="9">
-        <f>B227+C227</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H227" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I227" s="11" t="s">
@@ -9279,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="G228" s="9">
-        <f>B228+C228</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H228" s="10">
@@ -9309,7 +9315,7 @@
         <v>0</v>
       </c>
       <c r="G229" s="9">
-        <f>B229+C229</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H229" s="10">
@@ -9330,7 +9336,7 @@
       <c r="B230" s="9"/>
       <c r="C230" s="9"/>
       <c r="D230" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>126</v>
       </c>
       <c r="E230" s="9">
@@ -9340,11 +9346,11 @@
         <v>126</v>
       </c>
       <c r="G230" s="9">
-        <f>B230+C230</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H230" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I230" s="11" t="s">
@@ -9362,7 +9368,7 @@
       <c r="B231" s="9"/>
       <c r="C231" s="9"/>
       <c r="D231" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="E231" s="9"/>
@@ -9370,11 +9376,11 @@
         <v>22</v>
       </c>
       <c r="G231" s="9">
-        <f>B231+C231</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H231" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I231" s="11" t="s">
@@ -9401,7 +9407,7 @@
         <v>0</v>
       </c>
       <c r="G232" s="9">
-        <f>B232+C232</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H232" s="10">
@@ -9431,7 +9437,7 @@
         <v>0</v>
       </c>
       <c r="G233" s="9">
-        <f>B233+C233</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H233" s="10">
@@ -9460,7 +9466,7 @@
         <v>1</v>
       </c>
       <c r="G234" s="9">
-        <f>B234+C234</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H234" s="10">
@@ -9489,7 +9495,7 @@
         <v>0</v>
       </c>
       <c r="G235" s="9">
-        <f>B235+C235</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H235" s="10">
@@ -9517,7 +9523,7 @@
         <v>0</v>
       </c>
       <c r="G236" s="9">
-        <f>B236+C236</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H236" s="10">
@@ -9547,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="G237" s="9">
-        <f>B237+C237</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H237" s="10">
@@ -9577,7 +9583,7 @@
         <v>0</v>
       </c>
       <c r="G238" s="9">
-        <f>B238+C238</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H238" s="10">
@@ -9607,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="G239" s="9">
-        <f>B239+C239</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H239" s="10">
@@ -9628,7 +9634,7 @@
       <c r="B240" s="9"/>
       <c r="C240" s="9"/>
       <c r="D240" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>22</v>
       </c>
       <c r="E240" s="9"/>
@@ -9636,11 +9642,11 @@
         <v>22</v>
       </c>
       <c r="G240" s="9">
-        <f>B240+C240</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H240" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I240" s="11" t="s">
@@ -9667,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="G241" s="9">
-        <f>B241+C241</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H241" s="10">
@@ -9688,7 +9694,7 @@
       <c r="B242" s="9"/>
       <c r="C242" s="9"/>
       <c r="D242" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>107</v>
       </c>
       <c r="E242" s="9"/>
@@ -9696,11 +9702,11 @@
         <v>107</v>
       </c>
       <c r="G242" s="9">
-        <f>B242+C242</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="H242" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I242" s="11" t="s">
@@ -9727,7 +9733,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="9">
-        <f>B243+C243</f>
+        <f t="shared" ref="G243:G259" si="28">B243+C243</f>
         <v>0</v>
       </c>
       <c r="H243" s="10">
@@ -9746,7 +9752,7 @@
       <c r="B244" s="9"/>
       <c r="C244" s="9"/>
       <c r="D244" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>60</v>
       </c>
       <c r="E244" s="9"/>
@@ -9754,11 +9760,11 @@
         <v>60</v>
       </c>
       <c r="G244" s="9">
-        <f>B244+C244</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H244" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I244" s="11" t="s">
@@ -9776,7 +9782,7 @@
       <c r="B245" s="9"/>
       <c r="C245" s="9"/>
       <c r="D245" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>66</v>
       </c>
       <c r="E245" s="9">
@@ -9786,11 +9792,11 @@
         <v>66</v>
       </c>
       <c r="G245" s="9">
-        <f>B245+C245</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H245" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I245" s="11" t="s">
@@ -9816,7 +9822,7 @@
         <v>1</v>
       </c>
       <c r="G246" s="9">
-        <f>B246+C246</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H246" s="10">
@@ -9838,7 +9844,7 @@
       <c r="B247" s="9"/>
       <c r="C247" s="9"/>
       <c r="D247" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>63</v>
       </c>
       <c r="E247" s="9"/>
@@ -9846,11 +9852,11 @@
         <v>63</v>
       </c>
       <c r="G247" s="9">
-        <f>B247+C247</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H247" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I247" s="11" t="s">
@@ -9868,7 +9874,7 @@
       <c r="B248" s="9"/>
       <c r="C248" s="9"/>
       <c r="D248" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>61</v>
       </c>
       <c r="E248" s="9"/>
@@ -9876,11 +9882,11 @@
         <v>61</v>
       </c>
       <c r="G248" s="9">
-        <f>B248+C248</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H248" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I248" s="11" t="s">
@@ -9905,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="G249" s="9">
-        <f>B249+C249</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H249" s="10">
@@ -9926,7 +9932,7 @@
       <c r="B250" s="9"/>
       <c r="C250" s="9"/>
       <c r="D250" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>34</v>
       </c>
       <c r="E250" s="9"/>
@@ -9934,11 +9940,11 @@
         <v>34</v>
       </c>
       <c r="G250" s="9">
-        <f>B250+C250</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H250" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I250" s="11"/>
@@ -9961,7 +9967,7 @@
         <v>0</v>
       </c>
       <c r="G251" s="9">
-        <f>B251+C251</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H251" s="10">
@@ -9989,7 +9995,7 @@
         <v>0</v>
       </c>
       <c r="G252" s="9">
-        <f>B252+C252</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H252" s="10">
@@ -10010,7 +10016,7 @@
       <c r="B253" s="9"/>
       <c r="C253" s="9"/>
       <c r="D253" s="9">
-        <f t="shared" si="7"/>
+        <f t="shared" si="26"/>
         <v>13</v>
       </c>
       <c r="E253" s="9"/>
@@ -10018,11 +10024,11 @@
         <v>13</v>
       </c>
       <c r="G253" s="9">
-        <f>B253+C253</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H253" s="10">
-        <f t="shared" si="6"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="I253" s="11"/>
@@ -10045,7 +10051,7 @@
         <v>0</v>
       </c>
       <c r="G254" s="9">
-        <f>B254+C254</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H254" s="10">
@@ -10071,7 +10077,7 @@
         <v>1</v>
       </c>
       <c r="G255" s="9">
-        <f>B255+C255</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H255" s="10">
@@ -10099,7 +10105,7 @@
         <v>0</v>
       </c>
       <c r="G256" s="9">
-        <f>B256+C256</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H256" s="10">
@@ -10120,7 +10126,7 @@
       <c r="B257" s="9"/>
       <c r="C257" s="9"/>
       <c r="D257" s="9">
-        <f t="shared" ref="D257" si="8">F257-G257</f>
+        <f t="shared" ref="D257" si="29">F257-G257</f>
         <v>17</v>
       </c>
       <c r="E257" s="9"/>
@@ -10128,11 +10134,11 @@
         <v>17</v>
       </c>
       <c r="G257" s="9">
-        <f>B257+C257</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H257" s="10">
-        <f t="shared" ref="H257:H258" si="9">G257/F257</f>
+        <f t="shared" ref="H257:H258" si="30">G257/F257</f>
         <v>0</v>
       </c>
       <c r="I257" s="11" t="s">
@@ -10158,11 +10164,11 @@
         <v>19</v>
       </c>
       <c r="G258" s="9">
-        <f>B258+C258</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H258" s="10">
-        <f t="shared" si="9"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="I258" s="11" t="s">
@@ -10197,7 +10203,7 @@
         <v>15632</v>
       </c>
       <c r="G259" s="7">
-        <f>B259+C259</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="H259" s="12">

--- a/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
+++ b/app/routes/generate-reports/.server/workbooks/private_sector.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="378">
   <si>
     <t>Диспечерское наименование ТП</t>
   </si>
@@ -1146,6 +1146,12 @@
   </si>
   <si>
     <t>ТП-152</t>
+  </si>
+  <si>
+    <t>ТП-281</t>
+  </si>
+  <si>
+    <t>ТП-282П</t>
   </si>
 </sst>
 </file>
@@ -1592,10 +1598,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:AMJ259"/>
+  <dimension ref="A1:AMJ261"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="A232" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9733,7 +9739,7 @@
         <v>0</v>
       </c>
       <c r="G243" s="9">
-        <f t="shared" ref="G243:G259" si="28">B243+C243</f>
+        <f t="shared" ref="G243:G261" si="28">B243+C243</f>
         <v>0</v>
       </c>
       <c r="H243" s="10">
@@ -10138,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="H257" s="10">
-        <f t="shared" ref="H257:H258" si="30">G257/F257</f>
+        <f t="shared" ref="H257:H260" si="30">G257/F257</f>
         <v>0</v>
       </c>
       <c r="I257" s="11" t="s">
@@ -10180,39 +10186,97 @@
       </c>
     </row>
     <row r="259" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A259" s="4" t="s">
+      <c r="A259" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B259" s="9"/>
+      <c r="C259" s="9"/>
+      <c r="D259" s="9">
+        <f t="shared" ref="D259:D260" si="31">F259-G259</f>
+        <v>0</v>
+      </c>
+      <c r="E259" s="9"/>
+      <c r="F259" s="9">
+        <v>0</v>
+      </c>
+      <c r="G259" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H259" s="10" t="e">
+        <f>G259/F259</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I259" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="J259" s="11"/>
+      <c r="K259" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A260" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B260" s="9"/>
+      <c r="C260" s="9"/>
+      <c r="D260" s="9">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="E260" s="9"/>
+      <c r="F260" s="9">
+        <v>0</v>
+      </c>
+      <c r="G260" s="9">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="H260" s="10" t="e">
+        <f t="shared" si="30"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I260" s="11"/>
+      <c r="J260" s="11"/>
+      <c r="K260" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A261" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B259" s="7">
-        <f>SUM(B3:B258)</f>
-        <v>0</v>
-      </c>
-      <c r="C259" s="7">
-        <v>0</v>
-      </c>
-      <c r="D259" s="7">
-        <f>SUM(D2:D258)</f>
+      <c r="B261" s="7">
+        <f>SUM(B3:B260)</f>
+        <v>0</v>
+      </c>
+      <c r="C261" s="7">
+        <v>0</v>
+      </c>
+      <c r="D261" s="7">
+        <f>SUM(D2:D260)</f>
         <v>15573</v>
       </c>
-      <c r="E259" s="7">
-        <f>SUM(E2:E258)</f>
+      <c r="E261" s="7">
+        <f>SUM(E2:E260)</f>
         <v>143</v>
       </c>
-      <c r="F259" s="7">
-        <f>SUM(F2:F258)</f>
+      <c r="F261" s="7">
+        <f>SUM(F2:F260)</f>
         <v>15632</v>
       </c>
-      <c r="G259" s="7">
+      <c r="G261" s="7">
         <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="H259" s="12">
-        <f>G259/F259</f>
-        <v>0</v>
-      </c>
-      <c r="I259" s="11"/>
-      <c r="J259" s="11"/>
-      <c r="K259" s="11"/>
+      <c r="H261" s="12">
+        <f>G261/F261</f>
+        <v>0</v>
+      </c>
+      <c r="I261" s="11"/>
+      <c r="J261" s="11"/>
+      <c r="K261" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
